--- a/exampleSchedule.xlsx
+++ b/exampleSchedule.xlsx
@@ -6,12 +6,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.hoopes\Documents\ScheduleTrakv0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.hoopes\Documents\Local Backups\ScheduleTrak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED5EAF0-D47D-4DC7-8239-8DF05D4E2C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D6668C-DAF4-4123-BFA3-1BBE5D84AF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="614" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" tabRatio="614" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutomationSchedule" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="52">
   <si>
     <t>Key</t>
   </si>
@@ -170,12 +170,36 @@
   <si>
     <t>*** Release Help ***</t>
   </si>
+  <si>
+    <t>Leah Doe</t>
+  </si>
+  <si>
+    <t>Onboarding training</t>
+  </si>
+  <si>
+    <t>New Project Planning</t>
+  </si>
+  <si>
+    <t>Project Documentation</t>
+  </si>
+  <si>
+    <t>Shadowing Jane</t>
+  </si>
+  <si>
+    <t>Project Startup</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Chicago Meeting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -268,8 +292,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +409,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF420E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -662,12 +699,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,47 +904,32 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -860,6 +946,21 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,29 +976,71 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1372,11 +1515,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H756"/>
+  <dimension ref="A1:H757"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1392,14 +1535,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1481,13 +1624,13 @@
       <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
@@ -1495,15 +1638,15 @@
       <c r="A6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="61" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
@@ -1531,10 +1674,10 @@
       <c r="A8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="66" t="s">
         <v>28</v>
       </c>
@@ -1627,7 +1770,7 @@
       <c r="C12" s="70"/>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
@@ -1635,15 +1778,15 @@
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="61" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
@@ -1651,15 +1794,15 @@
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="72" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
@@ -1667,15 +1810,15 @@
       <c r="A15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
     </row>
@@ -1757,11 +1900,11 @@
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="78"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="41" t="s">
         <v>35</v>
       </c>
@@ -1775,11 +1918,11 @@
       <c r="A20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="39" t="s">
         <v>35</v>
       </c>
@@ -1809,14 +1952,14 @@
       <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="53"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="46" t="s">
         <v>34</v>
       </c>
@@ -1904,10 +2047,10 @@
       <c r="B26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="41" t="s">
         <v>38</v>
       </c>
@@ -1924,10 +2067,10 @@
       <c r="B27" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="41" t="s">
         <v>38</v>
       </c>
@@ -1966,10 +2109,10 @@
       <c r="B29" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="53"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="41" t="s">
         <v>38</v>
       </c>
@@ -2057,13 +2200,13 @@
       <c r="A33" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="57"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -2071,13 +2214,13 @@
       <c r="A34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="57"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
@@ -2094,10 +2237,10 @@
       <c r="D35" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
@@ -2105,13 +2248,13 @@
       <c r="A36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="57"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
     </row>
@@ -2140,204 +2283,282 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="A39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="12">
+        <v>45327</v>
+      </c>
+      <c r="C39" s="12">
+        <v>45328</v>
+      </c>
+      <c r="D39" s="12">
+        <v>45329</v>
+      </c>
+      <c r="E39" s="12">
+        <v>45330</v>
+      </c>
+      <c r="F39" s="12">
+        <v>45331</v>
+      </c>
+      <c r="G39" s="12">
+        <v>45332</v>
+      </c>
+      <c r="H39" s="12">
+        <v>45333</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="A40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="57"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="A41" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
+      <c r="A42" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="71"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="A43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
+      <c r="A44" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
     </row>
     <row r="45" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
+      <c r="A45" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
     </row>
     <row r="47" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
     </row>
     <row r="48" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
     </row>
     <row r="49" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
     </row>
     <row r="50" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
     </row>
     <row r="51" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
     </row>
     <row r="52" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
     </row>
     <row r="53" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
     </row>
     <row r="55" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
@@ -2350,129 +2571,129 @@
       <c r="H58" s="22"/>
     </row>
     <row r="59" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
     </row>
     <row r="60" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
     </row>
-    <row r="61" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
     </row>
-    <row r="62" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
+    <row r="62" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
     </row>
     <row r="63" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
     </row>
     <row r="64" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="21"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
     </row>
     <row r="65" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
     </row>
     <row r="66" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
     </row>
     <row r="67" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
     </row>
     <row r="68" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
     </row>
     <row r="69" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
@@ -2480,124 +2701,124 @@
       <c r="H71" s="22"/>
     </row>
     <row r="72" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
     </row>
     <row r="73" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
     </row>
-    <row r="74" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
     </row>
-    <row r="75" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
+    <row r="75" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
     </row>
     <row r="76" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
     </row>
     <row r="77" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
     </row>
     <row r="78" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
     </row>
     <row r="79" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
     </row>
     <row r="80" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
     </row>
     <row r="81" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
     </row>
     <row r="82" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
@@ -2610,124 +2831,124 @@
       <c r="H84" s="22"/>
     </row>
     <row r="85" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
     </row>
     <row r="86" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
     </row>
     <row r="87" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
     </row>
     <row r="88" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
     </row>
-    <row r="89" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
+    <row r="89" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
     </row>
-    <row r="90" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
+    <row r="90" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
     </row>
     <row r="91" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
     </row>
     <row r="92" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
     </row>
     <row r="93" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
     </row>
     <row r="94" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
     </row>
     <row r="95" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="97" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
@@ -2740,22 +2961,22 @@
       <c r="H97" s="22"/>
     </row>
     <row r="98" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
     </row>
     <row r="99" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
     </row>
@@ -2770,27 +2991,27 @@
       <c r="H100" s="22"/>
     </row>
     <row r="101" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
     </row>
-    <row r="102" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
+    <row r="102" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
     </row>
-    <row r="103" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
+    <row r="103" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
@@ -2810,7 +3031,7 @@
       <c r="H104" s="22"/>
     </row>
     <row r="105" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
@@ -2821,43 +3042,43 @@
     </row>
     <row r="106" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
     </row>
     <row r="107" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
     </row>
     <row r="108" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
     </row>
     <row r="109" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="110" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
@@ -2870,22 +3091,22 @@
       <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="59"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
     </row>
     <row r="112" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
     </row>
@@ -2899,28 +3120,28 @@
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
     </row>
-    <row r="114" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
-      <c r="B114" s="59"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
+    <row r="114" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="23"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
     </row>
-    <row r="115" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
+    <row r="115" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
     </row>
     <row r="116" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
+      <c r="A116" s="23"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
@@ -2940,7 +3161,7 @@
       <c r="H117" s="22"/>
     </row>
     <row r="118" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
       <c r="D118" s="21"/>
@@ -2951,43 +3172,43 @@
     </row>
     <row r="119" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="58"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
     </row>
     <row r="120" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
     </row>
     <row r="121" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
     </row>
     <row r="122" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
     </row>
     <row r="123" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18"/>
@@ -3000,57 +3221,57 @@
       <c r="H123" s="22"/>
     </row>
     <row r="124" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="23"/>
-      <c r="B124" s="59"/>
-      <c r="C124" s="59"/>
-      <c r="D124" s="59"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="59"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
     </row>
     <row r="125" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
     </row>
     <row r="126" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="59"/>
-      <c r="D126" s="59"/>
-      <c r="E126" s="59"/>
-      <c r="F126" s="59"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
       <c r="G126" s="22"/>
       <c r="H126" s="22"/>
     </row>
-    <row r="127" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="18"/>
-      <c r="B127" s="59"/>
-      <c r="C127" s="59"/>
-      <c r="D127" s="59"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
+    <row r="127" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="23"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
     </row>
-    <row r="128" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="23"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
+    <row r="128" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="18"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
     </row>
     <row r="129" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18"/>
+      <c r="A129" s="23"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
       <c r="D129" s="21"/>
@@ -3061,63 +3282,63 @@
     </row>
     <row r="130" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="59"/>
-      <c r="D130" s="59"/>
-      <c r="E130" s="59"/>
-      <c r="F130" s="59"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
       <c r="G130" s="22"/>
       <c r="H130" s="22"/>
     </row>
     <row r="131" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="23"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="47"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
     </row>
     <row r="132" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="58"/>
-      <c r="F132" s="58"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
       <c r="G132" s="22"/>
       <c r="H132" s="22"/>
     </row>
     <row r="133" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="48"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="48"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
     </row>
     <row r="134" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
     </row>
     <row r="135" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
     </row>
     <row r="136" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="18"/>
@@ -3130,154 +3351,154 @@
       <c r="H136" s="22"/>
     </row>
     <row r="137" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="23"/>
-      <c r="B137" s="59"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="59"/>
-      <c r="E137" s="59"/>
-      <c r="F137" s="59"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
     </row>
     <row r="138" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
     </row>
     <row r="139" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
-      <c r="B139" s="59"/>
-      <c r="C139" s="59"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
     </row>
     <row r="140" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
-      <c r="B140" s="59"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="59"/>
-      <c r="F140" s="59"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="47"/>
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
     </row>
-    <row r="141" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="23"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
+    <row r="141" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="47"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="47"/>
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
     </row>
-    <row r="142" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="18"/>
-      <c r="B142" s="59"/>
-      <c r="C142" s="59"/>
-      <c r="D142" s="59"/>
-      <c r="E142" s="59"/>
-      <c r="F142" s="59"/>
+    <row r="142" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="23"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
     </row>
     <row r="143" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="18"/>
-      <c r="B143" s="59"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="59"/>
-      <c r="E143" s="59"/>
-      <c r="F143" s="59"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
     </row>
     <row r="144" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
-      <c r="B144" s="59"/>
-      <c r="C144" s="59"/>
-      <c r="D144" s="59"/>
-      <c r="E144" s="59"/>
-      <c r="F144" s="59"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
     </row>
     <row r="145" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
-      <c r="B145" s="59"/>
-      <c r="C145" s="59"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="47"/>
+      <c r="D145" s="47"/>
+      <c r="E145" s="47"/>
+      <c r="F145" s="47"/>
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
     </row>
     <row r="146" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="18"/>
-      <c r="B146" s="59"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="59"/>
-      <c r="E146" s="59"/>
-      <c r="F146" s="59"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="47"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="47"/>
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
     </row>
     <row r="147" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="23"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="47"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
     </row>
     <row r="148" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="58"/>
-      <c r="F148" s="58"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
       <c r="G148" s="22"/>
       <c r="H148" s="22"/>
     </row>
     <row r="149" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="48"/>
+      <c r="C149" s="48"/>
+      <c r="D149" s="48"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
     </row>
     <row r="150" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="18"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
     </row>
     <row r="151" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="18"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
     </row>
     <row r="152" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="18"/>
@@ -3289,22 +3510,22 @@
       <c r="G152" s="22"/>
       <c r="H152" s="22"/>
     </row>
-    <row r="153" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="23"/>
-      <c r="B153" s="59"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
+    <row r="153" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
       <c r="F153" s="21"/>
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
     </row>
-    <row r="154" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="47"/>
       <c r="F154" s="21"/>
       <c r="G154" s="22"/>
       <c r="H154" s="22"/>
@@ -3317,137 +3538,137 @@
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
       <c r="G155" s="22"/>
-      <c r="H155" s="18"/>
+      <c r="H155" s="22"/>
     </row>
     <row r="156" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
-      <c r="B156" s="59"/>
-      <c r="C156" s="59"/>
-      <c r="D156" s="59"/>
-      <c r="E156" s="59"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
       <c r="F156" s="21"/>
       <c r="G156" s="22"/>
-      <c r="H156" s="22"/>
+      <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="23"/>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="47"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="47"/>
       <c r="F157" s="21"/>
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
     </row>
     <row r="158" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="18"/>
-      <c r="B158" s="59"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="59"/>
-      <c r="E158" s="59"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
       <c r="F158" s="21"/>
       <c r="G158" s="22"/>
       <c r="H158" s="22"/>
     </row>
     <row r="159" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="27"/>
-      <c r="B159" s="59"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="59"/>
-      <c r="E159" s="59"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="47"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="47"/>
       <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="21"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
     </row>
     <row r="160" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
-      <c r="B160" s="59"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="59"/>
-      <c r="E160" s="59"/>
+      <c r="A160" s="27"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="47"/>
+      <c r="D160" s="47"/>
+      <c r="E160" s="47"/>
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="18"/>
-      <c r="B161" s="59"/>
-      <c r="C161" s="59"/>
-      <c r="D161" s="59"/>
-      <c r="E161" s="59"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="47"/>
       <c r="F161" s="21"/>
-      <c r="G161" s="22"/>
-      <c r="H161" s="22"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
     </row>
     <row r="162" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="27"/>
-      <c r="B162" s="59"/>
-      <c r="C162" s="59"/>
-      <c r="D162" s="59"/>
-      <c r="E162" s="59"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="47"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="47"/>
+      <c r="E162" s="47"/>
       <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
     </row>
     <row r="163" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="18"/>
-      <c r="B163" s="59"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="59"/>
-      <c r="E163" s="59"/>
+      <c r="A163" s="27"/>
+      <c r="B163" s="47"/>
+      <c r="C163" s="47"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="47"/>
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
       <c r="H163" s="21"/>
     </row>
     <row r="164" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="23"/>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="47"/>
+      <c r="C164" s="47"/>
+      <c r="D164" s="47"/>
+      <c r="E164" s="47"/>
       <c r="F164" s="21"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="22"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
     </row>
     <row r="165" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="28"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
       <c r="G165" s="22"/>
       <c r="H165" s="22"/>
     </row>
-    <row r="166" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="26"/>
-      <c r="H166" s="26"/>
-    </row>
-    <row r="167" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="18"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20"/>
+    <row r="166" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="23"/>
+      <c r="B166" s="48"/>
+      <c r="C166" s="48"/>
+      <c r="D166" s="48"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
+    </row>
+    <row r="167" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="26"/>
     </row>
     <row r="168" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="21"/>
-      <c r="E168" s="21"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="22"/>
-      <c r="H168" s="22"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
     </row>
     <row r="169" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="18"/>
@@ -3460,164 +3681,164 @@
       <c r="H169" s="22"/>
     </row>
     <row r="170" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="23"/>
-      <c r="B170" s="59"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="59"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
+      <c r="A170" s="18"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
       <c r="G170" s="22"/>
       <c r="H170" s="22"/>
     </row>
     <row r="171" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
-      <c r="B171" s="59"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="47"/>
+      <c r="D171" s="47"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="47"/>
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
     </row>
     <row r="172" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="21"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21"/>
+      <c r="B172" s="47"/>
+      <c r="C172" s="47"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="47"/>
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
     </row>
     <row r="173" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="18"/>
-      <c r="B173" s="59"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
+      <c r="A173" s="23"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
       <c r="G173" s="22"/>
       <c r="H173" s="22"/>
     </row>
     <row r="174" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="23"/>
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21"/>
+      <c r="A174" s="18"/>
+      <c r="B174" s="47"/>
+      <c r="C174" s="47"/>
+      <c r="D174" s="47"/>
+      <c r="E174" s="47"/>
+      <c r="F174" s="47"/>
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
     </row>
     <row r="175" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="18"/>
-      <c r="B175" s="59"/>
-      <c r="C175" s="59"/>
-      <c r="D175" s="59"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="59"/>
+      <c r="A175" s="23"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
       <c r="G175" s="22"/>
       <c r="H175" s="22"/>
     </row>
     <row r="176" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="18"/>
-      <c r="B176" s="59"/>
-      <c r="C176" s="59"/>
-      <c r="D176" s="59"/>
-      <c r="E176" s="59"/>
-      <c r="F176" s="59"/>
+      <c r="B176" s="47"/>
+      <c r="C176" s="47"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="47"/>
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
     </row>
     <row r="177" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
-      <c r="B177" s="59"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="59"/>
-      <c r="E177" s="59"/>
-      <c r="F177" s="59"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="47"/>
+      <c r="D177" s="47"/>
+      <c r="E177" s="47"/>
+      <c r="F177" s="47"/>
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
     </row>
     <row r="178" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
-      <c r="B178" s="59"/>
-      <c r="C178" s="59"/>
-      <c r="D178" s="59"/>
-      <c r="E178" s="59"/>
-      <c r="F178" s="59"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="47"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="47"/>
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
     </row>
-    <row r="179" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
-      <c r="B179" s="59"/>
-      <c r="C179" s="59"/>
-      <c r="D179" s="59"/>
-      <c r="E179" s="59"/>
-      <c r="F179" s="59"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="47"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
     </row>
-    <row r="180" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
-      <c r="B180" s="59"/>
-      <c r="C180" s="59"/>
-      <c r="D180" s="59"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="59"/>
+      <c r="B180" s="47"/>
+      <c r="C180" s="47"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="47"/>
       <c r="G180" s="22"/>
       <c r="H180" s="22"/>
     </row>
     <row r="181" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="23"/>
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="21"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="47"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="47"/>
+      <c r="F181" s="47"/>
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
     </row>
     <row r="182" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
-      <c r="B182" s="58"/>
-      <c r="C182" s="58"/>
-      <c r="D182" s="58"/>
-      <c r="E182" s="58"/>
-      <c r="F182" s="58"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
     </row>
     <row r="183" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
-      <c r="H183" s="26"/>
+      <c r="A183" s="23"/>
+      <c r="B183" s="48"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="48"/>
+      <c r="E183" s="48"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
     </row>
     <row r="184" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="18"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="26"/>
     </row>
     <row r="185" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="21"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="22"/>
-      <c r="H185" s="22"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
     </row>
     <row r="186" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
@@ -3630,164 +3851,164 @@
       <c r="H186" s="22"/>
     </row>
     <row r="187" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="23"/>
-      <c r="B187" s="59"/>
-      <c r="C187" s="59"/>
-      <c r="D187" s="59"/>
-      <c r="E187" s="59"/>
-      <c r="F187" s="59"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
       <c r="G187" s="22"/>
       <c r="H187" s="22"/>
     </row>
     <row r="188" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
-      <c r="B188" s="21"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="21"/>
-      <c r="E188" s="21"/>
-      <c r="F188" s="21"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="47"/>
+      <c r="D188" s="47"/>
+      <c r="E188" s="47"/>
+      <c r="F188" s="47"/>
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
     </row>
     <row r="189" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
-      <c r="B189" s="59"/>
-      <c r="C189" s="59"/>
-      <c r="D189" s="59"/>
-      <c r="E189" s="59"/>
-      <c r="F189" s="59"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
     </row>
     <row r="190" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18"/>
-      <c r="B190" s="59"/>
-      <c r="C190" s="59"/>
-      <c r="D190" s="59"/>
-      <c r="E190" s="59"/>
-      <c r="F190" s="59"/>
+      <c r="A190" s="23"/>
+      <c r="B190" s="47"/>
+      <c r="C190" s="47"/>
+      <c r="D190" s="47"/>
+      <c r="E190" s="47"/>
+      <c r="F190" s="47"/>
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
     </row>
     <row r="191" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="23"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="47"/>
+      <c r="D191" s="47"/>
+      <c r="E191" s="47"/>
+      <c r="F191" s="47"/>
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
     </row>
-    <row r="192" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="18"/>
-      <c r="B192" s="59"/>
-      <c r="C192" s="59"/>
-      <c r="D192" s="59"/>
-      <c r="E192" s="59"/>
-      <c r="F192" s="59"/>
+    <row r="192" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="23"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
     </row>
-    <row r="193" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
-      <c r="B193" s="59"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="59"/>
-      <c r="E193" s="59"/>
-      <c r="F193" s="59"/>
+      <c r="B193" s="47"/>
+      <c r="C193" s="47"/>
+      <c r="D193" s="47"/>
+      <c r="E193" s="47"/>
+      <c r="F193" s="47"/>
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
     </row>
     <row r="194" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
-      <c r="B194" s="59"/>
-      <c r="C194" s="59"/>
-      <c r="D194" s="59"/>
-      <c r="E194" s="59"/>
-      <c r="F194" s="59"/>
+      <c r="B194" s="47"/>
+      <c r="C194" s="47"/>
+      <c r="D194" s="47"/>
+      <c r="E194" s="47"/>
+      <c r="F194" s="47"/>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
     </row>
     <row r="195" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="18"/>
-      <c r="B195" s="59"/>
-      <c r="C195" s="59"/>
-      <c r="D195" s="59"/>
-      <c r="E195" s="59"/>
-      <c r="F195" s="59"/>
+      <c r="B195" s="47"/>
+      <c r="C195" s="47"/>
+      <c r="D195" s="47"/>
+      <c r="E195" s="47"/>
+      <c r="F195" s="47"/>
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
     </row>
     <row r="196" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="18"/>
-      <c r="B196" s="59"/>
-      <c r="C196" s="59"/>
-      <c r="D196" s="59"/>
-      <c r="E196" s="59"/>
-      <c r="F196" s="59"/>
+      <c r="B196" s="47"/>
+      <c r="C196" s="47"/>
+      <c r="D196" s="47"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="47"/>
       <c r="G196" s="22"/>
       <c r="H196" s="22"/>
     </row>
     <row r="197" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="18"/>
-      <c r="B197" s="59"/>
-      <c r="C197" s="59"/>
-      <c r="D197" s="59"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="59"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="47"/>
+      <c r="D197" s="47"/>
+      <c r="E197" s="47"/>
+      <c r="F197" s="47"/>
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
     </row>
     <row r="198" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="23"/>
-      <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
+      <c r="A198" s="18"/>
+      <c r="B198" s="47"/>
+      <c r="C198" s="47"/>
+      <c r="D198" s="47"/>
+      <c r="E198" s="47"/>
+      <c r="F198" s="47"/>
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
     </row>
     <row r="199" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
-      <c r="B199" s="58"/>
-      <c r="C199" s="58"/>
-      <c r="D199" s="58"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="58"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
       <c r="G199" s="22"/>
       <c r="H199" s="22"/>
     </row>
     <row r="200" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-      <c r="F200" s="26"/>
-      <c r="G200" s="26"/>
-      <c r="H200" s="26"/>
+      <c r="A200" s="23"/>
+      <c r="B200" s="48"/>
+      <c r="C200" s="48"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="48"/>
+      <c r="F200" s="48"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
     </row>
     <row r="201" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="18"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="20"/>
-      <c r="H201" s="20"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="26"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="26"/>
     </row>
     <row r="202" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="18"/>
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="22"/>
-      <c r="H202" s="22"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="20"/>
     </row>
     <row r="203" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="18"/>
@@ -3800,134 +4021,134 @@
       <c r="H203" s="22"/>
     </row>
     <row r="204" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="23"/>
-      <c r="B204" s="59"/>
-      <c r="C204" s="59"/>
-      <c r="D204" s="59"/>
-      <c r="E204" s="59"/>
-      <c r="F204" s="59"/>
+      <c r="A204" s="18"/>
+      <c r="B204" s="21"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
       <c r="G204" s="22"/>
       <c r="H204" s="22"/>
     </row>
     <row r="205" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
+      <c r="B205" s="47"/>
+      <c r="C205" s="47"/>
+      <c r="D205" s="47"/>
+      <c r="E205" s="47"/>
+      <c r="F205" s="47"/>
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
     </row>
     <row r="206" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
-      <c r="B206" s="59"/>
-      <c r="C206" s="59"/>
-      <c r="D206" s="59"/>
-      <c r="E206" s="59"/>
-      <c r="F206" s="59"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
     </row>
     <row r="207" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="18"/>
-      <c r="B207" s="59"/>
-      <c r="C207" s="59"/>
-      <c r="D207" s="59"/>
-      <c r="E207" s="59"/>
-      <c r="F207" s="59"/>
+      <c r="A207" s="23"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="47"/>
+      <c r="D207" s="47"/>
+      <c r="E207" s="47"/>
+      <c r="F207" s="47"/>
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
     </row>
     <row r="208" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="23"/>
-      <c r="B208" s="21"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="21"/>
-      <c r="E208" s="21"/>
-      <c r="F208" s="21"/>
+      <c r="A208" s="18"/>
+      <c r="B208" s="47"/>
+      <c r="C208" s="47"/>
+      <c r="D208" s="47"/>
+      <c r="E208" s="47"/>
+      <c r="F208" s="47"/>
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
     </row>
-    <row r="209" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="18"/>
-      <c r="B209" s="59"/>
-      <c r="C209" s="59"/>
-      <c r="D209" s="59"/>
-      <c r="E209" s="59"/>
-      <c r="F209" s="59"/>
+    <row r="209" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="23"/>
+      <c r="B209" s="21"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
       <c r="G209" s="22"/>
       <c r="H209" s="22"/>
     </row>
-    <row r="210" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="18"/>
-      <c r="B210" s="59"/>
-      <c r="C210" s="59"/>
-      <c r="D210" s="59"/>
-      <c r="E210" s="59"/>
-      <c r="F210" s="59"/>
+      <c r="B210" s="47"/>
+      <c r="C210" s="47"/>
+      <c r="D210" s="47"/>
+      <c r="E210" s="47"/>
+      <c r="F210" s="47"/>
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
     </row>
     <row r="211" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="18"/>
-      <c r="B211" s="59"/>
-      <c r="C211" s="59"/>
-      <c r="D211" s="59"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59"/>
+      <c r="B211" s="47"/>
+      <c r="C211" s="47"/>
+      <c r="D211" s="47"/>
+      <c r="E211" s="47"/>
+      <c r="F211" s="47"/>
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
     </row>
     <row r="212" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="23"/>
-      <c r="B212" s="21"/>
-      <c r="C212" s="21"/>
-      <c r="D212" s="21"/>
-      <c r="E212" s="21"/>
-      <c r="F212" s="21"/>
+      <c r="A212" s="18"/>
+      <c r="B212" s="47"/>
+      <c r="C212" s="47"/>
+      <c r="D212" s="47"/>
+      <c r="E212" s="47"/>
+      <c r="F212" s="47"/>
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
     </row>
     <row r="213" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
-      <c r="B213" s="58"/>
-      <c r="C213" s="58"/>
-      <c r="D213" s="58"/>
-      <c r="E213" s="58"/>
-      <c r="F213" s="58"/>
+      <c r="B213" s="21"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
       <c r="G213" s="22"/>
       <c r="H213" s="22"/>
     </row>
     <row r="214" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="26"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
-      <c r="F214" s="26"/>
-      <c r="G214" s="26"/>
-      <c r="H214" s="26"/>
+      <c r="A214" s="23"/>
+      <c r="B214" s="48"/>
+      <c r="C214" s="48"/>
+      <c r="D214" s="48"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="48"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="22"/>
     </row>
     <row r="215" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="18"/>
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="20"/>
-      <c r="H215" s="20"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="26"/>
+      <c r="G215" s="26"/>
+      <c r="H215" s="26"/>
     </row>
     <row r="216" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="18"/>
-      <c r="B216" s="21"/>
-      <c r="C216" s="21"/>
-      <c r="D216" s="21"/>
-      <c r="E216" s="21"/>
-      <c r="F216" s="21"/>
-      <c r="G216" s="22"/>
-      <c r="H216" s="22"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="19"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="20"/>
     </row>
     <row r="217" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="18"/>
@@ -3940,152 +4161,152 @@
       <c r="H217" s="22"/>
     </row>
     <row r="218" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="23"/>
-      <c r="B218" s="59"/>
-      <c r="C218" s="59"/>
-      <c r="D218" s="59"/>
-      <c r="E218" s="59"/>
-      <c r="F218" s="59"/>
+      <c r="A218" s="18"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
       <c r="G218" s="22"/>
       <c r="H218" s="22"/>
     </row>
     <row r="219" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
-      <c r="B219" s="21"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="21"/>
+      <c r="B219" s="47"/>
+      <c r="C219" s="47"/>
+      <c r="D219" s="47"/>
+      <c r="E219" s="47"/>
+      <c r="F219" s="47"/>
       <c r="G219" s="22"/>
       <c r="H219" s="22"/>
     </row>
     <row r="220" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
-      <c r="B220" s="59"/>
-      <c r="C220" s="59"/>
-      <c r="D220" s="59"/>
-      <c r="E220" s="59"/>
-      <c r="F220" s="59"/>
+      <c r="B220" s="21"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
       <c r="G220" s="22"/>
       <c r="H220" s="22"/>
     </row>
     <row r="221" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="18"/>
-      <c r="B221" s="59"/>
-      <c r="C221" s="59"/>
-      <c r="D221" s="59"/>
-      <c r="E221" s="59"/>
-      <c r="F221" s="59"/>
+      <c r="A221" s="23"/>
+      <c r="B221" s="47"/>
+      <c r="C221" s="47"/>
+      <c r="D221" s="47"/>
+      <c r="E221" s="47"/>
+      <c r="F221" s="47"/>
       <c r="G221" s="22"/>
       <c r="H221" s="22"/>
     </row>
     <row r="222" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="23"/>
-      <c r="B222" s="21"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="21"/>
-      <c r="F222" s="25"/>
+      <c r="A222" s="18"/>
+      <c r="B222" s="47"/>
+      <c r="C222" s="47"/>
+      <c r="D222" s="47"/>
+      <c r="E222" s="47"/>
+      <c r="F222" s="47"/>
       <c r="G222" s="22"/>
       <c r="H222" s="22"/>
     </row>
     <row r="223" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="18"/>
-      <c r="B223" s="59"/>
-      <c r="C223" s="59"/>
-      <c r="D223" s="59"/>
-      <c r="E223" s="59"/>
-      <c r="F223" s="59"/>
+      <c r="A223" s="23"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="25"/>
       <c r="G223" s="22"/>
       <c r="H223" s="22"/>
     </row>
     <row r="224" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="18"/>
-      <c r="B224" s="59"/>
-      <c r="C224" s="59"/>
-      <c r="D224" s="59"/>
-      <c r="E224" s="59"/>
-      <c r="F224" s="59"/>
+      <c r="B224" s="47"/>
+      <c r="C224" s="47"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="47"/>
+      <c r="F224" s="47"/>
       <c r="G224" s="22"/>
       <c r="H224" s="22"/>
     </row>
     <row r="225" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="18"/>
-      <c r="B225" s="59"/>
-      <c r="C225" s="59"/>
-      <c r="D225" s="59"/>
-      <c r="E225" s="59"/>
-      <c r="F225" s="59"/>
+      <c r="B225" s="47"/>
+      <c r="C225" s="47"/>
+      <c r="D225" s="47"/>
+      <c r="E225" s="47"/>
+      <c r="F225" s="47"/>
       <c r="G225" s="22"/>
       <c r="H225" s="22"/>
     </row>
-    <row r="226" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="23"/>
-      <c r="B226" s="21"/>
-      <c r="C226" s="21"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
+    <row r="226" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="18"/>
+      <c r="B226" s="47"/>
+      <c r="C226" s="47"/>
+      <c r="D226" s="47"/>
+      <c r="E226" s="47"/>
+      <c r="F226" s="47"/>
       <c r="G226" s="22"/>
       <c r="H226" s="22"/>
     </row>
-    <row r="227" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
-      <c r="B227" s="58"/>
-      <c r="C227" s="58"/>
-      <c r="D227" s="58"/>
-      <c r="E227" s="58"/>
-      <c r="F227" s="58"/>
+      <c r="B227" s="21"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
       <c r="G227" s="22"/>
       <c r="H227" s="22"/>
     </row>
     <row r="228" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="26"/>
-      <c r="G228" s="26"/>
-      <c r="H228" s="26"/>
+      <c r="A228" s="23"/>
+      <c r="B228" s="48"/>
+      <c r="C228" s="48"/>
+      <c r="D228" s="48"/>
+      <c r="E228" s="48"/>
+      <c r="F228" s="48"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
     </row>
     <row r="229" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="18"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="19"/>
-      <c r="G229" s="20"/>
-      <c r="H229" s="20"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="26"/>
     </row>
     <row r="230" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="18"/>
-      <c r="B230" s="21"/>
-      <c r="C230" s="21"/>
-      <c r="D230" s="21"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="21"/>
-      <c r="G230" s="22"/>
-      <c r="H230" s="22"/>
+      <c r="B230" s="19"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="20"/>
     </row>
     <row r="231" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="18"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
-      <c r="D231" s="59"/>
-      <c r="E231" s="59"/>
-      <c r="F231" s="59"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="21"/>
       <c r="G231" s="22"/>
       <c r="H231" s="22"/>
     </row>
     <row r="232" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="23"/>
+      <c r="A232" s="18"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
-      <c r="D232" s="21"/>
-      <c r="E232" s="21"/>
-      <c r="F232" s="21"/>
+      <c r="D232" s="47"/>
+      <c r="E232" s="47"/>
+      <c r="F232" s="47"/>
       <c r="G232" s="22"/>
       <c r="H232" s="22"/>
     </row>
@@ -4101,253 +4322,253 @@
     </row>
     <row r="234" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
-      <c r="B234" s="59"/>
-      <c r="C234" s="59"/>
-      <c r="D234" s="59"/>
-      <c r="E234" s="59"/>
-      <c r="F234" s="59"/>
+      <c r="B234" s="21"/>
+      <c r="C234" s="21"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
       <c r="G234" s="22"/>
       <c r="H234" s="22"/>
     </row>
     <row r="235" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="18"/>
-      <c r="B235" s="59"/>
-      <c r="C235" s="59"/>
-      <c r="D235" s="59"/>
-      <c r="E235" s="59"/>
-      <c r="F235" s="59"/>
+      <c r="A235" s="23"/>
+      <c r="B235" s="47"/>
+      <c r="C235" s="47"/>
+      <c r="D235" s="47"/>
+      <c r="E235" s="47"/>
+      <c r="F235" s="47"/>
       <c r="G235" s="22"/>
       <c r="H235" s="22"/>
     </row>
     <row r="236" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="23"/>
-      <c r="B236" s="21"/>
-      <c r="C236" s="21"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="21"/>
-      <c r="F236" s="21"/>
+      <c r="A236" s="18"/>
+      <c r="B236" s="47"/>
+      <c r="C236" s="47"/>
+      <c r="D236" s="47"/>
+      <c r="E236" s="47"/>
+      <c r="F236" s="47"/>
       <c r="G236" s="22"/>
       <c r="H236" s="22"/>
     </row>
     <row r="237" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="18"/>
-      <c r="B237" s="59"/>
-      <c r="C237" s="59"/>
-      <c r="D237" s="59"/>
-      <c r="E237" s="59"/>
-      <c r="F237" s="59"/>
+      <c r="A237" s="23"/>
+      <c r="B237" s="21"/>
+      <c r="C237" s="21"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21"/>
       <c r="G237" s="22"/>
       <c r="H237" s="22"/>
     </row>
     <row r="238" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="18"/>
-      <c r="B238" s="59"/>
-      <c r="C238" s="59"/>
-      <c r="D238" s="59"/>
-      <c r="E238" s="59"/>
-      <c r="F238" s="59"/>
+      <c r="B238" s="47"/>
+      <c r="C238" s="47"/>
+      <c r="D238" s="47"/>
+      <c r="E238" s="47"/>
+      <c r="F238" s="47"/>
       <c r="G238" s="22"/>
       <c r="H238" s="22"/>
     </row>
     <row r="239" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="18"/>
-      <c r="B239" s="59"/>
-      <c r="C239" s="59"/>
-      <c r="D239" s="59"/>
-      <c r="E239" s="59"/>
-      <c r="F239" s="59"/>
+      <c r="B239" s="47"/>
+      <c r="C239" s="47"/>
+      <c r="D239" s="47"/>
+      <c r="E239" s="47"/>
+      <c r="F239" s="47"/>
       <c r="G239" s="22"/>
       <c r="H239" s="22"/>
     </row>
     <row r="240" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="23"/>
-      <c r="B240" s="21"/>
-      <c r="C240" s="21"/>
-      <c r="D240" s="21"/>
-      <c r="E240" s="21"/>
-      <c r="F240" s="21"/>
+      <c r="A240" s="18"/>
+      <c r="B240" s="47"/>
+      <c r="C240" s="47"/>
+      <c r="D240" s="47"/>
+      <c r="E240" s="47"/>
+      <c r="F240" s="47"/>
       <c r="G240" s="22"/>
       <c r="H240" s="22"/>
     </row>
     <row r="241" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
-      <c r="B241" s="58"/>
-      <c r="C241" s="58"/>
-      <c r="D241" s="58"/>
-      <c r="E241" s="58"/>
-      <c r="F241" s="58"/>
+      <c r="B241" s="21"/>
+      <c r="C241" s="21"/>
+      <c r="D241" s="21"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21"/>
       <c r="G241" s="22"/>
       <c r="H241" s="22"/>
     </row>
     <row r="242" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="26"/>
-      <c r="E242" s="26"/>
-      <c r="F242" s="26"/>
-      <c r="G242" s="26"/>
-      <c r="H242" s="26"/>
-    </row>
-    <row r="243" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="18"/>
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="19"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="20"/>
-    </row>
-    <row r="244" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="23"/>
+      <c r="B242" s="48"/>
+      <c r="C242" s="48"/>
+      <c r="D242" s="48"/>
+      <c r="E242" s="48"/>
+      <c r="F242" s="48"/>
+      <c r="G242" s="22"/>
+      <c r="H242" s="22"/>
+    </row>
+    <row r="243" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
+      <c r="F243" s="26"/>
+      <c r="G243" s="26"/>
+      <c r="H243" s="26"/>
+    </row>
+    <row r="244" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="18"/>
-      <c r="B244" s="21"/>
-      <c r="C244" s="21"/>
-      <c r="D244" s="21"/>
-      <c r="E244" s="21"/>
-      <c r="F244" s="21"/>
-      <c r="G244" s="22"/>
-      <c r="H244" s="22"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="19"/>
+      <c r="E244" s="19"/>
+      <c r="F244" s="19"/>
+      <c r="G244" s="20"/>
+      <c r="H244" s="20"/>
     </row>
     <row r="245" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="18"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
-      <c r="D245" s="59"/>
-      <c r="E245" s="59"/>
-      <c r="F245" s="59"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="21"/>
       <c r="G245" s="22"/>
       <c r="H245" s="22"/>
     </row>
     <row r="246" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="23"/>
-      <c r="B246" s="59"/>
-      <c r="C246" s="59"/>
-      <c r="D246" s="59"/>
-      <c r="E246" s="59"/>
-      <c r="F246" s="59"/>
+      <c r="A246" s="18"/>
+      <c r="B246" s="21"/>
+      <c r="C246" s="21"/>
+      <c r="D246" s="47"/>
+      <c r="E246" s="47"/>
+      <c r="F246" s="47"/>
       <c r="G246" s="22"/>
       <c r="H246" s="22"/>
     </row>
     <row r="247" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
-      <c r="B247" s="21"/>
-      <c r="C247" s="21"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="21"/>
+      <c r="B247" s="47"/>
+      <c r="C247" s="47"/>
+      <c r="D247" s="47"/>
+      <c r="E247" s="47"/>
+      <c r="F247" s="47"/>
       <c r="G247" s="22"/>
       <c r="H247" s="22"/>
     </row>
     <row r="248" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
-      <c r="B248" s="59"/>
-      <c r="C248" s="59"/>
-      <c r="D248" s="59"/>
-      <c r="E248" s="59"/>
-      <c r="F248" s="59"/>
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21"/>
       <c r="G248" s="22"/>
       <c r="H248" s="22"/>
     </row>
     <row r="249" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="18"/>
-      <c r="B249" s="59"/>
-      <c r="C249" s="59"/>
-      <c r="D249" s="59"/>
-      <c r="E249" s="59"/>
-      <c r="F249" s="59"/>
+      <c r="A249" s="23"/>
+      <c r="B249" s="47"/>
+      <c r="C249" s="47"/>
+      <c r="D249" s="47"/>
+      <c r="E249" s="47"/>
+      <c r="F249" s="47"/>
       <c r="G249" s="22"/>
       <c r="H249" s="22"/>
     </row>
     <row r="250" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="23"/>
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="21"/>
-      <c r="F250" s="21"/>
+      <c r="A250" s="18"/>
+      <c r="B250" s="47"/>
+      <c r="C250" s="47"/>
+      <c r="D250" s="47"/>
+      <c r="E250" s="47"/>
+      <c r="F250" s="47"/>
       <c r="G250" s="22"/>
       <c r="H250" s="22"/>
     </row>
     <row r="251" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="18"/>
-      <c r="B251" s="59"/>
-      <c r="C251" s="59"/>
-      <c r="D251" s="59"/>
-      <c r="E251" s="59"/>
-      <c r="F251" s="59"/>
+      <c r="A251" s="23"/>
+      <c r="B251" s="21"/>
+      <c r="C251" s="21"/>
+      <c r="D251" s="21"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="21"/>
       <c r="G251" s="22"/>
       <c r="H251" s="22"/>
     </row>
     <row r="252" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="18"/>
-      <c r="B252" s="59"/>
-      <c r="C252" s="59"/>
-      <c r="D252" s="59"/>
-      <c r="E252" s="59"/>
-      <c r="F252" s="59"/>
+      <c r="B252" s="47"/>
+      <c r="C252" s="47"/>
+      <c r="D252" s="47"/>
+      <c r="E252" s="47"/>
+      <c r="F252" s="47"/>
       <c r="G252" s="22"/>
       <c r="H252" s="22"/>
     </row>
     <row r="253" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="18"/>
-      <c r="B253" s="59"/>
-      <c r="C253" s="59"/>
-      <c r="D253" s="59"/>
-      <c r="E253" s="59"/>
-      <c r="F253" s="59"/>
+      <c r="B253" s="47"/>
+      <c r="C253" s="47"/>
+      <c r="D253" s="47"/>
+      <c r="E253" s="47"/>
+      <c r="F253" s="47"/>
       <c r="G253" s="22"/>
       <c r="H253" s="22"/>
     </row>
     <row r="254" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="23"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="21"/>
-      <c r="F254" s="21"/>
+      <c r="A254" s="18"/>
+      <c r="B254" s="47"/>
+      <c r="C254" s="47"/>
+      <c r="D254" s="47"/>
+      <c r="E254" s="47"/>
+      <c r="F254" s="47"/>
       <c r="G254" s="22"/>
       <c r="H254" s="22"/>
     </row>
     <row r="255" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
-      <c r="B255" s="58"/>
-      <c r="C255" s="58"/>
-      <c r="D255" s="58"/>
-      <c r="E255" s="58"/>
-      <c r="F255" s="58"/>
+      <c r="B255" s="21"/>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
       <c r="G255" s="22"/>
       <c r="H255" s="22"/>
     </row>
     <row r="256" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="26"/>
-      <c r="D256" s="26"/>
-      <c r="E256" s="26"/>
-      <c r="F256" s="26"/>
-      <c r="G256" s="26"/>
-      <c r="H256" s="26"/>
+      <c r="A256" s="23"/>
+      <c r="B256" s="48"/>
+      <c r="C256" s="48"/>
+      <c r="D256" s="48"/>
+      <c r="E256" s="48"/>
+      <c r="F256" s="48"/>
+      <c r="G256" s="22"/>
+      <c r="H256" s="22"/>
     </row>
     <row r="257" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="18"/>
-      <c r="B257" s="19"/>
-      <c r="C257" s="19"/>
-      <c r="D257" s="19"/>
-      <c r="E257" s="19"/>
-      <c r="F257" s="19"/>
-      <c r="G257" s="20"/>
-      <c r="H257" s="20"/>
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26"/>
+      <c r="E257" s="26"/>
+      <c r="F257" s="26"/>
+      <c r="G257" s="26"/>
+      <c r="H257" s="26"/>
     </row>
     <row r="258" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="18"/>
-      <c r="B258" s="21"/>
-      <c r="C258" s="21"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="21"/>
-      <c r="F258" s="21"/>
-      <c r="G258" s="22"/>
-      <c r="H258" s="22"/>
+      <c r="B258" s="19"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="19"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="19"/>
+      <c r="G258" s="20"/>
+      <c r="H258" s="20"/>
     </row>
     <row r="259" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="18"/>
@@ -4359,135 +4580,135 @@
       <c r="G259" s="22"/>
       <c r="H259" s="22"/>
     </row>
-    <row r="260" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="23"/>
-      <c r="B260" s="76"/>
-      <c r="C260" s="76"/>
-      <c r="D260" s="76"/>
-      <c r="E260" s="76"/>
-      <c r="F260" s="76"/>
+    <row r="260" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="18"/>
+      <c r="B260" s="21"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="21"/>
       <c r="G260" s="22"/>
       <c r="H260" s="22"/>
     </row>
-    <row r="261" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
-      <c r="B261" s="59"/>
-      <c r="C261" s="59"/>
-      <c r="D261" s="59"/>
-      <c r="E261" s="59"/>
-      <c r="F261" s="59"/>
+      <c r="B261" s="54"/>
+      <c r="C261" s="54"/>
+      <c r="D261" s="54"/>
+      <c r="E261" s="54"/>
+      <c r="F261" s="54"/>
       <c r="G261" s="22"/>
       <c r="H261" s="22"/>
     </row>
     <row r="262" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
-      <c r="B262" s="59"/>
-      <c r="C262" s="59"/>
-      <c r="D262" s="59"/>
-      <c r="E262" s="59"/>
-      <c r="F262" s="59"/>
+      <c r="B262" s="47"/>
+      <c r="C262" s="47"/>
+      <c r="D262" s="47"/>
+      <c r="E262" s="47"/>
+      <c r="F262" s="47"/>
       <c r="G262" s="22"/>
       <c r="H262" s="22"/>
     </row>
     <row r="263" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="18"/>
-      <c r="B263" s="59"/>
-      <c r="C263" s="59"/>
-      <c r="D263" s="59"/>
-      <c r="E263" s="59"/>
-      <c r="F263" s="59"/>
+      <c r="A263" s="23"/>
+      <c r="B263" s="47"/>
+      <c r="C263" s="47"/>
+      <c r="D263" s="47"/>
+      <c r="E263" s="47"/>
+      <c r="F263" s="47"/>
       <c r="G263" s="22"/>
       <c r="H263" s="22"/>
     </row>
     <row r="264" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="23"/>
-      <c r="B264" s="21"/>
-      <c r="C264" s="21"/>
-      <c r="D264" s="21"/>
-      <c r="E264" s="21"/>
-      <c r="F264" s="21"/>
+      <c r="A264" s="18"/>
+      <c r="B264" s="47"/>
+      <c r="C264" s="47"/>
+      <c r="D264" s="47"/>
+      <c r="E264" s="47"/>
+      <c r="F264" s="47"/>
       <c r="G264" s="22"/>
       <c r="H264" s="22"/>
     </row>
     <row r="265" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="18"/>
-      <c r="B265" s="59"/>
-      <c r="C265" s="59"/>
-      <c r="D265" s="59"/>
-      <c r="E265" s="59"/>
-      <c r="F265" s="59"/>
+      <c r="A265" s="23"/>
+      <c r="B265" s="21"/>
+      <c r="C265" s="21"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="21"/>
+      <c r="F265" s="21"/>
       <c r="G265" s="22"/>
       <c r="H265" s="22"/>
     </row>
     <row r="266" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="18"/>
-      <c r="B266" s="59"/>
-      <c r="C266" s="59"/>
-      <c r="D266" s="59"/>
-      <c r="E266" s="59"/>
-      <c r="F266" s="59"/>
+      <c r="B266" s="47"/>
+      <c r="C266" s="47"/>
+      <c r="D266" s="47"/>
+      <c r="E266" s="47"/>
+      <c r="F266" s="47"/>
       <c r="G266" s="22"/>
       <c r="H266" s="22"/>
     </row>
     <row r="267" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="21"/>
-      <c r="B267" s="59"/>
-      <c r="C267" s="59"/>
-      <c r="D267" s="59"/>
-      <c r="E267" s="59"/>
-      <c r="F267" s="59"/>
+      <c r="A267" s="18"/>
+      <c r="B267" s="47"/>
+      <c r="C267" s="47"/>
+      <c r="D267" s="47"/>
+      <c r="E267" s="47"/>
+      <c r="F267" s="47"/>
       <c r="G267" s="22"/>
       <c r="H267" s="22"/>
     </row>
     <row r="268" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="23"/>
-      <c r="B268" s="21"/>
-      <c r="C268" s="21"/>
-      <c r="D268" s="21"/>
-      <c r="E268" s="21"/>
-      <c r="F268" s="21"/>
+      <c r="A268" s="21"/>
+      <c r="B268" s="47"/>
+      <c r="C268" s="47"/>
+      <c r="D268" s="47"/>
+      <c r="E268" s="47"/>
+      <c r="F268" s="47"/>
       <c r="G268" s="22"/>
       <c r="H268" s="22"/>
     </row>
     <row r="269" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
-      <c r="B269" s="58"/>
-      <c r="C269" s="58"/>
-      <c r="D269" s="58"/>
-      <c r="E269" s="58"/>
-      <c r="F269" s="58"/>
+      <c r="B269" s="21"/>
+      <c r="C269" s="21"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="21"/>
+      <c r="F269" s="21"/>
       <c r="G269" s="22"/>
       <c r="H269" s="22"/>
     </row>
     <row r="270" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="26"/>
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
-      <c r="D270" s="26"/>
-      <c r="E270" s="26"/>
-      <c r="F270" s="26"/>
-      <c r="G270" s="26"/>
-      <c r="H270" s="26"/>
+      <c r="A270" s="23"/>
+      <c r="B270" s="48"/>
+      <c r="C270" s="48"/>
+      <c r="D270" s="48"/>
+      <c r="E270" s="48"/>
+      <c r="F270" s="48"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="22"/>
     </row>
     <row r="271" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="18"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="19"/>
-      <c r="E271" s="19"/>
-      <c r="F271" s="19"/>
-      <c r="G271" s="20"/>
-      <c r="H271" s="20"/>
+      <c r="A271" s="26"/>
+      <c r="B271" s="26"/>
+      <c r="C271" s="26"/>
+      <c r="D271" s="26"/>
+      <c r="E271" s="26"/>
+      <c r="F271" s="26"/>
+      <c r="G271" s="26"/>
+      <c r="H271" s="26"/>
     </row>
     <row r="272" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="18"/>
-      <c r="B272" s="21"/>
-      <c r="C272" s="21"/>
-      <c r="D272" s="21"/>
-      <c r="E272" s="21"/>
-      <c r="F272" s="21"/>
-      <c r="G272" s="22"/>
-      <c r="H272" s="22"/>
+      <c r="B272" s="19"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="19"/>
+      <c r="E272" s="19"/>
+      <c r="F272" s="19"/>
+      <c r="G272" s="20"/>
+      <c r="H272" s="20"/>
     </row>
     <row r="273" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="18"/>
@@ -4499,8 +4720,8 @@
       <c r="G273" s="22"/>
       <c r="H273" s="22"/>
     </row>
-    <row r="274" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="23"/>
+    <row r="274" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="18"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
       <c r="D274" s="21"/>
@@ -4509,125 +4730,125 @@
       <c r="G274" s="22"/>
       <c r="H274" s="22"/>
     </row>
-    <row r="275" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
-      <c r="B275" s="59"/>
-      <c r="C275" s="59"/>
-      <c r="D275" s="59"/>
-      <c r="E275" s="59"/>
-      <c r="F275" s="59"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="21"/>
+      <c r="F275" s="21"/>
       <c r="G275" s="22"/>
       <c r="H275" s="22"/>
     </row>
     <row r="276" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
-      <c r="B276" s="59"/>
-      <c r="C276" s="59"/>
-      <c r="D276" s="59"/>
-      <c r="E276" s="59"/>
-      <c r="F276" s="59"/>
+      <c r="B276" s="47"/>
+      <c r="C276" s="47"/>
+      <c r="D276" s="47"/>
+      <c r="E276" s="47"/>
+      <c r="F276" s="47"/>
       <c r="G276" s="22"/>
       <c r="H276" s="22"/>
     </row>
     <row r="277" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="18"/>
-      <c r="B277" s="59"/>
-      <c r="C277" s="59"/>
-      <c r="D277" s="59"/>
-      <c r="E277" s="59"/>
-      <c r="F277" s="59"/>
+      <c r="A277" s="23"/>
+      <c r="B277" s="47"/>
+      <c r="C277" s="47"/>
+      <c r="D277" s="47"/>
+      <c r="E277" s="47"/>
+      <c r="F277" s="47"/>
       <c r="G277" s="22"/>
       <c r="H277" s="22"/>
     </row>
     <row r="278" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="23"/>
-      <c r="B278" s="21"/>
-      <c r="C278" s="21"/>
-      <c r="D278" s="21"/>
-      <c r="E278" s="21"/>
-      <c r="F278" s="21"/>
+      <c r="A278" s="18"/>
+      <c r="B278" s="47"/>
+      <c r="C278" s="47"/>
+      <c r="D278" s="47"/>
+      <c r="E278" s="47"/>
+      <c r="F278" s="47"/>
       <c r="G278" s="22"/>
       <c r="H278" s="22"/>
     </row>
     <row r="279" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="18"/>
-      <c r="B279" s="59"/>
-      <c r="C279" s="59"/>
-      <c r="D279" s="59"/>
-      <c r="E279" s="59"/>
-      <c r="F279" s="59"/>
+      <c r="A279" s="23"/>
+      <c r="B279" s="21"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="21"/>
       <c r="G279" s="22"/>
       <c r="H279" s="22"/>
     </row>
     <row r="280" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="18"/>
-      <c r="B280" s="59"/>
-      <c r="C280" s="59"/>
-      <c r="D280" s="59"/>
-      <c r="E280" s="59"/>
-      <c r="F280" s="59"/>
+      <c r="B280" s="47"/>
+      <c r="C280" s="47"/>
+      <c r="D280" s="47"/>
+      <c r="E280" s="47"/>
+      <c r="F280" s="47"/>
       <c r="G280" s="22"/>
       <c r="H280" s="22"/>
     </row>
     <row r="281" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="21"/>
-      <c r="B281" s="59"/>
-      <c r="C281" s="59"/>
-      <c r="D281" s="59"/>
-      <c r="E281" s="59"/>
-      <c r="F281" s="59"/>
+      <c r="A281" s="18"/>
+      <c r="B281" s="47"/>
+      <c r="C281" s="47"/>
+      <c r="D281" s="47"/>
+      <c r="E281" s="47"/>
+      <c r="F281" s="47"/>
       <c r="G281" s="22"/>
       <c r="H281" s="22"/>
     </row>
     <row r="282" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="23"/>
-      <c r="B282" s="21"/>
-      <c r="C282" s="21"/>
-      <c r="D282" s="21"/>
-      <c r="E282" s="21"/>
-      <c r="F282" s="21"/>
+      <c r="A282" s="21"/>
+      <c r="B282" s="47"/>
+      <c r="C282" s="47"/>
+      <c r="D282" s="47"/>
+      <c r="E282" s="47"/>
+      <c r="F282" s="47"/>
       <c r="G282" s="22"/>
       <c r="H282" s="22"/>
     </row>
     <row r="283" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
-      <c r="B283" s="58"/>
-      <c r="C283" s="58"/>
-      <c r="D283" s="58"/>
-      <c r="E283" s="58"/>
-      <c r="F283" s="58"/>
+      <c r="B283" s="21"/>
+      <c r="C283" s="21"/>
+      <c r="D283" s="21"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="21"/>
       <c r="G283" s="22"/>
       <c r="H283" s="22"/>
     </row>
     <row r="284" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="26"/>
-      <c r="B284" s="26"/>
-      <c r="C284" s="26"/>
-      <c r="D284" s="26"/>
-      <c r="E284" s="26"/>
-      <c r="F284" s="26"/>
-      <c r="G284" s="26"/>
-      <c r="H284" s="26"/>
+      <c r="A284" s="23"/>
+      <c r="B284" s="48"/>
+      <c r="C284" s="48"/>
+      <c r="D284" s="48"/>
+      <c r="E284" s="48"/>
+      <c r="F284" s="48"/>
+      <c r="G284" s="22"/>
+      <c r="H284" s="22"/>
     </row>
     <row r="285" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="18"/>
-      <c r="B285" s="19"/>
-      <c r="C285" s="19"/>
-      <c r="D285" s="19"/>
-      <c r="E285" s="19"/>
-      <c r="F285" s="19"/>
-      <c r="G285" s="20"/>
-      <c r="H285" s="20"/>
+      <c r="A285" s="26"/>
+      <c r="B285" s="26"/>
+      <c r="C285" s="26"/>
+      <c r="D285" s="26"/>
+      <c r="E285" s="26"/>
+      <c r="F285" s="26"/>
+      <c r="G285" s="26"/>
+      <c r="H285" s="26"/>
     </row>
     <row r="286" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="18"/>
-      <c r="B286" s="21"/>
-      <c r="C286" s="21"/>
-      <c r="D286" s="21"/>
-      <c r="E286" s="21"/>
-      <c r="F286" s="21"/>
-      <c r="G286" s="22"/>
-      <c r="H286" s="22"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="19"/>
+      <c r="D286" s="19"/>
+      <c r="E286" s="19"/>
+      <c r="F286" s="19"/>
+      <c r="G286" s="20"/>
+      <c r="H286" s="20"/>
     </row>
     <row r="287" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="18"/>
@@ -4639,8 +4860,8 @@
       <c r="G287" s="22"/>
       <c r="H287" s="22"/>
     </row>
-    <row r="288" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="23"/>
+    <row r="288" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="18"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
       <c r="D288" s="21"/>
@@ -4649,125 +4870,125 @@
       <c r="G288" s="22"/>
       <c r="H288" s="22"/>
     </row>
-    <row r="289" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="21"/>
-      <c r="C289" s="59"/>
-      <c r="D289" s="59"/>
-      <c r="E289" s="59"/>
-      <c r="F289" s="59"/>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="21"/>
       <c r="G289" s="22"/>
       <c r="H289" s="22"/>
     </row>
     <row r="290" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="21"/>
-      <c r="C290" s="59"/>
-      <c r="D290" s="59"/>
-      <c r="E290" s="59"/>
-      <c r="F290" s="59"/>
+      <c r="C290" s="47"/>
+      <c r="D290" s="47"/>
+      <c r="E290" s="47"/>
+      <c r="F290" s="47"/>
       <c r="G290" s="22"/>
       <c r="H290" s="22"/>
     </row>
     <row r="291" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="18"/>
+      <c r="A291" s="23"/>
       <c r="B291" s="21"/>
-      <c r="C291" s="59"/>
-      <c r="D291" s="59"/>
-      <c r="E291" s="59"/>
-      <c r="F291" s="59"/>
+      <c r="C291" s="47"/>
+      <c r="D291" s="47"/>
+      <c r="E291" s="47"/>
+      <c r="F291" s="47"/>
       <c r="G291" s="22"/>
       <c r="H291" s="22"/>
     </row>
     <row r="292" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="23"/>
+      <c r="A292" s="18"/>
       <c r="B292" s="21"/>
-      <c r="C292" s="21"/>
-      <c r="D292" s="21"/>
-      <c r="E292" s="21"/>
-      <c r="F292" s="21"/>
+      <c r="C292" s="47"/>
+      <c r="D292" s="47"/>
+      <c r="E292" s="47"/>
+      <c r="F292" s="47"/>
       <c r="G292" s="22"/>
       <c r="H292" s="22"/>
     </row>
     <row r="293" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="18"/>
+      <c r="A293" s="23"/>
       <c r="B293" s="21"/>
-      <c r="C293" s="59"/>
-      <c r="D293" s="59"/>
-      <c r="E293" s="59"/>
-      <c r="F293" s="59"/>
+      <c r="C293" s="21"/>
+      <c r="D293" s="21"/>
+      <c r="E293" s="21"/>
+      <c r="F293" s="21"/>
       <c r="G293" s="22"/>
       <c r="H293" s="22"/>
     </row>
     <row r="294" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="18"/>
       <c r="B294" s="21"/>
-      <c r="C294" s="59"/>
-      <c r="D294" s="59"/>
-      <c r="E294" s="59"/>
-      <c r="F294" s="59"/>
+      <c r="C294" s="47"/>
+      <c r="D294" s="47"/>
+      <c r="E294" s="47"/>
+      <c r="F294" s="47"/>
       <c r="G294" s="22"/>
       <c r="H294" s="22"/>
     </row>
     <row r="295" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="21"/>
+      <c r="A295" s="18"/>
       <c r="B295" s="21"/>
-      <c r="C295" s="59"/>
-      <c r="D295" s="59"/>
-      <c r="E295" s="59"/>
-      <c r="F295" s="59"/>
+      <c r="C295" s="47"/>
+      <c r="D295" s="47"/>
+      <c r="E295" s="47"/>
+      <c r="F295" s="47"/>
       <c r="G295" s="22"/>
       <c r="H295" s="22"/>
     </row>
     <row r="296" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="23"/>
+      <c r="A296" s="21"/>
       <c r="B296" s="21"/>
-      <c r="C296" s="21"/>
-      <c r="D296" s="21"/>
-      <c r="E296" s="21"/>
-      <c r="F296" s="21"/>
+      <c r="C296" s="47"/>
+      <c r="D296" s="47"/>
+      <c r="E296" s="47"/>
+      <c r="F296" s="47"/>
       <c r="G296" s="22"/>
       <c r="H296" s="22"/>
     </row>
     <row r="297" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="58"/>
-      <c r="D297" s="58"/>
-      <c r="E297" s="58"/>
-      <c r="F297" s="58"/>
+      <c r="B297" s="21"/>
+      <c r="C297" s="21"/>
+      <c r="D297" s="21"/>
+      <c r="E297" s="21"/>
+      <c r="F297" s="21"/>
       <c r="G297" s="22"/>
       <c r="H297" s="22"/>
     </row>
     <row r="298" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="26"/>
-      <c r="B298" s="26"/>
-      <c r="C298" s="26"/>
-      <c r="D298" s="26"/>
-      <c r="E298" s="26"/>
-      <c r="F298" s="26"/>
-      <c r="G298" s="26"/>
-      <c r="H298" s="26"/>
+      <c r="A298" s="23"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="48"/>
+      <c r="D298" s="48"/>
+      <c r="E298" s="48"/>
+      <c r="F298" s="48"/>
+      <c r="G298" s="22"/>
+      <c r="H298" s="22"/>
     </row>
     <row r="299" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="18"/>
-      <c r="B299" s="19"/>
-      <c r="C299" s="19"/>
-      <c r="D299" s="19"/>
-      <c r="E299" s="19"/>
-      <c r="F299" s="19"/>
-      <c r="G299" s="20"/>
-      <c r="H299" s="20"/>
+      <c r="A299" s="26"/>
+      <c r="B299" s="26"/>
+      <c r="C299" s="26"/>
+      <c r="D299" s="26"/>
+      <c r="E299" s="26"/>
+      <c r="F299" s="26"/>
+      <c r="G299" s="26"/>
+      <c r="H299" s="26"/>
     </row>
     <row r="300" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="18"/>
-      <c r="B300" s="21"/>
-      <c r="C300" s="21"/>
-      <c r="D300" s="21"/>
-      <c r="E300" s="21"/>
-      <c r="F300" s="21"/>
-      <c r="G300" s="22"/>
-      <c r="H300" s="22"/>
+      <c r="B300" s="19"/>
+      <c r="C300" s="19"/>
+      <c r="D300" s="19"/>
+      <c r="E300" s="19"/>
+      <c r="F300" s="19"/>
+      <c r="G300" s="20"/>
+      <c r="H300" s="20"/>
     </row>
     <row r="301" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="18"/>
@@ -4779,8 +5000,8 @@
       <c r="G301" s="22"/>
       <c r="H301" s="22"/>
     </row>
-    <row r="302" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="23"/>
+    <row r="302" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="18"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
       <c r="D302" s="21"/>
@@ -4789,125 +5010,125 @@
       <c r="G302" s="22"/>
       <c r="H302" s="22"/>
     </row>
-    <row r="303" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
-      <c r="B303" s="59"/>
-      <c r="C303" s="59"/>
-      <c r="D303" s="59"/>
-      <c r="E303" s="59"/>
-      <c r="F303" s="59"/>
+      <c r="B303" s="21"/>
+      <c r="C303" s="21"/>
+      <c r="D303" s="21"/>
+      <c r="E303" s="21"/>
+      <c r="F303" s="21"/>
       <c r="G303" s="22"/>
       <c r="H303" s="22"/>
     </row>
     <row r="304" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
-      <c r="B304" s="59"/>
-      <c r="C304" s="59"/>
-      <c r="D304" s="59"/>
-      <c r="E304" s="59"/>
-      <c r="F304" s="59"/>
+      <c r="B304" s="47"/>
+      <c r="C304" s="47"/>
+      <c r="D304" s="47"/>
+      <c r="E304" s="47"/>
+      <c r="F304" s="47"/>
       <c r="G304" s="22"/>
       <c r="H304" s="22"/>
     </row>
     <row r="305" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="18"/>
-      <c r="B305" s="59"/>
-      <c r="C305" s="59"/>
-      <c r="D305" s="59"/>
-      <c r="E305" s="59"/>
-      <c r="F305" s="59"/>
+      <c r="A305" s="23"/>
+      <c r="B305" s="47"/>
+      <c r="C305" s="47"/>
+      <c r="D305" s="47"/>
+      <c r="E305" s="47"/>
+      <c r="F305" s="47"/>
       <c r="G305" s="22"/>
       <c r="H305" s="22"/>
     </row>
     <row r="306" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="23"/>
-      <c r="B306" s="21"/>
-      <c r="C306" s="21"/>
-      <c r="D306" s="21"/>
-      <c r="E306" s="21"/>
-      <c r="F306" s="21"/>
+      <c r="A306" s="18"/>
+      <c r="B306" s="47"/>
+      <c r="C306" s="47"/>
+      <c r="D306" s="47"/>
+      <c r="E306" s="47"/>
+      <c r="F306" s="47"/>
       <c r="G306" s="22"/>
       <c r="H306" s="22"/>
     </row>
     <row r="307" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="18"/>
-      <c r="B307" s="59"/>
-      <c r="C307" s="59"/>
-      <c r="D307" s="59"/>
-      <c r="E307" s="59"/>
-      <c r="F307" s="59"/>
+      <c r="A307" s="23"/>
+      <c r="B307" s="21"/>
+      <c r="C307" s="21"/>
+      <c r="D307" s="21"/>
+      <c r="E307" s="21"/>
+      <c r="F307" s="21"/>
       <c r="G307" s="22"/>
       <c r="H307" s="22"/>
     </row>
     <row r="308" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="18"/>
-      <c r="B308" s="59"/>
-      <c r="C308" s="59"/>
-      <c r="D308" s="59"/>
-      <c r="E308" s="59"/>
-      <c r="F308" s="59"/>
+      <c r="B308" s="47"/>
+      <c r="C308" s="47"/>
+      <c r="D308" s="47"/>
+      <c r="E308" s="47"/>
+      <c r="F308" s="47"/>
       <c r="G308" s="22"/>
       <c r="H308" s="22"/>
     </row>
     <row r="309" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="21"/>
-      <c r="B309" s="59"/>
-      <c r="C309" s="59"/>
-      <c r="D309" s="59"/>
-      <c r="E309" s="59"/>
-      <c r="F309" s="59"/>
+      <c r="A309" s="18"/>
+      <c r="B309" s="47"/>
+      <c r="C309" s="47"/>
+      <c r="D309" s="47"/>
+      <c r="E309" s="47"/>
+      <c r="F309" s="47"/>
       <c r="G309" s="22"/>
       <c r="H309" s="22"/>
     </row>
     <row r="310" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="23"/>
-      <c r="B310" s="21"/>
-      <c r="C310" s="21"/>
-      <c r="D310" s="21"/>
-      <c r="E310" s="21"/>
-      <c r="F310" s="21"/>
+      <c r="A310" s="21"/>
+      <c r="B310" s="47"/>
+      <c r="C310" s="47"/>
+      <c r="D310" s="47"/>
+      <c r="E310" s="47"/>
+      <c r="F310" s="47"/>
       <c r="G310" s="22"/>
       <c r="H310" s="22"/>
     </row>
     <row r="311" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
-      <c r="B311" s="58"/>
-      <c r="C311" s="58"/>
-      <c r="D311" s="58"/>
-      <c r="E311" s="58"/>
-      <c r="F311" s="58"/>
+      <c r="B311" s="21"/>
+      <c r="C311" s="21"/>
+      <c r="D311" s="21"/>
+      <c r="E311" s="21"/>
+      <c r="F311" s="21"/>
       <c r="G311" s="22"/>
       <c r="H311" s="22"/>
     </row>
     <row r="312" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="26"/>
-      <c r="B312" s="26"/>
-      <c r="C312" s="26"/>
-      <c r="D312" s="26"/>
-      <c r="E312" s="26"/>
-      <c r="F312" s="26"/>
-      <c r="G312" s="26"/>
-      <c r="H312" s="26"/>
+      <c r="A312" s="23"/>
+      <c r="B312" s="48"/>
+      <c r="C312" s="48"/>
+      <c r="D312" s="48"/>
+      <c r="E312" s="48"/>
+      <c r="F312" s="48"/>
+      <c r="G312" s="22"/>
+      <c r="H312" s="22"/>
     </row>
     <row r="313" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="18"/>
-      <c r="B313" s="19"/>
-      <c r="C313" s="19"/>
-      <c r="D313" s="19"/>
-      <c r="E313" s="19"/>
-      <c r="F313" s="19"/>
-      <c r="G313" s="20"/>
-      <c r="H313" s="20"/>
+      <c r="A313" s="26"/>
+      <c r="B313" s="26"/>
+      <c r="C313" s="26"/>
+      <c r="D313" s="26"/>
+      <c r="E313" s="26"/>
+      <c r="F313" s="26"/>
+      <c r="G313" s="26"/>
+      <c r="H313" s="26"/>
     </row>
     <row r="314" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="18"/>
-      <c r="B314" s="21"/>
-      <c r="C314" s="21"/>
-      <c r="D314" s="21"/>
-      <c r="E314" s="21"/>
-      <c r="F314" s="21"/>
-      <c r="G314" s="22"/>
-      <c r="H314" s="22"/>
+      <c r="B314" s="19"/>
+      <c r="C314" s="19"/>
+      <c r="D314" s="19"/>
+      <c r="E314" s="19"/>
+      <c r="F314" s="19"/>
+      <c r="G314" s="20"/>
+      <c r="H314" s="20"/>
     </row>
     <row r="315" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="18"/>
@@ -4919,8 +5140,8 @@
       <c r="G315" s="22"/>
       <c r="H315" s="22"/>
     </row>
-    <row r="316" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="23"/>
+    <row r="316" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="18"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
       <c r="D316" s="21"/>
@@ -4929,125 +5150,125 @@
       <c r="G316" s="22"/>
       <c r="H316" s="22"/>
     </row>
-    <row r="317" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
-      <c r="B317" s="59"/>
-      <c r="C317" s="59"/>
-      <c r="D317" s="59"/>
-      <c r="E317" s="59"/>
-      <c r="F317" s="59"/>
+      <c r="B317" s="21"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="21"/>
+      <c r="E317" s="21"/>
+      <c r="F317" s="21"/>
       <c r="G317" s="22"/>
       <c r="H317" s="22"/>
     </row>
     <row r="318" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
-      <c r="B318" s="59"/>
-      <c r="C318" s="59"/>
-      <c r="D318" s="59"/>
-      <c r="E318" s="59"/>
-      <c r="F318" s="59"/>
+      <c r="B318" s="47"/>
+      <c r="C318" s="47"/>
+      <c r="D318" s="47"/>
+      <c r="E318" s="47"/>
+      <c r="F318" s="47"/>
       <c r="G318" s="22"/>
       <c r="H318" s="22"/>
     </row>
     <row r="319" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="18"/>
-      <c r="B319" s="59"/>
-      <c r="C319" s="59"/>
-      <c r="D319" s="59"/>
-      <c r="E319" s="59"/>
-      <c r="F319" s="59"/>
+      <c r="A319" s="23"/>
+      <c r="B319" s="47"/>
+      <c r="C319" s="47"/>
+      <c r="D319" s="47"/>
+      <c r="E319" s="47"/>
+      <c r="F319" s="47"/>
       <c r="G319" s="22"/>
       <c r="H319" s="22"/>
     </row>
     <row r="320" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="23"/>
-      <c r="B320" s="21"/>
-      <c r="C320" s="21"/>
-      <c r="D320" s="21"/>
-      <c r="E320" s="21"/>
-      <c r="F320" s="21"/>
+      <c r="A320" s="18"/>
+      <c r="B320" s="47"/>
+      <c r="C320" s="47"/>
+      <c r="D320" s="47"/>
+      <c r="E320" s="47"/>
+      <c r="F320" s="47"/>
       <c r="G320" s="22"/>
       <c r="H320" s="22"/>
     </row>
     <row r="321" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="18"/>
-      <c r="B321" s="59"/>
-      <c r="C321" s="59"/>
-      <c r="D321" s="59"/>
-      <c r="E321" s="59"/>
-      <c r="F321" s="59"/>
+      <c r="A321" s="23"/>
+      <c r="B321" s="21"/>
+      <c r="C321" s="21"/>
+      <c r="D321" s="21"/>
+      <c r="E321" s="21"/>
+      <c r="F321" s="21"/>
       <c r="G321" s="22"/>
       <c r="H321" s="22"/>
     </row>
     <row r="322" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="18"/>
-      <c r="B322" s="59"/>
-      <c r="C322" s="59"/>
-      <c r="D322" s="59"/>
-      <c r="E322" s="59"/>
-      <c r="F322" s="59"/>
+      <c r="B322" s="47"/>
+      <c r="C322" s="47"/>
+      <c r="D322" s="47"/>
+      <c r="E322" s="47"/>
+      <c r="F322" s="47"/>
       <c r="G322" s="22"/>
       <c r="H322" s="22"/>
     </row>
     <row r="323" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="21"/>
-      <c r="B323" s="59"/>
-      <c r="C323" s="59"/>
-      <c r="D323" s="59"/>
-      <c r="E323" s="59"/>
-      <c r="F323" s="59"/>
+      <c r="A323" s="18"/>
+      <c r="B323" s="47"/>
+      <c r="C323" s="47"/>
+      <c r="D323" s="47"/>
+      <c r="E323" s="47"/>
+      <c r="F323" s="47"/>
       <c r="G323" s="22"/>
       <c r="H323" s="22"/>
     </row>
     <row r="324" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="23"/>
-      <c r="B324" s="21"/>
-      <c r="C324" s="21"/>
-      <c r="D324" s="21"/>
-      <c r="E324" s="21"/>
-      <c r="F324" s="21"/>
+      <c r="A324" s="21"/>
+      <c r="B324" s="47"/>
+      <c r="C324" s="47"/>
+      <c r="D324" s="47"/>
+      <c r="E324" s="47"/>
+      <c r="F324" s="47"/>
       <c r="G324" s="22"/>
       <c r="H324" s="22"/>
     </row>
     <row r="325" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
-      <c r="B325" s="58"/>
-      <c r="C325" s="58"/>
-      <c r="D325" s="58"/>
-      <c r="E325" s="58"/>
-      <c r="F325" s="58"/>
+      <c r="B325" s="21"/>
+      <c r="C325" s="21"/>
+      <c r="D325" s="21"/>
+      <c r="E325" s="21"/>
+      <c r="F325" s="21"/>
       <c r="G325" s="22"/>
       <c r="H325" s="22"/>
     </row>
     <row r="326" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="26"/>
-      <c r="B326" s="26"/>
-      <c r="C326" s="26"/>
-      <c r="D326" s="26"/>
-      <c r="E326" s="26"/>
-      <c r="F326" s="26"/>
-      <c r="G326" s="26"/>
-      <c r="H326" s="26"/>
+      <c r="A326" s="23"/>
+      <c r="B326" s="48"/>
+      <c r="C326" s="48"/>
+      <c r="D326" s="48"/>
+      <c r="E326" s="48"/>
+      <c r="F326" s="48"/>
+      <c r="G326" s="22"/>
+      <c r="H326" s="22"/>
     </row>
     <row r="327" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="18"/>
-      <c r="B327" s="19"/>
-      <c r="C327" s="19"/>
-      <c r="D327" s="19"/>
-      <c r="E327" s="19"/>
-      <c r="F327" s="19"/>
-      <c r="G327" s="20"/>
-      <c r="H327" s="20"/>
+      <c r="A327" s="26"/>
+      <c r="B327" s="26"/>
+      <c r="C327" s="26"/>
+      <c r="D327" s="26"/>
+      <c r="E327" s="26"/>
+      <c r="F327" s="26"/>
+      <c r="G327" s="26"/>
+      <c r="H327" s="26"/>
     </row>
     <row r="328" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="18"/>
-      <c r="B328" s="21"/>
-      <c r="C328" s="21"/>
-      <c r="D328" s="21"/>
-      <c r="E328" s="21"/>
-      <c r="F328" s="21"/>
-      <c r="G328" s="22"/>
-      <c r="H328" s="22"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="19"/>
+      <c r="E328" s="19"/>
+      <c r="F328" s="19"/>
+      <c r="G328" s="20"/>
+      <c r="H328" s="20"/>
     </row>
     <row r="329" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="18"/>
@@ -5059,58 +5280,58 @@
       <c r="G329" s="22"/>
       <c r="H329" s="22"/>
     </row>
-    <row r="330" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="23"/>
-      <c r="B330" s="59"/>
-      <c r="C330" s="59"/>
-      <c r="D330" s="59"/>
-      <c r="E330" s="59"/>
-      <c r="F330" s="59"/>
+    <row r="330" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="18"/>
+      <c r="B330" s="21"/>
+      <c r="C330" s="21"/>
+      <c r="D330" s="21"/>
+      <c r="E330" s="21"/>
+      <c r="F330" s="21"/>
       <c r="G330" s="22"/>
       <c r="H330" s="22"/>
     </row>
-    <row r="331" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
-      <c r="B331" s="59"/>
-      <c r="C331" s="59"/>
-      <c r="D331" s="59"/>
-      <c r="E331" s="59"/>
-      <c r="F331" s="59"/>
+      <c r="B331" s="47"/>
+      <c r="C331" s="47"/>
+      <c r="D331" s="47"/>
+      <c r="E331" s="47"/>
+      <c r="F331" s="47"/>
       <c r="G331" s="22"/>
       <c r="H331" s="22"/>
     </row>
     <row r="332" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
-      <c r="B332" s="59"/>
-      <c r="C332" s="59"/>
-      <c r="D332" s="59"/>
-      <c r="E332" s="59"/>
-      <c r="F332" s="59"/>
+      <c r="B332" s="47"/>
+      <c r="C332" s="47"/>
+      <c r="D332" s="47"/>
+      <c r="E332" s="47"/>
+      <c r="F332" s="47"/>
       <c r="G332" s="22"/>
       <c r="H332" s="22"/>
     </row>
     <row r="333" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="18"/>
-      <c r="B333" s="59"/>
-      <c r="C333" s="59"/>
-      <c r="D333" s="59"/>
-      <c r="E333" s="59"/>
-      <c r="F333" s="59"/>
+      <c r="A333" s="23"/>
+      <c r="B333" s="47"/>
+      <c r="C333" s="47"/>
+      <c r="D333" s="47"/>
+      <c r="E333" s="47"/>
+      <c r="F333" s="47"/>
       <c r="G333" s="22"/>
       <c r="H333" s="22"/>
     </row>
     <row r="334" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="23"/>
-      <c r="B334" s="21"/>
-      <c r="C334" s="21"/>
-      <c r="D334" s="21"/>
-      <c r="E334" s="21"/>
-      <c r="F334" s="21"/>
+      <c r="A334" s="18"/>
+      <c r="B334" s="47"/>
+      <c r="C334" s="47"/>
+      <c r="D334" s="47"/>
+      <c r="E334" s="47"/>
+      <c r="F334" s="47"/>
       <c r="G334" s="22"/>
       <c r="H334" s="22"/>
     </row>
     <row r="335" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="18"/>
+      <c r="A335" s="23"/>
       <c r="B335" s="21"/>
       <c r="C335" s="21"/>
       <c r="D335" s="21"/>
@@ -5121,85 +5342,85 @@
     </row>
     <row r="336" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="18"/>
-      <c r="B336" s="59"/>
-      <c r="C336" s="59"/>
-      <c r="D336" s="59"/>
-      <c r="E336" s="59"/>
-      <c r="F336" s="59"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
+      <c r="D336" s="21"/>
+      <c r="E336" s="21"/>
+      <c r="F336" s="21"/>
       <c r="G336" s="22"/>
       <c r="H336" s="22"/>
     </row>
     <row r="337" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="21"/>
-      <c r="B337" s="59"/>
-      <c r="C337" s="59"/>
-      <c r="D337" s="59"/>
-      <c r="E337" s="59"/>
-      <c r="F337" s="59"/>
+      <c r="A337" s="18"/>
+      <c r="B337" s="47"/>
+      <c r="C337" s="47"/>
+      <c r="D337" s="47"/>
+      <c r="E337" s="47"/>
+      <c r="F337" s="47"/>
       <c r="G337" s="22"/>
       <c r="H337" s="22"/>
     </row>
     <row r="338" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="21"/>
-      <c r="B338" s="59"/>
-      <c r="C338" s="59"/>
-      <c r="D338" s="59"/>
-      <c r="E338" s="59"/>
-      <c r="F338" s="59"/>
+      <c r="B338" s="47"/>
+      <c r="C338" s="47"/>
+      <c r="D338" s="47"/>
+      <c r="E338" s="47"/>
+      <c r="F338" s="47"/>
       <c r="G338" s="22"/>
       <c r="H338" s="22"/>
     </row>
     <row r="339" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="23"/>
-      <c r="B339" s="21"/>
-      <c r="C339" s="21"/>
-      <c r="D339" s="21"/>
-      <c r="E339" s="21"/>
-      <c r="F339" s="21"/>
+      <c r="A339" s="21"/>
+      <c r="B339" s="47"/>
+      <c r="C339" s="47"/>
+      <c r="D339" s="47"/>
+      <c r="E339" s="47"/>
+      <c r="F339" s="47"/>
       <c r="G339" s="22"/>
       <c r="H339" s="22"/>
     </row>
     <row r="340" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
-      <c r="B340" s="58"/>
-      <c r="C340" s="58"/>
-      <c r="D340" s="58"/>
-      <c r="E340" s="58"/>
-      <c r="F340" s="58"/>
+      <c r="B340" s="21"/>
+      <c r="C340" s="21"/>
+      <c r="D340" s="21"/>
+      <c r="E340" s="21"/>
+      <c r="F340" s="21"/>
       <c r="G340" s="22"/>
       <c r="H340" s="22"/>
     </row>
     <row r="341" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="26"/>
-      <c r="B341" s="26"/>
-      <c r="C341" s="26"/>
-      <c r="D341" s="26"/>
-      <c r="E341" s="26"/>
-      <c r="F341" s="26"/>
-      <c r="G341" s="26"/>
-      <c r="H341" s="26"/>
+      <c r="A341" s="23"/>
+      <c r="B341" s="48"/>
+      <c r="C341" s="48"/>
+      <c r="D341" s="48"/>
+      <c r="E341" s="48"/>
+      <c r="F341" s="48"/>
+      <c r="G341" s="22"/>
+      <c r="H341" s="22"/>
     </row>
     <row r="342" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="18"/>
-      <c r="B342" s="19"/>
-      <c r="C342" s="19"/>
-      <c r="D342" s="19"/>
-      <c r="E342" s="19"/>
-      <c r="F342" s="19"/>
-      <c r="G342" s="20"/>
-      <c r="H342" s="20"/>
+      <c r="A342" s="26"/>
+      <c r="B342" s="26"/>
+      <c r="C342" s="26"/>
+      <c r="D342" s="26"/>
+      <c r="E342" s="26"/>
+      <c r="F342" s="26"/>
+      <c r="G342" s="26"/>
+      <c r="H342" s="26"/>
     </row>
     <row r="343" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="18"/>
-      <c r="B343" s="21"/>
-      <c r="C343" s="21"/>
-      <c r="D343" s="21"/>
-      <c r="E343" s="21"/>
-      <c r="F343" s="21"/>
-      <c r="G343" s="22"/>
-      <c r="H343" s="22"/>
-    </row>
-    <row r="344" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="19"/>
+      <c r="C343" s="19"/>
+      <c r="D343" s="19"/>
+      <c r="E343" s="19"/>
+      <c r="F343" s="19"/>
+      <c r="G343" s="20"/>
+      <c r="H343" s="20"/>
+    </row>
+    <row r="344" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="18"/>
       <c r="B344" s="21"/>
       <c r="C344" s="21"/>
@@ -5209,147 +5430,147 @@
       <c r="G344" s="22"/>
       <c r="H344" s="22"/>
     </row>
-    <row r="345" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="23"/>
-      <c r="B345" s="59"/>
-      <c r="C345" s="59"/>
-      <c r="D345" s="59"/>
-      <c r="E345" s="59"/>
-      <c r="F345" s="59"/>
+    <row r="345" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="18"/>
+      <c r="B345" s="21"/>
+      <c r="C345" s="21"/>
+      <c r="D345" s="21"/>
+      <c r="E345" s="21"/>
+      <c r="F345" s="21"/>
       <c r="G345" s="22"/>
       <c r="H345" s="22"/>
     </row>
     <row r="346" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
-      <c r="B346" s="59"/>
-      <c r="C346" s="59"/>
-      <c r="D346" s="59"/>
-      <c r="E346" s="59"/>
-      <c r="F346" s="59"/>
+      <c r="B346" s="47"/>
+      <c r="C346" s="47"/>
+      <c r="D346" s="47"/>
+      <c r="E346" s="47"/>
+      <c r="F346" s="47"/>
       <c r="G346" s="22"/>
       <c r="H346" s="22"/>
     </row>
     <row r="347" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
-      <c r="B347" s="59"/>
-      <c r="C347" s="59"/>
-      <c r="D347" s="59"/>
-      <c r="E347" s="59"/>
-      <c r="F347" s="59"/>
+      <c r="B347" s="47"/>
+      <c r="C347" s="47"/>
+      <c r="D347" s="47"/>
+      <c r="E347" s="47"/>
+      <c r="F347" s="47"/>
       <c r="G347" s="22"/>
       <c r="H347" s="22"/>
     </row>
     <row r="348" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="18"/>
-      <c r="B348" s="59"/>
-      <c r="C348" s="59"/>
-      <c r="D348" s="59"/>
-      <c r="E348" s="59"/>
-      <c r="F348" s="59"/>
+      <c r="A348" s="23"/>
+      <c r="B348" s="47"/>
+      <c r="C348" s="47"/>
+      <c r="D348" s="47"/>
+      <c r="E348" s="47"/>
+      <c r="F348" s="47"/>
       <c r="G348" s="22"/>
       <c r="H348" s="22"/>
     </row>
     <row r="349" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="23"/>
-      <c r="B349" s="21"/>
-      <c r="C349" s="21"/>
-      <c r="D349" s="21"/>
-      <c r="E349" s="21"/>
-      <c r="F349" s="21"/>
+      <c r="A349" s="18"/>
+      <c r="B349" s="47"/>
+      <c r="C349" s="47"/>
+      <c r="D349" s="47"/>
+      <c r="E349" s="47"/>
+      <c r="F349" s="47"/>
       <c r="G349" s="22"/>
       <c r="H349" s="22"/>
     </row>
     <row r="350" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="18"/>
-      <c r="B350" s="59"/>
-      <c r="C350" s="59"/>
-      <c r="D350" s="59"/>
-      <c r="E350" s="59"/>
-      <c r="F350" s="59"/>
+      <c r="A350" s="23"/>
+      <c r="B350" s="21"/>
+      <c r="C350" s="21"/>
+      <c r="D350" s="21"/>
+      <c r="E350" s="21"/>
+      <c r="F350" s="21"/>
       <c r="G350" s="22"/>
       <c r="H350" s="22"/>
     </row>
     <row r="351" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="18"/>
-      <c r="B351" s="59"/>
-      <c r="C351" s="59"/>
-      <c r="D351" s="59"/>
-      <c r="E351" s="59"/>
-      <c r="F351" s="59"/>
+      <c r="B351" s="47"/>
+      <c r="C351" s="47"/>
+      <c r="D351" s="47"/>
+      <c r="E351" s="47"/>
+      <c r="F351" s="47"/>
       <c r="G351" s="22"/>
       <c r="H351" s="22"/>
     </row>
     <row r="352" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="21"/>
-      <c r="B352" s="59"/>
-      <c r="C352" s="59"/>
-      <c r="D352" s="59"/>
-      <c r="E352" s="59"/>
-      <c r="F352" s="59"/>
+      <c r="A352" s="18"/>
+      <c r="B352" s="47"/>
+      <c r="C352" s="47"/>
+      <c r="D352" s="47"/>
+      <c r="E352" s="47"/>
+      <c r="F352" s="47"/>
       <c r="G352" s="22"/>
       <c r="H352" s="22"/>
     </row>
     <row r="353" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="21"/>
-      <c r="B353" s="59"/>
-      <c r="C353" s="59"/>
-      <c r="D353" s="59"/>
-      <c r="E353" s="59"/>
-      <c r="F353" s="59"/>
+      <c r="B353" s="47"/>
+      <c r="C353" s="47"/>
+      <c r="D353" s="47"/>
+      <c r="E353" s="47"/>
+      <c r="F353" s="47"/>
       <c r="G353" s="22"/>
       <c r="H353" s="22"/>
     </row>
     <row r="354" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="23"/>
-      <c r="B354" s="21"/>
-      <c r="C354" s="21"/>
-      <c r="D354" s="21"/>
-      <c r="E354" s="21"/>
-      <c r="F354" s="21"/>
+      <c r="A354" s="21"/>
+      <c r="B354" s="47"/>
+      <c r="C354" s="47"/>
+      <c r="D354" s="47"/>
+      <c r="E354" s="47"/>
+      <c r="F354" s="47"/>
       <c r="G354" s="22"/>
       <c r="H354" s="22"/>
     </row>
     <row r="355" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
-      <c r="B355" s="58"/>
-      <c r="C355" s="58"/>
-      <c r="D355" s="58"/>
-      <c r="E355" s="58"/>
-      <c r="F355" s="58"/>
+      <c r="B355" s="21"/>
+      <c r="C355" s="21"/>
+      <c r="D355" s="21"/>
+      <c r="E355" s="21"/>
+      <c r="F355" s="21"/>
       <c r="G355" s="22"/>
       <c r="H355" s="22"/>
     </row>
     <row r="356" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="26"/>
-      <c r="B356" s="26"/>
-      <c r="C356" s="26"/>
-      <c r="D356" s="26"/>
-      <c r="E356" s="26"/>
-      <c r="F356" s="26"/>
-      <c r="G356" s="26"/>
-      <c r="H356" s="26"/>
+      <c r="A356" s="23"/>
+      <c r="B356" s="48"/>
+      <c r="C356" s="48"/>
+      <c r="D356" s="48"/>
+      <c r="E356" s="48"/>
+      <c r="F356" s="48"/>
+      <c r="G356" s="22"/>
+      <c r="H356" s="22"/>
     </row>
     <row r="357" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="18"/>
-      <c r="B357" s="19"/>
-      <c r="C357" s="19"/>
-      <c r="D357" s="19"/>
-      <c r="E357" s="19"/>
-      <c r="F357" s="19"/>
-      <c r="G357" s="20"/>
-      <c r="H357" s="20"/>
-    </row>
-    <row r="358" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="26"/>
+      <c r="B357" s="26"/>
+      <c r="C357" s="26"/>
+      <c r="D357" s="26"/>
+      <c r="E357" s="26"/>
+      <c r="F357" s="26"/>
+      <c r="G357" s="26"/>
+      <c r="H357" s="26"/>
+    </row>
+    <row r="358" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="18"/>
-      <c r="B358" s="21"/>
-      <c r="C358" s="21"/>
-      <c r="D358" s="21"/>
-      <c r="E358" s="21"/>
-      <c r="F358" s="21"/>
-      <c r="G358" s="22"/>
-      <c r="H358" s="22"/>
-    </row>
-    <row r="359" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B358" s="19"/>
+      <c r="C358" s="19"/>
+      <c r="D358" s="19"/>
+      <c r="E358" s="19"/>
+      <c r="F358" s="19"/>
+      <c r="G358" s="20"/>
+      <c r="H358" s="20"/>
+    </row>
+    <row r="359" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="18"/>
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
@@ -5360,20 +5581,20 @@
       <c r="H359" s="22"/>
     </row>
     <row r="360" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="23"/>
-      <c r="B360" s="59"/>
-      <c r="C360" s="59"/>
-      <c r="D360" s="59"/>
+      <c r="A360" s="18"/>
+      <c r="B360" s="21"/>
+      <c r="C360" s="21"/>
+      <c r="D360" s="21"/>
       <c r="E360" s="21"/>
-      <c r="F360" s="24"/>
+      <c r="F360" s="21"/>
       <c r="G360" s="22"/>
       <c r="H360" s="22"/>
     </row>
     <row r="361" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
-      <c r="B361" s="59"/>
-      <c r="C361" s="59"/>
-      <c r="D361" s="59"/>
+      <c r="B361" s="47"/>
+      <c r="C361" s="47"/>
+      <c r="D361" s="47"/>
       <c r="E361" s="21"/>
       <c r="F361" s="24"/>
       <c r="G361" s="22"/>
@@ -5381,59 +5602,59 @@
     </row>
     <row r="362" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
-      <c r="B362" s="59"/>
-      <c r="C362" s="59"/>
-      <c r="D362" s="59"/>
+      <c r="B362" s="47"/>
+      <c r="C362" s="47"/>
+      <c r="D362" s="47"/>
       <c r="E362" s="21"/>
       <c r="F362" s="24"/>
       <c r="G362" s="22"/>
       <c r="H362" s="22"/>
     </row>
     <row r="363" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="18"/>
-      <c r="B363" s="59"/>
-      <c r="C363" s="59"/>
-      <c r="D363" s="59"/>
+      <c r="A363" s="23"/>
+      <c r="B363" s="47"/>
+      <c r="C363" s="47"/>
+      <c r="D363" s="47"/>
       <c r="E363" s="21"/>
       <c r="F363" s="24"/>
       <c r="G363" s="22"/>
       <c r="H363" s="22"/>
     </row>
     <row r="364" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="23"/>
-      <c r="B364" s="21"/>
-      <c r="C364" s="21"/>
-      <c r="D364" s="21"/>
+      <c r="A364" s="18"/>
+      <c r="B364" s="47"/>
+      <c r="C364" s="47"/>
+      <c r="D364" s="47"/>
       <c r="E364" s="21"/>
-      <c r="F364" s="21"/>
+      <c r="F364" s="24"/>
       <c r="G364" s="22"/>
       <c r="H364" s="22"/>
     </row>
     <row r="365" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="18"/>
-      <c r="B365" s="59"/>
-      <c r="C365" s="59"/>
-      <c r="D365" s="59"/>
+      <c r="A365" s="23"/>
+      <c r="B365" s="21"/>
+      <c r="C365" s="21"/>
+      <c r="D365" s="21"/>
       <c r="E365" s="21"/>
-      <c r="F365" s="24"/>
+      <c r="F365" s="21"/>
       <c r="G365" s="22"/>
       <c r="H365" s="22"/>
     </row>
     <row r="366" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="18"/>
-      <c r="B366" s="59"/>
-      <c r="C366" s="59"/>
-      <c r="D366" s="59"/>
+      <c r="B366" s="47"/>
+      <c r="C366" s="47"/>
+      <c r="D366" s="47"/>
       <c r="E366" s="21"/>
       <c r="F366" s="24"/>
       <c r="G366" s="22"/>
       <c r="H366" s="22"/>
     </row>
     <row r="367" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="21"/>
-      <c r="B367" s="59"/>
-      <c r="C367" s="59"/>
-      <c r="D367" s="59"/>
+      <c r="A367" s="18"/>
+      <c r="B367" s="47"/>
+      <c r="C367" s="47"/>
+      <c r="D367" s="47"/>
       <c r="E367" s="21"/>
       <c r="F367" s="24"/>
       <c r="G367" s="22"/>
@@ -5441,63 +5662,63 @@
     </row>
     <row r="368" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="21"/>
-      <c r="B368" s="59"/>
-      <c r="C368" s="59"/>
-      <c r="D368" s="59"/>
+      <c r="B368" s="47"/>
+      <c r="C368" s="47"/>
+      <c r="D368" s="47"/>
       <c r="E368" s="21"/>
       <c r="F368" s="24"/>
       <c r="G368" s="22"/>
       <c r="H368" s="22"/>
     </row>
     <row r="369" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="23"/>
-      <c r="B369" s="21"/>
-      <c r="C369" s="21"/>
-      <c r="D369" s="21"/>
+      <c r="A369" s="21"/>
+      <c r="B369" s="47"/>
+      <c r="C369" s="47"/>
+      <c r="D369" s="47"/>
       <c r="E369" s="21"/>
-      <c r="F369" s="21"/>
+      <c r="F369" s="24"/>
       <c r="G369" s="22"/>
       <c r="H369" s="22"/>
     </row>
     <row r="370" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
-      <c r="B370" s="58"/>
-      <c r="C370" s="58"/>
-      <c r="D370" s="58"/>
-      <c r="E370" s="28"/>
-      <c r="F370" s="25"/>
+      <c r="B370" s="21"/>
+      <c r="C370" s="21"/>
+      <c r="D370" s="21"/>
+      <c r="E370" s="21"/>
+      <c r="F370" s="21"/>
       <c r="G370" s="22"/>
       <c r="H370" s="22"/>
     </row>
     <row r="371" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="26"/>
-      <c r="B371" s="26"/>
-      <c r="C371" s="26"/>
-      <c r="D371" s="26"/>
-      <c r="E371" s="26"/>
-      <c r="F371" s="26"/>
-      <c r="G371" s="26"/>
-      <c r="H371" s="26"/>
-    </row>
-    <row r="372" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="18"/>
-      <c r="B372" s="19"/>
-      <c r="C372" s="19"/>
-      <c r="D372" s="19"/>
-      <c r="E372" s="19"/>
-      <c r="F372" s="19"/>
-      <c r="G372" s="20"/>
-      <c r="H372" s="20"/>
-    </row>
-    <row r="373" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="23"/>
+      <c r="B371" s="48"/>
+      <c r="C371" s="48"/>
+      <c r="D371" s="48"/>
+      <c r="E371" s="28"/>
+      <c r="F371" s="25"/>
+      <c r="G371" s="22"/>
+      <c r="H371" s="22"/>
+    </row>
+    <row r="372" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="26"/>
+      <c r="B372" s="26"/>
+      <c r="C372" s="26"/>
+      <c r="D372" s="26"/>
+      <c r="E372" s="26"/>
+      <c r="F372" s="26"/>
+      <c r="G372" s="26"/>
+      <c r="H372" s="26"/>
+    </row>
+    <row r="373" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="18"/>
-      <c r="B373" s="21"/>
-      <c r="C373" s="21"/>
-      <c r="D373" s="21"/>
-      <c r="E373" s="21"/>
-      <c r="F373" s="21"/>
-      <c r="G373" s="22"/>
-      <c r="H373" s="22"/>
+      <c r="B373" s="19"/>
+      <c r="C373" s="19"/>
+      <c r="D373" s="19"/>
+      <c r="E373" s="19"/>
+      <c r="F373" s="19"/>
+      <c r="G373" s="20"/>
+      <c r="H373" s="20"/>
     </row>
     <row r="374" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="18"/>
@@ -5510,7 +5731,7 @@
       <c r="H374" s="22"/>
     </row>
     <row r="375" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="23"/>
+      <c r="A375" s="18"/>
       <c r="B375" s="21"/>
       <c r="C375" s="21"/>
       <c r="D375" s="21"/>
@@ -5540,7 +5761,7 @@
       <c r="H377" s="22"/>
     </row>
     <row r="378" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="18"/>
+      <c r="A378" s="23"/>
       <c r="B378" s="21"/>
       <c r="C378" s="21"/>
       <c r="D378" s="21"/>
@@ -5550,7 +5771,7 @@
       <c r="H378" s="22"/>
     </row>
     <row r="379" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="23"/>
+      <c r="A379" s="18"/>
       <c r="B379" s="21"/>
       <c r="C379" s="21"/>
       <c r="D379" s="21"/>
@@ -5560,7 +5781,7 @@
       <c r="H379" s="22"/>
     </row>
     <row r="380" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="18"/>
+      <c r="A380" s="23"/>
       <c r="B380" s="21"/>
       <c r="C380" s="21"/>
       <c r="D380" s="21"/>
@@ -5580,7 +5801,7 @@
       <c r="H381" s="22"/>
     </row>
     <row r="382" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="23"/>
+      <c r="A382" s="18"/>
       <c r="B382" s="21"/>
       <c r="C382" s="21"/>
       <c r="D382" s="21"/>
@@ -5591,45 +5812,45 @@
     </row>
     <row r="383" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
-      <c r="B383" s="58"/>
-      <c r="C383" s="58"/>
-      <c r="D383" s="58"/>
-      <c r="E383" s="58"/>
-      <c r="F383" s="58"/>
+      <c r="B383" s="21"/>
+      <c r="C383" s="21"/>
+      <c r="D383" s="21"/>
+      <c r="E383" s="21"/>
+      <c r="F383" s="21"/>
       <c r="G383" s="22"/>
       <c r="H383" s="22"/>
     </row>
     <row r="384" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="26"/>
-      <c r="B384" s="26"/>
-      <c r="C384" s="26"/>
-      <c r="D384" s="26"/>
-      <c r="E384" s="26"/>
-      <c r="F384" s="26"/>
-      <c r="G384" s="26"/>
-      <c r="H384" s="26"/>
+      <c r="A384" s="23"/>
+      <c r="B384" s="48"/>
+      <c r="C384" s="48"/>
+      <c r="D384" s="48"/>
+      <c r="E384" s="48"/>
+      <c r="F384" s="48"/>
+      <c r="G384" s="22"/>
+      <c r="H384" s="22"/>
     </row>
     <row r="385" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="18"/>
-      <c r="B385" s="19"/>
-      <c r="C385" s="19"/>
-      <c r="D385" s="19"/>
-      <c r="E385" s="19"/>
-      <c r="F385" s="19"/>
-      <c r="G385" s="20"/>
-      <c r="H385" s="20"/>
-    </row>
-    <row r="386" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="26"/>
+      <c r="B385" s="26"/>
+      <c r="C385" s="26"/>
+      <c r="D385" s="26"/>
+      <c r="E385" s="26"/>
+      <c r="F385" s="26"/>
+      <c r="G385" s="26"/>
+      <c r="H385" s="26"/>
+    </row>
+    <row r="386" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="18"/>
-      <c r="B386" s="21"/>
-      <c r="C386" s="21"/>
-      <c r="D386" s="21"/>
-      <c r="E386" s="21"/>
-      <c r="F386" s="21"/>
-      <c r="G386" s="22"/>
-      <c r="H386" s="22"/>
-    </row>
-    <row r="387" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="19"/>
+      <c r="C386" s="19"/>
+      <c r="D386" s="19"/>
+      <c r="E386" s="19"/>
+      <c r="F386" s="19"/>
+      <c r="G386" s="20"/>
+      <c r="H386" s="20"/>
+    </row>
+    <row r="387" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="18"/>
       <c r="B387" s="21"/>
       <c r="C387" s="21"/>
@@ -5640,7 +5861,7 @@
       <c r="H387" s="22"/>
     </row>
     <row r="388" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="23"/>
+      <c r="A388" s="18"/>
       <c r="B388" s="21"/>
       <c r="C388" s="21"/>
       <c r="D388" s="21"/>
@@ -5670,7 +5891,7 @@
       <c r="H390" s="22"/>
     </row>
     <row r="391" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="18"/>
+      <c r="A391" s="23"/>
       <c r="B391" s="21"/>
       <c r="C391" s="21"/>
       <c r="D391" s="21"/>
@@ -5680,7 +5901,7 @@
       <c r="H391" s="22"/>
     </row>
     <row r="392" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="23"/>
+      <c r="A392" s="18"/>
       <c r="B392" s="21"/>
       <c r="C392" s="21"/>
       <c r="D392" s="21"/>
@@ -5690,7 +5911,7 @@
       <c r="H392" s="22"/>
     </row>
     <row r="393" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="18"/>
+      <c r="A393" s="23"/>
       <c r="B393" s="21"/>
       <c r="C393" s="21"/>
       <c r="D393" s="21"/>
@@ -5710,7 +5931,7 @@
       <c r="H394" s="22"/>
     </row>
     <row r="395" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="23"/>
+      <c r="A395" s="18"/>
       <c r="B395" s="21"/>
       <c r="C395" s="21"/>
       <c r="D395" s="21"/>
@@ -5721,43 +5942,43 @@
     </row>
     <row r="396" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
-      <c r="B396" s="58"/>
-      <c r="C396" s="58"/>
-      <c r="D396" s="58"/>
-      <c r="E396" s="58"/>
-      <c r="F396" s="58"/>
+      <c r="B396" s="21"/>
+      <c r="C396" s="21"/>
+      <c r="D396" s="21"/>
+      <c r="E396" s="21"/>
+      <c r="F396" s="21"/>
       <c r="G396" s="22"/>
       <c r="H396" s="22"/>
     </row>
     <row r="397" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="26"/>
-      <c r="B397" s="26"/>
-      <c r="C397" s="26"/>
-      <c r="D397" s="26"/>
-      <c r="E397" s="26"/>
-      <c r="F397" s="26"/>
-      <c r="G397" s="26"/>
-      <c r="H397" s="26"/>
+      <c r="A397" s="23"/>
+      <c r="B397" s="48"/>
+      <c r="C397" s="48"/>
+      <c r="D397" s="48"/>
+      <c r="E397" s="48"/>
+      <c r="F397" s="48"/>
+      <c r="G397" s="22"/>
+      <c r="H397" s="22"/>
     </row>
     <row r="398" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="18"/>
-      <c r="B398" s="19"/>
-      <c r="C398" s="19"/>
-      <c r="D398" s="19"/>
-      <c r="E398" s="19"/>
-      <c r="F398" s="19"/>
-      <c r="G398" s="20"/>
-      <c r="H398" s="20"/>
+      <c r="A398" s="26"/>
+      <c r="B398" s="26"/>
+      <c r="C398" s="26"/>
+      <c r="D398" s="26"/>
+      <c r="E398" s="26"/>
+      <c r="F398" s="26"/>
+      <c r="G398" s="26"/>
+      <c r="H398" s="26"/>
     </row>
     <row r="399" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="18"/>
-      <c r="B399" s="21"/>
-      <c r="C399" s="21"/>
-      <c r="D399" s="21"/>
-      <c r="E399" s="21"/>
-      <c r="F399" s="21"/>
-      <c r="G399" s="22"/>
-      <c r="H399" s="22"/>
+      <c r="B399" s="19"/>
+      <c r="C399" s="19"/>
+      <c r="D399" s="19"/>
+      <c r="E399" s="19"/>
+      <c r="F399" s="19"/>
+      <c r="G399" s="20"/>
+      <c r="H399" s="20"/>
     </row>
     <row r="400" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="18"/>
@@ -5769,8 +5990,8 @@
       <c r="G400" s="22"/>
       <c r="H400" s="22"/>
     </row>
-    <row r="401" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="23"/>
+    <row r="401" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="18"/>
       <c r="B401" s="21"/>
       <c r="C401" s="21"/>
       <c r="D401" s="21"/>
@@ -5779,7 +6000,7 @@
       <c r="G401" s="22"/>
       <c r="H401" s="22"/>
     </row>
-    <row r="402" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="21"/>
       <c r="C402" s="21"/>
@@ -5800,7 +6021,7 @@
       <c r="H403" s="22"/>
     </row>
     <row r="404" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="18"/>
+      <c r="A404" s="23"/>
       <c r="B404" s="21"/>
       <c r="C404" s="21"/>
       <c r="D404" s="21"/>
@@ -5810,7 +6031,7 @@
       <c r="H404" s="22"/>
     </row>
     <row r="405" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="23"/>
+      <c r="A405" s="18"/>
       <c r="B405" s="21"/>
       <c r="C405" s="21"/>
       <c r="D405" s="21"/>
@@ -5820,7 +6041,7 @@
       <c r="H405" s="22"/>
     </row>
     <row r="406" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="18"/>
+      <c r="A406" s="23"/>
       <c r="B406" s="21"/>
       <c r="C406" s="21"/>
       <c r="D406" s="21"/>
@@ -5840,7 +6061,7 @@
       <c r="H407" s="22"/>
     </row>
     <row r="408" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="23"/>
+      <c r="A408" s="18"/>
       <c r="B408" s="21"/>
       <c r="C408" s="21"/>
       <c r="D408" s="21"/>
@@ -5851,43 +6072,43 @@
     </row>
     <row r="409" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
-      <c r="B409" s="58"/>
-      <c r="C409" s="58"/>
-      <c r="D409" s="58"/>
-      <c r="E409" s="58"/>
-      <c r="F409" s="58"/>
+      <c r="B409" s="21"/>
+      <c r="C409" s="21"/>
+      <c r="D409" s="21"/>
+      <c r="E409" s="21"/>
+      <c r="F409" s="21"/>
       <c r="G409" s="22"/>
       <c r="H409" s="22"/>
     </row>
     <row r="410" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="26"/>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
-      <c r="D410" s="26"/>
-      <c r="E410" s="26"/>
-      <c r="F410" s="26"/>
-      <c r="G410" s="26"/>
-      <c r="H410" s="26"/>
+      <c r="A410" s="23"/>
+      <c r="B410" s="48"/>
+      <c r="C410" s="48"/>
+      <c r="D410" s="48"/>
+      <c r="E410" s="48"/>
+      <c r="F410" s="48"/>
+      <c r="G410" s="22"/>
+      <c r="H410" s="22"/>
     </row>
     <row r="411" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="18"/>
-      <c r="B411" s="19"/>
-      <c r="C411" s="19"/>
-      <c r="D411" s="19"/>
-      <c r="E411" s="19"/>
-      <c r="F411" s="19"/>
-      <c r="G411" s="20"/>
-      <c r="H411" s="20"/>
+      <c r="A411" s="26"/>
+      <c r="B411" s="26"/>
+      <c r="C411" s="26"/>
+      <c r="D411" s="26"/>
+      <c r="E411" s="26"/>
+      <c r="F411" s="26"/>
+      <c r="G411" s="26"/>
+      <c r="H411" s="26"/>
     </row>
     <row r="412" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="18"/>
-      <c r="B412" s="21"/>
-      <c r="C412" s="21"/>
-      <c r="D412" s="21"/>
-      <c r="E412" s="21"/>
-      <c r="F412" s="21"/>
-      <c r="G412" s="22"/>
-      <c r="H412" s="22"/>
+      <c r="B412" s="19"/>
+      <c r="C412" s="19"/>
+      <c r="D412" s="19"/>
+      <c r="E412" s="19"/>
+      <c r="F412" s="19"/>
+      <c r="G412" s="20"/>
+      <c r="H412" s="20"/>
     </row>
     <row r="413" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="18"/>
@@ -5900,7 +6121,7 @@
       <c r="H413" s="22"/>
     </row>
     <row r="414" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="23"/>
+      <c r="A414" s="18"/>
       <c r="B414" s="21"/>
       <c r="C414" s="21"/>
       <c r="D414" s="21"/>
@@ -5919,7 +6140,7 @@
       <c r="G415" s="22"/>
       <c r="H415" s="22"/>
     </row>
-    <row r="416" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="21"/>
       <c r="C416" s="21"/>
@@ -5929,8 +6150,8 @@
       <c r="G416" s="22"/>
       <c r="H416" s="22"/>
     </row>
-    <row r="417" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="18"/>
+    <row r="417" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="23"/>
       <c r="B417" s="21"/>
       <c r="C417" s="21"/>
       <c r="D417" s="21"/>
@@ -5940,7 +6161,7 @@
       <c r="H417" s="22"/>
     </row>
     <row r="418" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="23"/>
+      <c r="A418" s="18"/>
       <c r="B418" s="21"/>
       <c r="C418" s="21"/>
       <c r="D418" s="21"/>
@@ -5950,7 +6171,7 @@
       <c r="H418" s="22"/>
     </row>
     <row r="419" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="18"/>
+      <c r="A419" s="23"/>
       <c r="B419" s="21"/>
       <c r="C419" s="21"/>
       <c r="D419" s="21"/>
@@ -5970,7 +6191,7 @@
       <c r="H420" s="22"/>
     </row>
     <row r="421" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="23"/>
+      <c r="A421" s="18"/>
       <c r="B421" s="21"/>
       <c r="C421" s="21"/>
       <c r="D421" s="21"/>
@@ -5981,43 +6202,43 @@
     </row>
     <row r="422" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
-      <c r="B422" s="58"/>
-      <c r="C422" s="58"/>
-      <c r="D422" s="58"/>
-      <c r="E422" s="58"/>
-      <c r="F422" s="58"/>
+      <c r="B422" s="21"/>
+      <c r="C422" s="21"/>
+      <c r="D422" s="21"/>
+      <c r="E422" s="21"/>
+      <c r="F422" s="21"/>
       <c r="G422" s="22"/>
       <c r="H422" s="22"/>
     </row>
     <row r="423" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="26"/>
-      <c r="B423" s="26"/>
-      <c r="C423" s="26"/>
-      <c r="D423" s="26"/>
-      <c r="E423" s="26"/>
-      <c r="F423" s="26"/>
-      <c r="G423" s="26"/>
-      <c r="H423" s="26"/>
+      <c r="A423" s="23"/>
+      <c r="B423" s="48"/>
+      <c r="C423" s="48"/>
+      <c r="D423" s="48"/>
+      <c r="E423" s="48"/>
+      <c r="F423" s="48"/>
+      <c r="G423" s="22"/>
+      <c r="H423" s="22"/>
     </row>
     <row r="424" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="18"/>
-      <c r="B424" s="19"/>
-      <c r="C424" s="19"/>
-      <c r="D424" s="19"/>
-      <c r="E424" s="19"/>
-      <c r="F424" s="19"/>
-      <c r="G424" s="20"/>
-      <c r="H424" s="20"/>
+      <c r="A424" s="26"/>
+      <c r="B424" s="26"/>
+      <c r="C424" s="26"/>
+      <c r="D424" s="26"/>
+      <c r="E424" s="26"/>
+      <c r="F424" s="26"/>
+      <c r="G424" s="26"/>
+      <c r="H424" s="26"/>
     </row>
     <row r="425" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="18"/>
-      <c r="B425" s="21"/>
-      <c r="C425" s="21"/>
-      <c r="D425" s="21"/>
-      <c r="E425" s="21"/>
-      <c r="F425" s="21"/>
-      <c r="G425" s="22"/>
-      <c r="H425" s="22"/>
+      <c r="B425" s="19"/>
+      <c r="C425" s="19"/>
+      <c r="D425" s="19"/>
+      <c r="E425" s="19"/>
+      <c r="F425" s="19"/>
+      <c r="G425" s="20"/>
+      <c r="H425" s="20"/>
     </row>
     <row r="426" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="18"/>
@@ -6030,7 +6251,7 @@
       <c r="H426" s="22"/>
     </row>
     <row r="427" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="23"/>
+      <c r="A427" s="18"/>
       <c r="B427" s="21"/>
       <c r="C427" s="21"/>
       <c r="D427" s="21"/>
@@ -6060,7 +6281,7 @@
       <c r="H429" s="22"/>
     </row>
     <row r="430" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="18"/>
+      <c r="A430" s="23"/>
       <c r="B430" s="21"/>
       <c r="C430" s="21"/>
       <c r="D430" s="21"/>
@@ -6069,8 +6290,8 @@
       <c r="G430" s="22"/>
       <c r="H430" s="22"/>
     </row>
-    <row r="431" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="23"/>
+    <row r="431" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="18"/>
       <c r="B431" s="21"/>
       <c r="C431" s="21"/>
       <c r="D431" s="21"/>
@@ -6079,8 +6300,8 @@
       <c r="G431" s="22"/>
       <c r="H431" s="22"/>
     </row>
-    <row r="432" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="18"/>
+    <row r="432" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="23"/>
       <c r="B432" s="21"/>
       <c r="C432" s="21"/>
       <c r="D432" s="21"/>
@@ -6100,7 +6321,7 @@
       <c r="H433" s="22"/>
     </row>
     <row r="434" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="23"/>
+      <c r="A434" s="18"/>
       <c r="B434" s="21"/>
       <c r="C434" s="21"/>
       <c r="D434" s="21"/>
@@ -6111,43 +6332,43 @@
     </row>
     <row r="435" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
-      <c r="B435" s="58"/>
-      <c r="C435" s="58"/>
-      <c r="D435" s="58"/>
-      <c r="E435" s="58"/>
-      <c r="F435" s="58"/>
+      <c r="B435" s="21"/>
+      <c r="C435" s="21"/>
+      <c r="D435" s="21"/>
+      <c r="E435" s="21"/>
+      <c r="F435" s="21"/>
       <c r="G435" s="22"/>
       <c r="H435" s="22"/>
     </row>
     <row r="436" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="26"/>
-      <c r="B436" s="26"/>
-      <c r="C436" s="26"/>
-      <c r="D436" s="26"/>
-      <c r="E436" s="26"/>
-      <c r="F436" s="26"/>
-      <c r="G436" s="26"/>
-      <c r="H436" s="26"/>
+      <c r="A436" s="23"/>
+      <c r="B436" s="48"/>
+      <c r="C436" s="48"/>
+      <c r="D436" s="48"/>
+      <c r="E436" s="48"/>
+      <c r="F436" s="48"/>
+      <c r="G436" s="22"/>
+      <c r="H436" s="22"/>
     </row>
     <row r="437" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="18"/>
-      <c r="B437" s="19"/>
-      <c r="C437" s="19"/>
-      <c r="D437" s="19"/>
-      <c r="E437" s="19"/>
-      <c r="F437" s="19"/>
-      <c r="G437" s="20"/>
-      <c r="H437" s="20"/>
+      <c r="A437" s="26"/>
+      <c r="B437" s="26"/>
+      <c r="C437" s="26"/>
+      <c r="D437" s="26"/>
+      <c r="E437" s="26"/>
+      <c r="F437" s="26"/>
+      <c r="G437" s="26"/>
+      <c r="H437" s="26"/>
     </row>
     <row r="438" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="18"/>
-      <c r="B438" s="21"/>
-      <c r="C438" s="21"/>
-      <c r="D438" s="21"/>
-      <c r="E438" s="21"/>
-      <c r="F438" s="21"/>
-      <c r="G438" s="22"/>
-      <c r="H438" s="22"/>
+      <c r="B438" s="19"/>
+      <c r="C438" s="19"/>
+      <c r="D438" s="19"/>
+      <c r="E438" s="19"/>
+      <c r="F438" s="19"/>
+      <c r="G438" s="20"/>
+      <c r="H438" s="20"/>
     </row>
     <row r="439" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="18"/>
@@ -6160,7 +6381,7 @@
       <c r="H439" s="22"/>
     </row>
     <row r="440" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="23"/>
+      <c r="A440" s="18"/>
       <c r="B440" s="21"/>
       <c r="C440" s="21"/>
       <c r="D440" s="21"/>
@@ -6190,7 +6411,7 @@
       <c r="H442" s="22"/>
     </row>
     <row r="443" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="18"/>
+      <c r="A443" s="23"/>
       <c r="B443" s="21"/>
       <c r="C443" s="21"/>
       <c r="D443" s="21"/>
@@ -6199,8 +6420,8 @@
       <c r="G443" s="22"/>
       <c r="H443" s="22"/>
     </row>
-    <row r="444" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="23"/>
+    <row r="444" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="18"/>
       <c r="B444" s="21"/>
       <c r="C444" s="21"/>
       <c r="D444" s="21"/>
@@ -6209,8 +6430,8 @@
       <c r="G444" s="22"/>
       <c r="H444" s="22"/>
     </row>
-    <row r="445" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="18"/>
+    <row r="445" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="23"/>
       <c r="B445" s="21"/>
       <c r="C445" s="21"/>
       <c r="D445" s="21"/>
@@ -6230,7 +6451,7 @@
       <c r="H446" s="22"/>
     </row>
     <row r="447" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="23"/>
+      <c r="A447" s="18"/>
       <c r="B447" s="21"/>
       <c r="C447" s="21"/>
       <c r="D447" s="21"/>
@@ -6241,43 +6462,43 @@
     </row>
     <row r="448" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
-      <c r="B448" s="58"/>
-      <c r="C448" s="58"/>
-      <c r="D448" s="58"/>
-      <c r="E448" s="58"/>
-      <c r="F448" s="58"/>
+      <c r="B448" s="21"/>
+      <c r="C448" s="21"/>
+      <c r="D448" s="21"/>
+      <c r="E448" s="21"/>
+      <c r="F448" s="21"/>
       <c r="G448" s="22"/>
       <c r="H448" s="22"/>
     </row>
     <row r="449" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="26"/>
-      <c r="B449" s="26"/>
-      <c r="C449" s="26"/>
-      <c r="D449" s="26"/>
-      <c r="E449" s="26"/>
-      <c r="F449" s="26"/>
-      <c r="G449" s="26"/>
-      <c r="H449" s="26"/>
+      <c r="A449" s="23"/>
+      <c r="B449" s="48"/>
+      <c r="C449" s="48"/>
+      <c r="D449" s="48"/>
+      <c r="E449" s="48"/>
+      <c r="F449" s="48"/>
+      <c r="G449" s="22"/>
+      <c r="H449" s="22"/>
     </row>
     <row r="450" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="18"/>
-      <c r="B450" s="19"/>
-      <c r="C450" s="19"/>
-      <c r="D450" s="19"/>
-      <c r="E450" s="19"/>
-      <c r="F450" s="19"/>
-      <c r="G450" s="20"/>
-      <c r="H450" s="20"/>
+      <c r="A450" s="26"/>
+      <c r="B450" s="26"/>
+      <c r="C450" s="26"/>
+      <c r="D450" s="26"/>
+      <c r="E450" s="26"/>
+      <c r="F450" s="26"/>
+      <c r="G450" s="26"/>
+      <c r="H450" s="26"/>
     </row>
     <row r="451" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="18"/>
-      <c r="B451" s="21"/>
-      <c r="C451" s="21"/>
-      <c r="D451" s="21"/>
-      <c r="E451" s="21"/>
-      <c r="F451" s="21"/>
-      <c r="G451" s="22"/>
-      <c r="H451" s="22"/>
+      <c r="B451" s="19"/>
+      <c r="C451" s="19"/>
+      <c r="D451" s="19"/>
+      <c r="E451" s="19"/>
+      <c r="F451" s="19"/>
+      <c r="G451" s="20"/>
+      <c r="H451" s="20"/>
     </row>
     <row r="452" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="18"/>
@@ -6290,7 +6511,7 @@
       <c r="H452" s="22"/>
     </row>
     <row r="453" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="23"/>
+      <c r="A453" s="18"/>
       <c r="B453" s="21"/>
       <c r="C453" s="21"/>
       <c r="D453" s="21"/>
@@ -6320,7 +6541,7 @@
       <c r="H455" s="22"/>
     </row>
     <row r="456" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="18"/>
+      <c r="A456" s="23"/>
       <c r="B456" s="21"/>
       <c r="C456" s="21"/>
       <c r="D456" s="21"/>
@@ -6329,8 +6550,8 @@
       <c r="G456" s="22"/>
       <c r="H456" s="22"/>
     </row>
-    <row r="457" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="23"/>
+    <row r="457" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="18"/>
       <c r="B457" s="21"/>
       <c r="C457" s="21"/>
       <c r="D457" s="21"/>
@@ -6339,8 +6560,8 @@
       <c r="G457" s="22"/>
       <c r="H457" s="22"/>
     </row>
-    <row r="458" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="18"/>
+    <row r="458" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="23"/>
       <c r="B458" s="21"/>
       <c r="C458" s="21"/>
       <c r="D458" s="21"/>
@@ -6360,7 +6581,7 @@
       <c r="H459" s="22"/>
     </row>
     <row r="460" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="23"/>
+      <c r="A460" s="18"/>
       <c r="B460" s="21"/>
       <c r="C460" s="21"/>
       <c r="D460" s="21"/>
@@ -6371,43 +6592,43 @@
     </row>
     <row r="461" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
-      <c r="B461" s="58"/>
-      <c r="C461" s="58"/>
-      <c r="D461" s="58"/>
-      <c r="E461" s="58"/>
-      <c r="F461" s="58"/>
+      <c r="B461" s="21"/>
+      <c r="C461" s="21"/>
+      <c r="D461" s="21"/>
+      <c r="E461" s="21"/>
+      <c r="F461" s="21"/>
       <c r="G461" s="22"/>
       <c r="H461" s="22"/>
     </row>
     <row r="462" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="26"/>
-      <c r="B462" s="26"/>
-      <c r="C462" s="26"/>
-      <c r="D462" s="26"/>
-      <c r="E462" s="26"/>
-      <c r="F462" s="26"/>
-      <c r="G462" s="26"/>
-      <c r="H462" s="26"/>
+      <c r="A462" s="23"/>
+      <c r="B462" s="48"/>
+      <c r="C462" s="48"/>
+      <c r="D462" s="48"/>
+      <c r="E462" s="48"/>
+      <c r="F462" s="48"/>
+      <c r="G462" s="22"/>
+      <c r="H462" s="22"/>
     </row>
     <row r="463" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="18"/>
-      <c r="B463" s="19"/>
-      <c r="C463" s="19"/>
-      <c r="D463" s="19"/>
-      <c r="E463" s="19"/>
-      <c r="F463" s="19"/>
-      <c r="G463" s="20"/>
-      <c r="H463" s="20"/>
+      <c r="A463" s="26"/>
+      <c r="B463" s="26"/>
+      <c r="C463" s="26"/>
+      <c r="D463" s="26"/>
+      <c r="E463" s="26"/>
+      <c r="F463" s="26"/>
+      <c r="G463" s="26"/>
+      <c r="H463" s="26"/>
     </row>
     <row r="464" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="18"/>
-      <c r="B464" s="21"/>
-      <c r="C464" s="21"/>
-      <c r="D464" s="21"/>
-      <c r="E464" s="21"/>
-      <c r="F464" s="21"/>
-      <c r="G464" s="22"/>
-      <c r="H464" s="22"/>
+      <c r="B464" s="19"/>
+      <c r="C464" s="19"/>
+      <c r="D464" s="19"/>
+      <c r="E464" s="19"/>
+      <c r="F464" s="19"/>
+      <c r="G464" s="20"/>
+      <c r="H464" s="20"/>
     </row>
     <row r="465" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="18"/>
@@ -6420,7 +6641,7 @@
       <c r="H465" s="22"/>
     </row>
     <row r="466" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="23"/>
+      <c r="A466" s="18"/>
       <c r="B466" s="21"/>
       <c r="C466" s="21"/>
       <c r="D466" s="21"/>
@@ -6450,7 +6671,7 @@
       <c r="H468" s="22"/>
     </row>
     <row r="469" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="18"/>
+      <c r="A469" s="23"/>
       <c r="B469" s="21"/>
       <c r="C469" s="21"/>
       <c r="D469" s="21"/>
@@ -6459,8 +6680,8 @@
       <c r="G469" s="22"/>
       <c r="H469" s="22"/>
     </row>
-    <row r="470" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="23"/>
+    <row r="470" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="18"/>
       <c r="B470" s="21"/>
       <c r="C470" s="21"/>
       <c r="D470" s="21"/>
@@ -6469,8 +6690,8 @@
       <c r="G470" s="22"/>
       <c r="H470" s="22"/>
     </row>
-    <row r="471" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="18"/>
+    <row r="471" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="23"/>
       <c r="B471" s="21"/>
       <c r="C471" s="21"/>
       <c r="D471" s="21"/>
@@ -6490,7 +6711,7 @@
       <c r="H472" s="22"/>
     </row>
     <row r="473" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="23"/>
+      <c r="A473" s="18"/>
       <c r="B473" s="21"/>
       <c r="C473" s="21"/>
       <c r="D473" s="21"/>
@@ -6501,43 +6722,43 @@
     </row>
     <row r="474" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
-      <c r="B474" s="58"/>
-      <c r="C474" s="58"/>
-      <c r="D474" s="58"/>
-      <c r="E474" s="58"/>
-      <c r="F474" s="58"/>
+      <c r="B474" s="21"/>
+      <c r="C474" s="21"/>
+      <c r="D474" s="21"/>
+      <c r="E474" s="21"/>
+      <c r="F474" s="21"/>
       <c r="G474" s="22"/>
       <c r="H474" s="22"/>
     </row>
     <row r="475" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="26"/>
-      <c r="B475" s="26"/>
-      <c r="C475" s="26"/>
-      <c r="D475" s="26"/>
-      <c r="E475" s="26"/>
-      <c r="F475" s="26"/>
-      <c r="G475" s="26"/>
-      <c r="H475" s="26"/>
+      <c r="A475" s="23"/>
+      <c r="B475" s="48"/>
+      <c r="C475" s="48"/>
+      <c r="D475" s="48"/>
+      <c r="E475" s="48"/>
+      <c r="F475" s="48"/>
+      <c r="G475" s="22"/>
+      <c r="H475" s="22"/>
     </row>
     <row r="476" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="18"/>
-      <c r="B476" s="19"/>
-      <c r="C476" s="19"/>
-      <c r="D476" s="19"/>
-      <c r="E476" s="19"/>
-      <c r="F476" s="19"/>
-      <c r="G476" s="20"/>
-      <c r="H476" s="20"/>
+      <c r="A476" s="26"/>
+      <c r="B476" s="26"/>
+      <c r="C476" s="26"/>
+      <c r="D476" s="26"/>
+      <c r="E476" s="26"/>
+      <c r="F476" s="26"/>
+      <c r="G476" s="26"/>
+      <c r="H476" s="26"/>
     </row>
     <row r="477" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="18"/>
-      <c r="B477" s="21"/>
-      <c r="C477" s="21"/>
-      <c r="D477" s="21"/>
-      <c r="E477" s="21"/>
-      <c r="F477" s="21"/>
-      <c r="G477" s="22"/>
-      <c r="H477" s="22"/>
+      <c r="B477" s="19"/>
+      <c r="C477" s="19"/>
+      <c r="D477" s="19"/>
+      <c r="E477" s="19"/>
+      <c r="F477" s="19"/>
+      <c r="G477" s="20"/>
+      <c r="H477" s="20"/>
     </row>
     <row r="478" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="18"/>
@@ -6550,7 +6771,7 @@
       <c r="H478" s="22"/>
     </row>
     <row r="479" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="23"/>
+      <c r="A479" s="18"/>
       <c r="B479" s="21"/>
       <c r="C479" s="21"/>
       <c r="D479" s="21"/>
@@ -6580,7 +6801,7 @@
       <c r="H481" s="22"/>
     </row>
     <row r="482" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="18"/>
+      <c r="A482" s="23"/>
       <c r="B482" s="21"/>
       <c r="C482" s="21"/>
       <c r="D482" s="21"/>
@@ -6589,8 +6810,8 @@
       <c r="G482" s="22"/>
       <c r="H482" s="22"/>
     </row>
-    <row r="483" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="23"/>
+    <row r="483" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="18"/>
       <c r="B483" s="21"/>
       <c r="C483" s="21"/>
       <c r="D483" s="21"/>
@@ -6599,8 +6820,8 @@
       <c r="G483" s="22"/>
       <c r="H483" s="22"/>
     </row>
-    <row r="484" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="18"/>
+    <row r="484" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="23"/>
       <c r="B484" s="21"/>
       <c r="C484" s="21"/>
       <c r="D484" s="21"/>
@@ -6620,7 +6841,7 @@
       <c r="H485" s="22"/>
     </row>
     <row r="486" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="23"/>
+      <c r="A486" s="18"/>
       <c r="B486" s="21"/>
       <c r="C486" s="21"/>
       <c r="D486" s="21"/>
@@ -6631,43 +6852,43 @@
     </row>
     <row r="487" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
-      <c r="B487" s="28"/>
-      <c r="C487" s="58"/>
-      <c r="D487" s="58"/>
-      <c r="E487" s="58"/>
-      <c r="F487" s="58"/>
+      <c r="B487" s="21"/>
+      <c r="C487" s="21"/>
+      <c r="D487" s="21"/>
+      <c r="E487" s="21"/>
+      <c r="F487" s="21"/>
       <c r="G487" s="22"/>
       <c r="H487" s="22"/>
     </row>
     <row r="488" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="26"/>
-      <c r="B488" s="26"/>
-      <c r="C488" s="26"/>
-      <c r="D488" s="26"/>
-      <c r="E488" s="26"/>
-      <c r="F488" s="26"/>
-      <c r="G488" s="26"/>
-      <c r="H488" s="26"/>
+      <c r="A488" s="23"/>
+      <c r="B488" s="28"/>
+      <c r="C488" s="48"/>
+      <c r="D488" s="48"/>
+      <c r="E488" s="48"/>
+      <c r="F488" s="48"/>
+      <c r="G488" s="22"/>
+      <c r="H488" s="22"/>
     </row>
     <row r="489" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="18"/>
-      <c r="B489" s="19"/>
-      <c r="C489" s="19"/>
-      <c r="D489" s="19"/>
-      <c r="E489" s="19"/>
-      <c r="F489" s="19"/>
-      <c r="G489" s="20"/>
-      <c r="H489" s="20"/>
+      <c r="A489" s="26"/>
+      <c r="B489" s="26"/>
+      <c r="C489" s="26"/>
+      <c r="D489" s="26"/>
+      <c r="E489" s="26"/>
+      <c r="F489" s="26"/>
+      <c r="G489" s="26"/>
+      <c r="H489" s="26"/>
     </row>
     <row r="490" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="18"/>
-      <c r="B490" s="21"/>
-      <c r="C490" s="21"/>
-      <c r="D490" s="21"/>
-      <c r="E490" s="21"/>
-      <c r="F490" s="21"/>
-      <c r="G490" s="22"/>
-      <c r="H490" s="22"/>
+      <c r="B490" s="19"/>
+      <c r="C490" s="19"/>
+      <c r="D490" s="19"/>
+      <c r="E490" s="19"/>
+      <c r="F490" s="19"/>
+      <c r="G490" s="20"/>
+      <c r="H490" s="20"/>
     </row>
     <row r="491" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="18"/>
@@ -6680,7 +6901,7 @@
       <c r="H491" s="22"/>
     </row>
     <row r="492" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="23"/>
+      <c r="A492" s="18"/>
       <c r="B492" s="21"/>
       <c r="C492" s="21"/>
       <c r="D492" s="21"/>
@@ -6710,7 +6931,7 @@
       <c r="H494" s="22"/>
     </row>
     <row r="495" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="18"/>
+      <c r="A495" s="23"/>
       <c r="B495" s="21"/>
       <c r="C495" s="21"/>
       <c r="D495" s="21"/>
@@ -6719,8 +6940,8 @@
       <c r="G495" s="22"/>
       <c r="H495" s="22"/>
     </row>
-    <row r="496" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="23"/>
+    <row r="496" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="18"/>
       <c r="B496" s="21"/>
       <c r="C496" s="21"/>
       <c r="D496" s="21"/>
@@ -6729,8 +6950,8 @@
       <c r="G496" s="22"/>
       <c r="H496" s="22"/>
     </row>
-    <row r="497" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="18"/>
+    <row r="497" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="23"/>
       <c r="B497" s="21"/>
       <c r="C497" s="21"/>
       <c r="D497" s="21"/>
@@ -6750,7 +6971,7 @@
       <c r="H498" s="22"/>
     </row>
     <row r="499" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="23"/>
+      <c r="A499" s="18"/>
       <c r="B499" s="21"/>
       <c r="C499" s="21"/>
       <c r="D499" s="21"/>
@@ -6761,43 +6982,43 @@
     </row>
     <row r="500" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="23"/>
-      <c r="B500" s="58"/>
-      <c r="C500" s="58"/>
-      <c r="D500" s="58"/>
-      <c r="E500" s="58"/>
-      <c r="F500" s="58"/>
+      <c r="B500" s="21"/>
+      <c r="C500" s="21"/>
+      <c r="D500" s="21"/>
+      <c r="E500" s="21"/>
+      <c r="F500" s="21"/>
       <c r="G500" s="22"/>
       <c r="H500" s="22"/>
     </row>
     <row r="501" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="26"/>
-      <c r="B501" s="26"/>
-      <c r="C501" s="26"/>
-      <c r="D501" s="26"/>
-      <c r="E501" s="26"/>
-      <c r="F501" s="26"/>
-      <c r="G501" s="26"/>
-      <c r="H501" s="26"/>
+      <c r="A501" s="23"/>
+      <c r="B501" s="48"/>
+      <c r="C501" s="48"/>
+      <c r="D501" s="48"/>
+      <c r="E501" s="48"/>
+      <c r="F501" s="48"/>
+      <c r="G501" s="22"/>
+      <c r="H501" s="22"/>
     </row>
     <row r="502" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="18"/>
-      <c r="B502" s="19"/>
-      <c r="C502" s="19"/>
-      <c r="D502" s="19"/>
-      <c r="E502" s="19"/>
-      <c r="F502" s="19"/>
-      <c r="G502" s="20"/>
-      <c r="H502" s="20"/>
+      <c r="A502" s="26"/>
+      <c r="B502" s="26"/>
+      <c r="C502" s="26"/>
+      <c r="D502" s="26"/>
+      <c r="E502" s="26"/>
+      <c r="F502" s="26"/>
+      <c r="G502" s="26"/>
+      <c r="H502" s="26"/>
     </row>
     <row r="503" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="18"/>
-      <c r="B503" s="21"/>
-      <c r="C503" s="21"/>
-      <c r="D503" s="21"/>
-      <c r="E503" s="21"/>
-      <c r="F503" s="21"/>
-      <c r="G503" s="22"/>
-      <c r="H503" s="22"/>
+      <c r="B503" s="19"/>
+      <c r="C503" s="19"/>
+      <c r="D503" s="19"/>
+      <c r="E503" s="19"/>
+      <c r="F503" s="19"/>
+      <c r="G503" s="20"/>
+      <c r="H503" s="20"/>
     </row>
     <row r="504" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="18"/>
@@ -6810,7 +7031,7 @@
       <c r="H504" s="22"/>
     </row>
     <row r="505" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="23"/>
+      <c r="A505" s="18"/>
       <c r="B505" s="21"/>
       <c r="C505" s="21"/>
       <c r="D505" s="21"/>
@@ -6840,7 +7061,7 @@
       <c r="H507" s="22"/>
     </row>
     <row r="508" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="18"/>
+      <c r="A508" s="23"/>
       <c r="B508" s="21"/>
       <c r="C508" s="21"/>
       <c r="D508" s="21"/>
@@ -6849,8 +7070,8 @@
       <c r="G508" s="22"/>
       <c r="H508" s="22"/>
     </row>
-    <row r="509" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="23"/>
+    <row r="509" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="18"/>
       <c r="B509" s="21"/>
       <c r="C509" s="21"/>
       <c r="D509" s="21"/>
@@ -6859,8 +7080,8 @@
       <c r="G509" s="22"/>
       <c r="H509" s="22"/>
     </row>
-    <row r="510" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="18"/>
+    <row r="510" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="23"/>
       <c r="B510" s="21"/>
       <c r="C510" s="21"/>
       <c r="D510" s="21"/>
@@ -6880,7 +7101,7 @@
       <c r="H511" s="22"/>
     </row>
     <row r="512" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="23"/>
+      <c r="A512" s="18"/>
       <c r="B512" s="21"/>
       <c r="C512" s="21"/>
       <c r="D512" s="21"/>
@@ -6891,43 +7112,43 @@
     </row>
     <row r="513" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="23"/>
-      <c r="B513" s="58"/>
-      <c r="C513" s="58"/>
-      <c r="D513" s="58"/>
-      <c r="E513" s="58"/>
-      <c r="F513" s="58"/>
+      <c r="B513" s="21"/>
+      <c r="C513" s="21"/>
+      <c r="D513" s="21"/>
+      <c r="E513" s="21"/>
+      <c r="F513" s="21"/>
       <c r="G513" s="22"/>
       <c r="H513" s="22"/>
     </row>
     <row r="514" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="26"/>
-      <c r="B514" s="26"/>
-      <c r="C514" s="26"/>
-      <c r="D514" s="26"/>
-      <c r="E514" s="26"/>
-      <c r="F514" s="26"/>
-      <c r="G514" s="26"/>
-      <c r="H514" s="26"/>
+      <c r="A514" s="23"/>
+      <c r="B514" s="48"/>
+      <c r="C514" s="48"/>
+      <c r="D514" s="48"/>
+      <c r="E514" s="48"/>
+      <c r="F514" s="48"/>
+      <c r="G514" s="22"/>
+      <c r="H514" s="22"/>
     </row>
     <row r="515" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="18"/>
-      <c r="B515" s="19"/>
-      <c r="C515" s="19"/>
-      <c r="D515" s="19"/>
-      <c r="E515" s="19"/>
-      <c r="F515" s="19"/>
-      <c r="G515" s="20"/>
-      <c r="H515" s="20"/>
+      <c r="A515" s="26"/>
+      <c r="B515" s="26"/>
+      <c r="C515" s="26"/>
+      <c r="D515" s="26"/>
+      <c r="E515" s="26"/>
+      <c r="F515" s="26"/>
+      <c r="G515" s="26"/>
+      <c r="H515" s="26"/>
     </row>
     <row r="516" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="18"/>
-      <c r="B516" s="21"/>
-      <c r="C516" s="21"/>
-      <c r="D516" s="21"/>
-      <c r="E516" s="21"/>
-      <c r="F516" s="21"/>
-      <c r="G516" s="22"/>
-      <c r="H516" s="22"/>
+      <c r="B516" s="19"/>
+      <c r="C516" s="19"/>
+      <c r="D516" s="19"/>
+      <c r="E516" s="19"/>
+      <c r="F516" s="19"/>
+      <c r="G516" s="20"/>
+      <c r="H516" s="20"/>
     </row>
     <row r="517" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="18"/>
@@ -6940,7 +7161,7 @@
       <c r="H517" s="22"/>
     </row>
     <row r="518" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="23"/>
+      <c r="A518" s="18"/>
       <c r="B518" s="21"/>
       <c r="C518" s="21"/>
       <c r="D518" s="21"/>
@@ -6970,7 +7191,7 @@
       <c r="H520" s="22"/>
     </row>
     <row r="521" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="18"/>
+      <c r="A521" s="23"/>
       <c r="B521" s="21"/>
       <c r="C521" s="21"/>
       <c r="D521" s="21"/>
@@ -6979,8 +7200,8 @@
       <c r="G521" s="22"/>
       <c r="H521" s="22"/>
     </row>
-    <row r="522" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="23"/>
+    <row r="522" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="18"/>
       <c r="B522" s="21"/>
       <c r="C522" s="21"/>
       <c r="D522" s="21"/>
@@ -6989,8 +7210,8 @@
       <c r="G522" s="22"/>
       <c r="H522" s="22"/>
     </row>
-    <row r="523" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="18"/>
+    <row r="523" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="23"/>
       <c r="B523" s="21"/>
       <c r="C523" s="21"/>
       <c r="D523" s="21"/>
@@ -7010,7 +7231,7 @@
       <c r="H524" s="22"/>
     </row>
     <row r="525" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="23"/>
+      <c r="A525" s="18"/>
       <c r="B525" s="21"/>
       <c r="C525" s="21"/>
       <c r="D525" s="21"/>
@@ -7021,43 +7242,43 @@
     </row>
     <row r="526" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="23"/>
-      <c r="B526" s="58"/>
-      <c r="C526" s="58"/>
-      <c r="D526" s="58"/>
-      <c r="E526" s="58"/>
-      <c r="F526" s="58"/>
+      <c r="B526" s="21"/>
+      <c r="C526" s="21"/>
+      <c r="D526" s="21"/>
+      <c r="E526" s="21"/>
+      <c r="F526" s="21"/>
       <c r="G526" s="22"/>
       <c r="H526" s="22"/>
     </row>
     <row r="527" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="26"/>
-      <c r="B527" s="26"/>
-      <c r="C527" s="26"/>
-      <c r="D527" s="26"/>
-      <c r="E527" s="26"/>
-      <c r="F527" s="26"/>
-      <c r="G527" s="26"/>
-      <c r="H527" s="26"/>
+      <c r="A527" s="23"/>
+      <c r="B527" s="48"/>
+      <c r="C527" s="48"/>
+      <c r="D527" s="48"/>
+      <c r="E527" s="48"/>
+      <c r="F527" s="48"/>
+      <c r="G527" s="22"/>
+      <c r="H527" s="22"/>
     </row>
     <row r="528" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="18"/>
-      <c r="B528" s="19"/>
-      <c r="C528" s="19"/>
-      <c r="D528" s="19"/>
-      <c r="E528" s="19"/>
-      <c r="F528" s="19"/>
-      <c r="G528" s="20"/>
-      <c r="H528" s="20"/>
+      <c r="A528" s="26"/>
+      <c r="B528" s="26"/>
+      <c r="C528" s="26"/>
+      <c r="D528" s="26"/>
+      <c r="E528" s="26"/>
+      <c r="F528" s="26"/>
+      <c r="G528" s="26"/>
+      <c r="H528" s="26"/>
     </row>
     <row r="529" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="18"/>
-      <c r="B529" s="21"/>
-      <c r="C529" s="21"/>
-      <c r="D529" s="21"/>
-      <c r="E529" s="21"/>
-      <c r="F529" s="21"/>
-      <c r="G529" s="22"/>
-      <c r="H529" s="22"/>
+      <c r="B529" s="19"/>
+      <c r="C529" s="19"/>
+      <c r="D529" s="19"/>
+      <c r="E529" s="19"/>
+      <c r="F529" s="19"/>
+      <c r="G529" s="20"/>
+      <c r="H529" s="20"/>
     </row>
     <row r="530" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="18"/>
@@ -7070,7 +7291,7 @@
       <c r="H530" s="22"/>
     </row>
     <row r="531" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="23"/>
+      <c r="A531" s="18"/>
       <c r="B531" s="21"/>
       <c r="C531" s="21"/>
       <c r="D531" s="21"/>
@@ -7100,7 +7321,7 @@
       <c r="H533" s="22"/>
     </row>
     <row r="534" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="18"/>
+      <c r="A534" s="23"/>
       <c r="B534" s="21"/>
       <c r="C534" s="21"/>
       <c r="D534" s="21"/>
@@ -7109,8 +7330,8 @@
       <c r="G534" s="22"/>
       <c r="H534" s="22"/>
     </row>
-    <row r="535" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="23"/>
+    <row r="535" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="18"/>
       <c r="B535" s="21"/>
       <c r="C535" s="21"/>
       <c r="D535" s="21"/>
@@ -7119,8 +7340,8 @@
       <c r="G535" s="22"/>
       <c r="H535" s="22"/>
     </row>
-    <row r="536" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="18"/>
+    <row r="536" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="23"/>
       <c r="B536" s="21"/>
       <c r="C536" s="21"/>
       <c r="D536" s="21"/>
@@ -7140,7 +7361,7 @@
       <c r="H537" s="22"/>
     </row>
     <row r="538" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="23"/>
+      <c r="A538" s="18"/>
       <c r="B538" s="21"/>
       <c r="C538" s="21"/>
       <c r="D538" s="21"/>
@@ -7151,43 +7372,43 @@
     </row>
     <row r="539" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="23"/>
-      <c r="B539" s="58"/>
-      <c r="C539" s="58"/>
-      <c r="D539" s="58"/>
-      <c r="E539" s="58"/>
-      <c r="F539" s="58"/>
+      <c r="B539" s="21"/>
+      <c r="C539" s="21"/>
+      <c r="D539" s="21"/>
+      <c r="E539" s="21"/>
+      <c r="F539" s="21"/>
       <c r="G539" s="22"/>
       <c r="H539" s="22"/>
     </row>
     <row r="540" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="26"/>
-      <c r="B540" s="26"/>
-      <c r="C540" s="26"/>
-      <c r="D540" s="26"/>
-      <c r="E540" s="26"/>
-      <c r="F540" s="26"/>
-      <c r="G540" s="26"/>
-      <c r="H540" s="26"/>
+      <c r="A540" s="23"/>
+      <c r="B540" s="48"/>
+      <c r="C540" s="48"/>
+      <c r="D540" s="48"/>
+      <c r="E540" s="48"/>
+      <c r="F540" s="48"/>
+      <c r="G540" s="22"/>
+      <c r="H540" s="22"/>
     </row>
     <row r="541" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="18"/>
-      <c r="B541" s="19"/>
-      <c r="C541" s="19"/>
-      <c r="D541" s="19"/>
-      <c r="E541" s="19"/>
-      <c r="F541" s="19"/>
-      <c r="G541" s="20"/>
-      <c r="H541" s="20"/>
+      <c r="A541" s="26"/>
+      <c r="B541" s="26"/>
+      <c r="C541" s="26"/>
+      <c r="D541" s="26"/>
+      <c r="E541" s="26"/>
+      <c r="F541" s="26"/>
+      <c r="G541" s="26"/>
+      <c r="H541" s="26"/>
     </row>
     <row r="542" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="18"/>
-      <c r="B542" s="21"/>
-      <c r="C542" s="21"/>
-      <c r="D542" s="21"/>
-      <c r="E542" s="21"/>
-      <c r="F542" s="21"/>
-      <c r="G542" s="22"/>
-      <c r="H542" s="22"/>
+      <c r="B542" s="19"/>
+      <c r="C542" s="19"/>
+      <c r="D542" s="19"/>
+      <c r="E542" s="19"/>
+      <c r="F542" s="19"/>
+      <c r="G542" s="20"/>
+      <c r="H542" s="20"/>
     </row>
     <row r="543" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="18"/>
@@ -7200,7 +7421,7 @@
       <c r="H543" s="22"/>
     </row>
     <row r="544" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="23"/>
+      <c r="A544" s="18"/>
       <c r="B544" s="21"/>
       <c r="C544" s="21"/>
       <c r="D544" s="21"/>
@@ -7230,7 +7451,7 @@
       <c r="H546" s="22"/>
     </row>
     <row r="547" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="18"/>
+      <c r="A547" s="23"/>
       <c r="B547" s="21"/>
       <c r="C547" s="21"/>
       <c r="D547" s="21"/>
@@ -7239,8 +7460,8 @@
       <c r="G547" s="22"/>
       <c r="H547" s="22"/>
     </row>
-    <row r="548" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="23"/>
+    <row r="548" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="18"/>
       <c r="B548" s="21"/>
       <c r="C548" s="21"/>
       <c r="D548" s="21"/>
@@ -7249,8 +7470,8 @@
       <c r="G548" s="22"/>
       <c r="H548" s="22"/>
     </row>
-    <row r="549" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="18"/>
+    <row r="549" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="23"/>
       <c r="B549" s="21"/>
       <c r="C549" s="21"/>
       <c r="D549" s="21"/>
@@ -7270,7 +7491,7 @@
       <c r="H550" s="22"/>
     </row>
     <row r="551" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="23"/>
+      <c r="A551" s="18"/>
       <c r="B551" s="21"/>
       <c r="C551" s="21"/>
       <c r="D551" s="21"/>
@@ -7281,43 +7502,43 @@
     </row>
     <row r="552" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="23"/>
-      <c r="B552" s="58"/>
-      <c r="C552" s="58"/>
-      <c r="D552" s="58"/>
-      <c r="E552" s="58"/>
-      <c r="F552" s="58"/>
+      <c r="B552" s="21"/>
+      <c r="C552" s="21"/>
+      <c r="D552" s="21"/>
+      <c r="E552" s="21"/>
+      <c r="F552" s="21"/>
       <c r="G552" s="22"/>
       <c r="H552" s="22"/>
     </row>
     <row r="553" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="26"/>
-      <c r="B553" s="26"/>
-      <c r="C553" s="26"/>
-      <c r="D553" s="26"/>
-      <c r="E553" s="26"/>
-      <c r="F553" s="26"/>
-      <c r="G553" s="26"/>
-      <c r="H553" s="26"/>
+      <c r="A553" s="23"/>
+      <c r="B553" s="48"/>
+      <c r="C553" s="48"/>
+      <c r="D553" s="48"/>
+      <c r="E553" s="48"/>
+      <c r="F553" s="48"/>
+      <c r="G553" s="22"/>
+      <c r="H553" s="22"/>
     </row>
     <row r="554" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="18"/>
-      <c r="B554" s="19"/>
-      <c r="C554" s="19"/>
-      <c r="D554" s="19"/>
-      <c r="E554" s="19"/>
-      <c r="F554" s="19"/>
-      <c r="G554" s="20"/>
-      <c r="H554" s="20"/>
+      <c r="A554" s="26"/>
+      <c r="B554" s="26"/>
+      <c r="C554" s="26"/>
+      <c r="D554" s="26"/>
+      <c r="E554" s="26"/>
+      <c r="F554" s="26"/>
+      <c r="G554" s="26"/>
+      <c r="H554" s="26"/>
     </row>
     <row r="555" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="18"/>
-      <c r="B555" s="21"/>
-      <c r="C555" s="21"/>
-      <c r="D555" s="21"/>
-      <c r="E555" s="21"/>
-      <c r="F555" s="21"/>
-      <c r="G555" s="22"/>
-      <c r="H555" s="22"/>
+      <c r="B555" s="19"/>
+      <c r="C555" s="19"/>
+      <c r="D555" s="19"/>
+      <c r="E555" s="19"/>
+      <c r="F555" s="19"/>
+      <c r="G555" s="20"/>
+      <c r="H555" s="20"/>
     </row>
     <row r="556" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="18"/>
@@ -7330,7 +7551,7 @@
       <c r="H556" s="22"/>
     </row>
     <row r="557" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="23"/>
+      <c r="A557" s="18"/>
       <c r="B557" s="21"/>
       <c r="C557" s="21"/>
       <c r="D557" s="21"/>
@@ -7360,7 +7581,7 @@
       <c r="H559" s="22"/>
     </row>
     <row r="560" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="18"/>
+      <c r="A560" s="23"/>
       <c r="B560" s="21"/>
       <c r="C560" s="21"/>
       <c r="D560" s="21"/>
@@ -7369,8 +7590,8 @@
       <c r="G560" s="22"/>
       <c r="H560" s="22"/>
     </row>
-    <row r="561" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="23"/>
+    <row r="561" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="18"/>
       <c r="B561" s="21"/>
       <c r="C561" s="21"/>
       <c r="D561" s="21"/>
@@ -7379,8 +7600,8 @@
       <c r="G561" s="22"/>
       <c r="H561" s="22"/>
     </row>
-    <row r="562" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="18"/>
+    <row r="562" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="23"/>
       <c r="B562" s="21"/>
       <c r="C562" s="21"/>
       <c r="D562" s="21"/>
@@ -7400,7 +7621,7 @@
       <c r="H563" s="22"/>
     </row>
     <row r="564" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="23"/>
+      <c r="A564" s="18"/>
       <c r="B564" s="21"/>
       <c r="C564" s="21"/>
       <c r="D564" s="21"/>
@@ -7411,43 +7632,43 @@
     </row>
     <row r="565" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="23"/>
-      <c r="B565" s="58"/>
-      <c r="C565" s="58"/>
-      <c r="D565" s="58"/>
-      <c r="E565" s="58"/>
-      <c r="F565" s="58"/>
+      <c r="B565" s="21"/>
+      <c r="C565" s="21"/>
+      <c r="D565" s="21"/>
+      <c r="E565" s="21"/>
+      <c r="F565" s="21"/>
       <c r="G565" s="22"/>
       <c r="H565" s="22"/>
     </row>
     <row r="566" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="26"/>
-      <c r="B566" s="26"/>
-      <c r="C566" s="26"/>
-      <c r="D566" s="26"/>
-      <c r="E566" s="26"/>
-      <c r="F566" s="26"/>
-      <c r="G566" s="26"/>
-      <c r="H566" s="26"/>
+      <c r="A566" s="23"/>
+      <c r="B566" s="48"/>
+      <c r="C566" s="48"/>
+      <c r="D566" s="48"/>
+      <c r="E566" s="48"/>
+      <c r="F566" s="48"/>
+      <c r="G566" s="22"/>
+      <c r="H566" s="22"/>
     </row>
     <row r="567" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="18"/>
-      <c r="B567" s="19"/>
-      <c r="C567" s="19"/>
-      <c r="D567" s="19"/>
-      <c r="E567" s="19"/>
-      <c r="F567" s="19"/>
-      <c r="G567" s="20"/>
-      <c r="H567" s="20"/>
+      <c r="A567" s="26"/>
+      <c r="B567" s="26"/>
+      <c r="C567" s="26"/>
+      <c r="D567" s="26"/>
+      <c r="E567" s="26"/>
+      <c r="F567" s="26"/>
+      <c r="G567" s="26"/>
+      <c r="H567" s="26"/>
     </row>
     <row r="568" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="18"/>
-      <c r="B568" s="21"/>
-      <c r="C568" s="21"/>
-      <c r="D568" s="21"/>
-      <c r="E568" s="21"/>
-      <c r="F568" s="21"/>
-      <c r="G568" s="22"/>
-      <c r="H568" s="22"/>
+      <c r="B568" s="19"/>
+      <c r="C568" s="19"/>
+      <c r="D568" s="19"/>
+      <c r="E568" s="19"/>
+      <c r="F568" s="19"/>
+      <c r="G568" s="20"/>
+      <c r="H568" s="20"/>
     </row>
     <row r="569" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="18"/>
@@ -7460,7 +7681,7 @@
       <c r="H569" s="22"/>
     </row>
     <row r="570" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="23"/>
+      <c r="A570" s="18"/>
       <c r="B570" s="21"/>
       <c r="C570" s="21"/>
       <c r="D570" s="21"/>
@@ -7490,7 +7711,7 @@
       <c r="H572" s="22"/>
     </row>
     <row r="573" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="18"/>
+      <c r="A573" s="23"/>
       <c r="B573" s="21"/>
       <c r="C573" s="21"/>
       <c r="D573" s="21"/>
@@ -7499,8 +7720,8 @@
       <c r="G573" s="22"/>
       <c r="H573" s="22"/>
     </row>
-    <row r="574" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="23"/>
+    <row r="574" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="18"/>
       <c r="B574" s="21"/>
       <c r="C574" s="21"/>
       <c r="D574" s="21"/>
@@ -7509,8 +7730,8 @@
       <c r="G574" s="22"/>
       <c r="H574" s="22"/>
     </row>
-    <row r="575" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="18"/>
+    <row r="575" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="23"/>
       <c r="B575" s="21"/>
       <c r="C575" s="21"/>
       <c r="D575" s="21"/>
@@ -7530,7 +7751,7 @@
       <c r="H576" s="22"/>
     </row>
     <row r="577" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="23"/>
+      <c r="A577" s="18"/>
       <c r="B577" s="21"/>
       <c r="C577" s="21"/>
       <c r="D577" s="21"/>
@@ -7541,43 +7762,43 @@
     </row>
     <row r="578" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="23"/>
-      <c r="B578" s="58"/>
-      <c r="C578" s="58"/>
-      <c r="D578" s="58"/>
-      <c r="E578" s="58"/>
-      <c r="F578" s="58"/>
+      <c r="B578" s="21"/>
+      <c r="C578" s="21"/>
+      <c r="D578" s="21"/>
+      <c r="E578" s="21"/>
+      <c r="F578" s="21"/>
       <c r="G578" s="22"/>
       <c r="H578" s="22"/>
     </row>
     <row r="579" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="26"/>
-      <c r="B579" s="26"/>
-      <c r="C579" s="26"/>
-      <c r="D579" s="26"/>
-      <c r="E579" s="26"/>
-      <c r="F579" s="26"/>
-      <c r="G579" s="26"/>
-      <c r="H579" s="26"/>
+      <c r="A579" s="23"/>
+      <c r="B579" s="48"/>
+      <c r="C579" s="48"/>
+      <c r="D579" s="48"/>
+      <c r="E579" s="48"/>
+      <c r="F579" s="48"/>
+      <c r="G579" s="22"/>
+      <c r="H579" s="22"/>
     </row>
     <row r="580" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="18"/>
-      <c r="B580" s="19"/>
-      <c r="C580" s="19"/>
-      <c r="D580" s="19"/>
-      <c r="E580" s="19"/>
-      <c r="F580" s="19"/>
-      <c r="G580" s="20"/>
-      <c r="H580" s="20"/>
+      <c r="A580" s="26"/>
+      <c r="B580" s="26"/>
+      <c r="C580" s="26"/>
+      <c r="D580" s="26"/>
+      <c r="E580" s="26"/>
+      <c r="F580" s="26"/>
+      <c r="G580" s="26"/>
+      <c r="H580" s="26"/>
     </row>
     <row r="581" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="18"/>
-      <c r="B581" s="21"/>
-      <c r="C581" s="21"/>
-      <c r="D581" s="21"/>
-      <c r="E581" s="21"/>
-      <c r="F581" s="21"/>
-      <c r="G581" s="22"/>
-      <c r="H581" s="22"/>
+      <c r="B581" s="19"/>
+      <c r="C581" s="19"/>
+      <c r="D581" s="19"/>
+      <c r="E581" s="19"/>
+      <c r="F581" s="19"/>
+      <c r="G581" s="20"/>
+      <c r="H581" s="20"/>
     </row>
     <row r="582" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="18"/>
@@ -7590,7 +7811,7 @@
       <c r="H582" s="22"/>
     </row>
     <row r="583" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="23"/>
+      <c r="A583" s="18"/>
       <c r="B583" s="21"/>
       <c r="C583" s="21"/>
       <c r="D583" s="21"/>
@@ -7620,7 +7841,7 @@
       <c r="H585" s="22"/>
     </row>
     <row r="586" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="18"/>
+      <c r="A586" s="23"/>
       <c r="B586" s="21"/>
       <c r="C586" s="21"/>
       <c r="D586" s="21"/>
@@ -7629,8 +7850,8 @@
       <c r="G586" s="22"/>
       <c r="H586" s="22"/>
     </row>
-    <row r="587" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="23"/>
+    <row r="587" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="18"/>
       <c r="B587" s="21"/>
       <c r="C587" s="21"/>
       <c r="D587" s="21"/>
@@ -7639,8 +7860,8 @@
       <c r="G587" s="22"/>
       <c r="H587" s="22"/>
     </row>
-    <row r="588" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="18"/>
+    <row r="588" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="23"/>
       <c r="B588" s="21"/>
       <c r="C588" s="21"/>
       <c r="D588" s="21"/>
@@ -7660,7 +7881,7 @@
       <c r="H589" s="22"/>
     </row>
     <row r="590" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="23"/>
+      <c r="A590" s="18"/>
       <c r="B590" s="21"/>
       <c r="C590" s="21"/>
       <c r="D590" s="21"/>
@@ -7671,43 +7892,43 @@
     </row>
     <row r="591" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="23"/>
-      <c r="B591" s="58"/>
-      <c r="C591" s="58"/>
-      <c r="D591" s="58"/>
-      <c r="E591" s="58"/>
-      <c r="F591" s="58"/>
+      <c r="B591" s="21"/>
+      <c r="C591" s="21"/>
+      <c r="D591" s="21"/>
+      <c r="E591" s="21"/>
+      <c r="F591" s="21"/>
       <c r="G591" s="22"/>
       <c r="H591" s="22"/>
     </row>
     <row r="592" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="26"/>
-      <c r="B592" s="26"/>
-      <c r="C592" s="26"/>
-      <c r="D592" s="26"/>
-      <c r="E592" s="26"/>
-      <c r="F592" s="26"/>
-      <c r="G592" s="26"/>
-      <c r="H592" s="26"/>
+      <c r="A592" s="23"/>
+      <c r="B592" s="48"/>
+      <c r="C592" s="48"/>
+      <c r="D592" s="48"/>
+      <c r="E592" s="48"/>
+      <c r="F592" s="48"/>
+      <c r="G592" s="22"/>
+      <c r="H592" s="22"/>
     </row>
     <row r="593" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="18"/>
-      <c r="B593" s="19"/>
-      <c r="C593" s="19"/>
-      <c r="D593" s="19"/>
-      <c r="E593" s="19"/>
-      <c r="F593" s="19"/>
-      <c r="G593" s="20"/>
-      <c r="H593" s="20"/>
+      <c r="A593" s="26"/>
+      <c r="B593" s="26"/>
+      <c r="C593" s="26"/>
+      <c r="D593" s="26"/>
+      <c r="E593" s="26"/>
+      <c r="F593" s="26"/>
+      <c r="G593" s="26"/>
+      <c r="H593" s="26"/>
     </row>
     <row r="594" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="18"/>
-      <c r="B594" s="21"/>
-      <c r="C594" s="21"/>
-      <c r="D594" s="21"/>
-      <c r="E594" s="21"/>
-      <c r="F594" s="21"/>
-      <c r="G594" s="22"/>
-      <c r="H594" s="22"/>
+      <c r="B594" s="19"/>
+      <c r="C594" s="19"/>
+      <c r="D594" s="19"/>
+      <c r="E594" s="19"/>
+      <c r="F594" s="19"/>
+      <c r="G594" s="20"/>
+      <c r="H594" s="20"/>
     </row>
     <row r="595" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="18"/>
@@ -7720,7 +7941,7 @@
       <c r="H595" s="22"/>
     </row>
     <row r="596" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="23"/>
+      <c r="A596" s="18"/>
       <c r="B596" s="21"/>
       <c r="C596" s="21"/>
       <c r="D596" s="21"/>
@@ -7750,7 +7971,7 @@
       <c r="H598" s="22"/>
     </row>
     <row r="599" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="18"/>
+      <c r="A599" s="23"/>
       <c r="B599" s="21"/>
       <c r="C599" s="21"/>
       <c r="D599" s="21"/>
@@ -7759,8 +7980,8 @@
       <c r="G599" s="22"/>
       <c r="H599" s="22"/>
     </row>
-    <row r="600" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="23"/>
+    <row r="600" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="18"/>
       <c r="B600" s="21"/>
       <c r="C600" s="21"/>
       <c r="D600" s="21"/>
@@ -7769,8 +7990,8 @@
       <c r="G600" s="22"/>
       <c r="H600" s="22"/>
     </row>
-    <row r="601" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="18"/>
+    <row r="601" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="23"/>
       <c r="B601" s="21"/>
       <c r="C601" s="21"/>
       <c r="D601" s="21"/>
@@ -7790,7 +8011,7 @@
       <c r="H602" s="22"/>
     </row>
     <row r="603" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="23"/>
+      <c r="A603" s="18"/>
       <c r="B603" s="21"/>
       <c r="C603" s="21"/>
       <c r="D603" s="21"/>
@@ -7801,43 +8022,43 @@
     </row>
     <row r="604" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="23"/>
-      <c r="B604" s="58"/>
-      <c r="C604" s="58"/>
-      <c r="D604" s="58"/>
-      <c r="E604" s="58"/>
-      <c r="F604" s="58"/>
+      <c r="B604" s="21"/>
+      <c r="C604" s="21"/>
+      <c r="D604" s="21"/>
+      <c r="E604" s="21"/>
+      <c r="F604" s="21"/>
       <c r="G604" s="22"/>
       <c r="H604" s="22"/>
     </row>
     <row r="605" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="26"/>
-      <c r="B605" s="26"/>
-      <c r="C605" s="26"/>
-      <c r="D605" s="26"/>
-      <c r="E605" s="26"/>
-      <c r="F605" s="26"/>
-      <c r="G605" s="26"/>
-      <c r="H605" s="26"/>
+      <c r="A605" s="23"/>
+      <c r="B605" s="48"/>
+      <c r="C605" s="48"/>
+      <c r="D605" s="48"/>
+      <c r="E605" s="48"/>
+      <c r="F605" s="48"/>
+      <c r="G605" s="22"/>
+      <c r="H605" s="22"/>
     </row>
     <row r="606" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="18"/>
-      <c r="B606" s="19"/>
-      <c r="C606" s="19"/>
-      <c r="D606" s="19"/>
-      <c r="E606" s="19"/>
-      <c r="F606" s="19"/>
-      <c r="G606" s="20"/>
-      <c r="H606" s="20"/>
+      <c r="A606" s="26"/>
+      <c r="B606" s="26"/>
+      <c r="C606" s="26"/>
+      <c r="D606" s="26"/>
+      <c r="E606" s="26"/>
+      <c r="F606" s="26"/>
+      <c r="G606" s="26"/>
+      <c r="H606" s="26"/>
     </row>
     <row r="607" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="18"/>
-      <c r="B607" s="21"/>
-      <c r="C607" s="21"/>
-      <c r="D607" s="21"/>
-      <c r="E607" s="21"/>
-      <c r="F607" s="21"/>
-      <c r="G607" s="22"/>
-      <c r="H607" s="22"/>
+      <c r="B607" s="19"/>
+      <c r="C607" s="19"/>
+      <c r="D607" s="19"/>
+      <c r="E607" s="19"/>
+      <c r="F607" s="19"/>
+      <c r="G607" s="20"/>
+      <c r="H607" s="20"/>
     </row>
     <row r="608" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="18"/>
@@ -7850,7 +8071,7 @@
       <c r="H608" s="22"/>
     </row>
     <row r="609" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="23"/>
+      <c r="A609" s="18"/>
       <c r="B609" s="21"/>
       <c r="C609" s="21"/>
       <c r="D609" s="21"/>
@@ -7880,7 +8101,7 @@
       <c r="H611" s="22"/>
     </row>
     <row r="612" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="18"/>
+      <c r="A612" s="23"/>
       <c r="B612" s="21"/>
       <c r="C612" s="21"/>
       <c r="D612" s="21"/>
@@ -7889,8 +8110,8 @@
       <c r="G612" s="22"/>
       <c r="H612" s="22"/>
     </row>
-    <row r="613" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="23"/>
+    <row r="613" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="18"/>
       <c r="B613" s="21"/>
       <c r="C613" s="21"/>
       <c r="D613" s="21"/>
@@ -7899,8 +8120,8 @@
       <c r="G613" s="22"/>
       <c r="H613" s="22"/>
     </row>
-    <row r="614" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="18"/>
+    <row r="614" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="23"/>
       <c r="B614" s="21"/>
       <c r="C614" s="21"/>
       <c r="D614" s="21"/>
@@ -7920,7 +8141,7 @@
       <c r="H615" s="22"/>
     </row>
     <row r="616" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="23"/>
+      <c r="A616" s="18"/>
       <c r="B616" s="21"/>
       <c r="C616" s="21"/>
       <c r="D616" s="21"/>
@@ -7931,43 +8152,43 @@
     </row>
     <row r="617" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="23"/>
-      <c r="B617" s="58"/>
-      <c r="C617" s="58"/>
-      <c r="D617" s="58"/>
-      <c r="E617" s="58"/>
-      <c r="F617" s="58"/>
+      <c r="B617" s="21"/>
+      <c r="C617" s="21"/>
+      <c r="D617" s="21"/>
+      <c r="E617" s="21"/>
+      <c r="F617" s="21"/>
       <c r="G617" s="22"/>
       <c r="H617" s="22"/>
     </row>
     <row r="618" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="26"/>
-      <c r="B618" s="26"/>
-      <c r="C618" s="26"/>
-      <c r="D618" s="26"/>
-      <c r="E618" s="26"/>
-      <c r="F618" s="26"/>
-      <c r="G618" s="26"/>
-      <c r="H618" s="26"/>
+      <c r="A618" s="23"/>
+      <c r="B618" s="48"/>
+      <c r="C618" s="48"/>
+      <c r="D618" s="48"/>
+      <c r="E618" s="48"/>
+      <c r="F618" s="48"/>
+      <c r="G618" s="22"/>
+      <c r="H618" s="22"/>
     </row>
     <row r="619" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="18"/>
-      <c r="B619" s="19"/>
-      <c r="C619" s="19"/>
-      <c r="D619" s="19"/>
-      <c r="E619" s="19"/>
-      <c r="F619" s="19"/>
-      <c r="G619" s="20"/>
-      <c r="H619" s="20"/>
+      <c r="A619" s="26"/>
+      <c r="B619" s="26"/>
+      <c r="C619" s="26"/>
+      <c r="D619" s="26"/>
+      <c r="E619" s="26"/>
+      <c r="F619" s="26"/>
+      <c r="G619" s="26"/>
+      <c r="H619" s="26"/>
     </row>
     <row r="620" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="18"/>
-      <c r="B620" s="21"/>
-      <c r="C620" s="21"/>
-      <c r="D620" s="21"/>
-      <c r="E620" s="21"/>
-      <c r="F620" s="21"/>
-      <c r="G620" s="22"/>
-      <c r="H620" s="22"/>
+      <c r="B620" s="19"/>
+      <c r="C620" s="19"/>
+      <c r="D620" s="19"/>
+      <c r="E620" s="19"/>
+      <c r="F620" s="19"/>
+      <c r="G620" s="20"/>
+      <c r="H620" s="20"/>
     </row>
     <row r="621" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="18"/>
@@ -7980,7 +8201,7 @@
       <c r="H621" s="22"/>
     </row>
     <row r="622" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="23"/>
+      <c r="A622" s="18"/>
       <c r="B622" s="21"/>
       <c r="C622" s="21"/>
       <c r="D622" s="21"/>
@@ -8010,7 +8231,7 @@
       <c r="H624" s="22"/>
     </row>
     <row r="625" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="18"/>
+      <c r="A625" s="23"/>
       <c r="B625" s="21"/>
       <c r="C625" s="21"/>
       <c r="D625" s="21"/>
@@ -8019,8 +8240,8 @@
       <c r="G625" s="22"/>
       <c r="H625" s="22"/>
     </row>
-    <row r="626" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="23"/>
+    <row r="626" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="18"/>
       <c r="B626" s="21"/>
       <c r="C626" s="21"/>
       <c r="D626" s="21"/>
@@ -8029,8 +8250,8 @@
       <c r="G626" s="22"/>
       <c r="H626" s="22"/>
     </row>
-    <row r="627" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="18"/>
+    <row r="627" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="23"/>
       <c r="B627" s="21"/>
       <c r="C627" s="21"/>
       <c r="D627" s="21"/>
@@ -8050,7 +8271,7 @@
       <c r="H628" s="22"/>
     </row>
     <row r="629" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="23"/>
+      <c r="A629" s="18"/>
       <c r="B629" s="21"/>
       <c r="C629" s="21"/>
       <c r="D629" s="21"/>
@@ -8061,43 +8282,43 @@
     </row>
     <row r="630" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="23"/>
-      <c r="B630" s="58"/>
-      <c r="C630" s="58"/>
-      <c r="D630" s="58"/>
-      <c r="E630" s="58"/>
-      <c r="F630" s="58"/>
+      <c r="B630" s="21"/>
+      <c r="C630" s="21"/>
+      <c r="D630" s="21"/>
+      <c r="E630" s="21"/>
+      <c r="F630" s="21"/>
       <c r="G630" s="22"/>
       <c r="H630" s="22"/>
     </row>
     <row r="631" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="26"/>
-      <c r="B631" s="26"/>
-      <c r="C631" s="26"/>
-      <c r="D631" s="26"/>
-      <c r="E631" s="26"/>
-      <c r="F631" s="26"/>
-      <c r="G631" s="26"/>
-      <c r="H631" s="26"/>
+      <c r="A631" s="23"/>
+      <c r="B631" s="48"/>
+      <c r="C631" s="48"/>
+      <c r="D631" s="48"/>
+      <c r="E631" s="48"/>
+      <c r="F631" s="48"/>
+      <c r="G631" s="22"/>
+      <c r="H631" s="22"/>
     </row>
     <row r="632" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="18"/>
-      <c r="B632" s="19"/>
-      <c r="C632" s="19"/>
-      <c r="D632" s="19"/>
-      <c r="E632" s="19"/>
-      <c r="F632" s="19"/>
-      <c r="G632" s="20"/>
-      <c r="H632" s="20"/>
+      <c r="A632" s="26"/>
+      <c r="B632" s="26"/>
+      <c r="C632" s="26"/>
+      <c r="D632" s="26"/>
+      <c r="E632" s="26"/>
+      <c r="F632" s="26"/>
+      <c r="G632" s="26"/>
+      <c r="H632" s="26"/>
     </row>
     <row r="633" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="18"/>
-      <c r="B633" s="21"/>
-      <c r="C633" s="21"/>
-      <c r="D633" s="21"/>
-      <c r="E633" s="21"/>
-      <c r="F633" s="21"/>
-      <c r="G633" s="22"/>
-      <c r="H633" s="22"/>
+      <c r="B633" s="19"/>
+      <c r="C633" s="19"/>
+      <c r="D633" s="19"/>
+      <c r="E633" s="19"/>
+      <c r="F633" s="19"/>
+      <c r="G633" s="20"/>
+      <c r="H633" s="20"/>
     </row>
     <row r="634" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="18"/>
@@ -8110,7 +8331,7 @@
       <c r="H634" s="22"/>
     </row>
     <row r="635" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="23"/>
+      <c r="A635" s="18"/>
       <c r="B635" s="21"/>
       <c r="C635" s="21"/>
       <c r="D635" s="21"/>
@@ -8140,7 +8361,7 @@
       <c r="H637" s="22"/>
     </row>
     <row r="638" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="18"/>
+      <c r="A638" s="23"/>
       <c r="B638" s="21"/>
       <c r="C638" s="21"/>
       <c r="D638" s="21"/>
@@ -8149,8 +8370,8 @@
       <c r="G638" s="22"/>
       <c r="H638" s="22"/>
     </row>
-    <row r="639" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="23"/>
+    <row r="639" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="18"/>
       <c r="B639" s="21"/>
       <c r="C639" s="21"/>
       <c r="D639" s="21"/>
@@ -8159,8 +8380,8 @@
       <c r="G639" s="22"/>
       <c r="H639" s="22"/>
     </row>
-    <row r="640" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="18"/>
+    <row r="640" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="23"/>
       <c r="B640" s="21"/>
       <c r="C640" s="21"/>
       <c r="D640" s="21"/>
@@ -8180,7 +8401,7 @@
       <c r="H641" s="22"/>
     </row>
     <row r="642" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="23"/>
+      <c r="A642" s="18"/>
       <c r="B642" s="21"/>
       <c r="C642" s="21"/>
       <c r="D642" s="21"/>
@@ -8191,43 +8412,43 @@
     </row>
     <row r="643" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="23"/>
-      <c r="B643" s="58"/>
-      <c r="C643" s="58"/>
-      <c r="D643" s="58"/>
-      <c r="E643" s="28"/>
-      <c r="F643" s="28"/>
+      <c r="B643" s="21"/>
+      <c r="C643" s="21"/>
+      <c r="D643" s="21"/>
+      <c r="E643" s="21"/>
+      <c r="F643" s="21"/>
       <c r="G643" s="22"/>
       <c r="H643" s="22"/>
     </row>
     <row r="644" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="26"/>
-      <c r="B644" s="26"/>
-      <c r="C644" s="26"/>
-      <c r="D644" s="26"/>
-      <c r="E644" s="26"/>
-      <c r="F644" s="26"/>
-      <c r="G644" s="26"/>
-      <c r="H644" s="26"/>
+      <c r="A644" s="23"/>
+      <c r="B644" s="48"/>
+      <c r="C644" s="48"/>
+      <c r="D644" s="48"/>
+      <c r="E644" s="28"/>
+      <c r="F644" s="28"/>
+      <c r="G644" s="22"/>
+      <c r="H644" s="22"/>
     </row>
     <row r="645" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="18"/>
-      <c r="B645" s="19"/>
-      <c r="C645" s="19"/>
-      <c r="D645" s="19"/>
-      <c r="E645" s="19"/>
-      <c r="F645" s="19"/>
-      <c r="G645" s="20"/>
-      <c r="H645" s="20"/>
+      <c r="A645" s="26"/>
+      <c r="B645" s="26"/>
+      <c r="C645" s="26"/>
+      <c r="D645" s="26"/>
+      <c r="E645" s="26"/>
+      <c r="F645" s="26"/>
+      <c r="G645" s="26"/>
+      <c r="H645" s="26"/>
     </row>
     <row r="646" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="18"/>
-      <c r="B646" s="21"/>
-      <c r="C646" s="21"/>
-      <c r="D646" s="21"/>
-      <c r="E646" s="21"/>
-      <c r="F646" s="21"/>
-      <c r="G646" s="22"/>
-      <c r="H646" s="22"/>
+      <c r="B646" s="19"/>
+      <c r="C646" s="19"/>
+      <c r="D646" s="19"/>
+      <c r="E646" s="19"/>
+      <c r="F646" s="19"/>
+      <c r="G646" s="20"/>
+      <c r="H646" s="20"/>
     </row>
     <row r="647" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="18"/>
@@ -8240,7 +8461,7 @@
       <c r="H647" s="22"/>
     </row>
     <row r="648" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="23"/>
+      <c r="A648" s="18"/>
       <c r="B648" s="21"/>
       <c r="C648" s="21"/>
       <c r="D648" s="21"/>
@@ -8270,7 +8491,7 @@
       <c r="H650" s="22"/>
     </row>
     <row r="651" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="18"/>
+      <c r="A651" s="23"/>
       <c r="B651" s="21"/>
       <c r="C651" s="21"/>
       <c r="D651" s="21"/>
@@ -8279,8 +8500,8 @@
       <c r="G651" s="22"/>
       <c r="H651" s="22"/>
     </row>
-    <row r="652" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="23"/>
+    <row r="652" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="18"/>
       <c r="B652" s="21"/>
       <c r="C652" s="21"/>
       <c r="D652" s="21"/>
@@ -8289,8 +8510,8 @@
       <c r="G652" s="22"/>
       <c r="H652" s="22"/>
     </row>
-    <row r="653" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="18"/>
+    <row r="653" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="23"/>
       <c r="B653" s="21"/>
       <c r="C653" s="21"/>
       <c r="D653" s="21"/>
@@ -8310,7 +8531,7 @@
       <c r="H654" s="22"/>
     </row>
     <row r="655" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="23"/>
+      <c r="A655" s="18"/>
       <c r="B655" s="21"/>
       <c r="C655" s="21"/>
       <c r="D655" s="21"/>
@@ -8321,43 +8542,43 @@
     </row>
     <row r="656" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="23"/>
-      <c r="B656" s="58"/>
-      <c r="C656" s="58"/>
-      <c r="D656" s="58"/>
-      <c r="E656" s="58"/>
-      <c r="F656" s="58"/>
+      <c r="B656" s="21"/>
+      <c r="C656" s="21"/>
+      <c r="D656" s="21"/>
+      <c r="E656" s="21"/>
+      <c r="F656" s="21"/>
       <c r="G656" s="22"/>
       <c r="H656" s="22"/>
     </row>
     <row r="657" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="26"/>
-      <c r="B657" s="26"/>
-      <c r="C657" s="26"/>
-      <c r="D657" s="26"/>
-      <c r="E657" s="26"/>
-      <c r="F657" s="26"/>
-      <c r="G657" s="26"/>
-      <c r="H657" s="26"/>
+      <c r="A657" s="23"/>
+      <c r="B657" s="48"/>
+      <c r="C657" s="48"/>
+      <c r="D657" s="48"/>
+      <c r="E657" s="48"/>
+      <c r="F657" s="48"/>
+      <c r="G657" s="22"/>
+      <c r="H657" s="22"/>
     </row>
     <row r="658" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="18"/>
-      <c r="B658" s="19"/>
-      <c r="C658" s="19"/>
-      <c r="D658" s="19"/>
-      <c r="E658" s="19"/>
-      <c r="F658" s="19"/>
-      <c r="G658" s="20"/>
-      <c r="H658" s="20"/>
+      <c r="A658" s="26"/>
+      <c r="B658" s="26"/>
+      <c r="C658" s="26"/>
+      <c r="D658" s="26"/>
+      <c r="E658" s="26"/>
+      <c r="F658" s="26"/>
+      <c r="G658" s="26"/>
+      <c r="H658" s="26"/>
     </row>
     <row r="659" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="18"/>
-      <c r="B659" s="21"/>
-      <c r="C659" s="21"/>
-      <c r="D659" s="21"/>
-      <c r="E659" s="21"/>
-      <c r="F659" s="21"/>
-      <c r="G659" s="22"/>
-      <c r="H659" s="22"/>
+      <c r="B659" s="19"/>
+      <c r="C659" s="19"/>
+      <c r="D659" s="19"/>
+      <c r="E659" s="19"/>
+      <c r="F659" s="19"/>
+      <c r="G659" s="20"/>
+      <c r="H659" s="20"/>
     </row>
     <row r="660" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="18"/>
@@ -8370,7 +8591,7 @@
       <c r="H660" s="22"/>
     </row>
     <row r="661" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="23"/>
+      <c r="A661" s="18"/>
       <c r="B661" s="21"/>
       <c r="C661" s="21"/>
       <c r="D661" s="21"/>
@@ -8400,7 +8621,7 @@
       <c r="H663" s="22"/>
     </row>
     <row r="664" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="18"/>
+      <c r="A664" s="23"/>
       <c r="B664" s="21"/>
       <c r="C664" s="21"/>
       <c r="D664" s="21"/>
@@ -8409,8 +8630,8 @@
       <c r="G664" s="22"/>
       <c r="H664" s="22"/>
     </row>
-    <row r="665" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="23"/>
+    <row r="665" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="18"/>
       <c r="B665" s="21"/>
       <c r="C665" s="21"/>
       <c r="D665" s="21"/>
@@ -8419,8 +8640,8 @@
       <c r="G665" s="22"/>
       <c r="H665" s="22"/>
     </row>
-    <row r="666" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="18"/>
+    <row r="666" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="23"/>
       <c r="B666" s="21"/>
       <c r="C666" s="21"/>
       <c r="D666" s="21"/>
@@ -8440,7 +8661,7 @@
       <c r="H667" s="22"/>
     </row>
     <row r="668" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="23"/>
+      <c r="A668" s="18"/>
       <c r="B668" s="21"/>
       <c r="C668" s="21"/>
       <c r="D668" s="21"/>
@@ -8451,43 +8672,43 @@
     </row>
     <row r="669" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="23"/>
-      <c r="B669" s="58"/>
-      <c r="C669" s="58"/>
-      <c r="D669" s="58"/>
-      <c r="E669" s="58"/>
-      <c r="F669" s="58"/>
+      <c r="B669" s="21"/>
+      <c r="C669" s="21"/>
+      <c r="D669" s="21"/>
+      <c r="E669" s="21"/>
+      <c r="F669" s="21"/>
       <c r="G669" s="22"/>
       <c r="H669" s="22"/>
     </row>
     <row r="670" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="26"/>
-      <c r="B670" s="26"/>
-      <c r="C670" s="26"/>
-      <c r="D670" s="26"/>
-      <c r="E670" s="26"/>
-      <c r="F670" s="26"/>
-      <c r="G670" s="26"/>
-      <c r="H670" s="26"/>
+      <c r="A670" s="23"/>
+      <c r="B670" s="48"/>
+      <c r="C670" s="48"/>
+      <c r="D670" s="48"/>
+      <c r="E670" s="48"/>
+      <c r="F670" s="48"/>
+      <c r="G670" s="22"/>
+      <c r="H670" s="22"/>
     </row>
     <row r="671" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="18"/>
-      <c r="B671" s="19"/>
-      <c r="C671" s="19"/>
-      <c r="D671" s="19"/>
-      <c r="E671" s="19"/>
-      <c r="F671" s="19"/>
-      <c r="G671" s="20"/>
-      <c r="H671" s="20"/>
+      <c r="A671" s="26"/>
+      <c r="B671" s="26"/>
+      <c r="C671" s="26"/>
+      <c r="D671" s="26"/>
+      <c r="E671" s="26"/>
+      <c r="F671" s="26"/>
+      <c r="G671" s="26"/>
+      <c r="H671" s="26"/>
     </row>
     <row r="672" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="18"/>
-      <c r="B672" s="21"/>
-      <c r="C672" s="21"/>
-      <c r="D672" s="21"/>
-      <c r="E672" s="21"/>
-      <c r="F672" s="21"/>
-      <c r="G672" s="22"/>
-      <c r="H672" s="22"/>
+      <c r="B672" s="19"/>
+      <c r="C672" s="19"/>
+      <c r="D672" s="19"/>
+      <c r="E672" s="19"/>
+      <c r="F672" s="19"/>
+      <c r="G672" s="20"/>
+      <c r="H672" s="20"/>
     </row>
     <row r="673" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="18"/>
@@ -8500,7 +8721,7 @@
       <c r="H673" s="22"/>
     </row>
     <row r="674" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="23"/>
+      <c r="A674" s="18"/>
       <c r="B674" s="21"/>
       <c r="C674" s="21"/>
       <c r="D674" s="21"/>
@@ -8530,7 +8751,7 @@
       <c r="H676" s="22"/>
     </row>
     <row r="677" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="18"/>
+      <c r="A677" s="23"/>
       <c r="B677" s="21"/>
       <c r="C677" s="21"/>
       <c r="D677" s="21"/>
@@ -8539,8 +8760,8 @@
       <c r="G677" s="22"/>
       <c r="H677" s="22"/>
     </row>
-    <row r="678" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="23"/>
+    <row r="678" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="18"/>
       <c r="B678" s="21"/>
       <c r="C678" s="21"/>
       <c r="D678" s="21"/>
@@ -8549,8 +8770,8 @@
       <c r="G678" s="22"/>
       <c r="H678" s="22"/>
     </row>
-    <row r="679" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="18"/>
+    <row r="679" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="23"/>
       <c r="B679" s="21"/>
       <c r="C679" s="21"/>
       <c r="D679" s="21"/>
@@ -8570,7 +8791,7 @@
       <c r="H680" s="22"/>
     </row>
     <row r="681" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="23"/>
+      <c r="A681" s="18"/>
       <c r="B681" s="21"/>
       <c r="C681" s="21"/>
       <c r="D681" s="21"/>
@@ -8581,43 +8802,43 @@
     </row>
     <row r="682" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="23"/>
-      <c r="B682" s="58"/>
-      <c r="C682" s="58"/>
-      <c r="D682" s="58"/>
-      <c r="E682" s="58"/>
-      <c r="F682" s="58"/>
+      <c r="B682" s="21"/>
+      <c r="C682" s="21"/>
+      <c r="D682" s="21"/>
+      <c r="E682" s="21"/>
+      <c r="F682" s="21"/>
       <c r="G682" s="22"/>
       <c r="H682" s="22"/>
     </row>
     <row r="683" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="26"/>
-      <c r="B683" s="26"/>
-      <c r="C683" s="26"/>
-      <c r="D683" s="26"/>
-      <c r="E683" s="26"/>
-      <c r="F683" s="26"/>
-      <c r="G683" s="26"/>
-      <c r="H683" s="26"/>
+      <c r="A683" s="23"/>
+      <c r="B683" s="48"/>
+      <c r="C683" s="48"/>
+      <c r="D683" s="48"/>
+      <c r="E683" s="48"/>
+      <c r="F683" s="48"/>
+      <c r="G683" s="22"/>
+      <c r="H683" s="22"/>
     </row>
     <row r="684" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="18"/>
-      <c r="B684" s="19"/>
-      <c r="C684" s="19"/>
-      <c r="D684" s="19"/>
-      <c r="E684" s="19"/>
-      <c r="F684" s="19"/>
-      <c r="G684" s="20"/>
-      <c r="H684" s="20"/>
+      <c r="A684" s="26"/>
+      <c r="B684" s="26"/>
+      <c r="C684" s="26"/>
+      <c r="D684" s="26"/>
+      <c r="E684" s="26"/>
+      <c r="F684" s="26"/>
+      <c r="G684" s="26"/>
+      <c r="H684" s="26"/>
     </row>
     <row r="685" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="18"/>
-      <c r="B685" s="21"/>
-      <c r="C685" s="21"/>
-      <c r="D685" s="21"/>
-      <c r="E685" s="21"/>
-      <c r="F685" s="21"/>
-      <c r="G685" s="22"/>
-      <c r="H685" s="22"/>
+      <c r="B685" s="19"/>
+      <c r="C685" s="19"/>
+      <c r="D685" s="19"/>
+      <c r="E685" s="19"/>
+      <c r="F685" s="19"/>
+      <c r="G685" s="20"/>
+      <c r="H685" s="20"/>
     </row>
     <row r="686" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="18"/>
@@ -8630,7 +8851,7 @@
       <c r="H686" s="22"/>
     </row>
     <row r="687" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="23"/>
+      <c r="A687" s="18"/>
       <c r="B687" s="21"/>
       <c r="C687" s="21"/>
       <c r="D687" s="21"/>
@@ -8660,7 +8881,7 @@
       <c r="H689" s="22"/>
     </row>
     <row r="690" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A690" s="18"/>
+      <c r="A690" s="23"/>
       <c r="B690" s="21"/>
       <c r="C690" s="21"/>
       <c r="D690" s="21"/>
@@ -8669,8 +8890,8 @@
       <c r="G690" s="22"/>
       <c r="H690" s="22"/>
     </row>
-    <row r="691" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="23"/>
+    <row r="691" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="18"/>
       <c r="B691" s="21"/>
       <c r="C691" s="21"/>
       <c r="D691" s="21"/>
@@ -8679,8 +8900,8 @@
       <c r="G691" s="22"/>
       <c r="H691" s="22"/>
     </row>
-    <row r="692" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A692" s="18"/>
+    <row r="692" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="23"/>
       <c r="B692" s="21"/>
       <c r="C692" s="21"/>
       <c r="D692" s="21"/>
@@ -8700,7 +8921,7 @@
       <c r="H693" s="22"/>
     </row>
     <row r="694" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="23"/>
+      <c r="A694" s="18"/>
       <c r="B694" s="21"/>
       <c r="C694" s="21"/>
       <c r="D694" s="21"/>
@@ -8711,43 +8932,43 @@
     </row>
     <row r="695" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="23"/>
-      <c r="B695" s="25"/>
-      <c r="C695" s="28"/>
-      <c r="D695" s="28"/>
-      <c r="E695" s="58"/>
-      <c r="F695" s="58"/>
+      <c r="B695" s="21"/>
+      <c r="C695" s="21"/>
+      <c r="D695" s="21"/>
+      <c r="E695" s="21"/>
+      <c r="F695" s="21"/>
       <c r="G695" s="22"/>
       <c r="H695" s="22"/>
     </row>
     <row r="696" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A696" s="26"/>
-      <c r="B696" s="26"/>
-      <c r="C696" s="26"/>
-      <c r="D696" s="26"/>
-      <c r="E696" s="26"/>
-      <c r="F696" s="26"/>
-      <c r="G696" s="26"/>
-      <c r="H696" s="26"/>
+      <c r="A696" s="23"/>
+      <c r="B696" s="25"/>
+      <c r="C696" s="28"/>
+      <c r="D696" s="28"/>
+      <c r="E696" s="48"/>
+      <c r="F696" s="48"/>
+      <c r="G696" s="22"/>
+      <c r="H696" s="22"/>
     </row>
     <row r="697" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="18"/>
-      <c r="B697" s="19"/>
-      <c r="C697" s="19"/>
-      <c r="D697" s="19"/>
-      <c r="E697" s="19"/>
-      <c r="F697" s="19"/>
-      <c r="G697" s="20"/>
-      <c r="H697" s="20"/>
+      <c r="A697" s="26"/>
+      <c r="B697" s="26"/>
+      <c r="C697" s="26"/>
+      <c r="D697" s="26"/>
+      <c r="E697" s="26"/>
+      <c r="F697" s="26"/>
+      <c r="G697" s="26"/>
+      <c r="H697" s="26"/>
     </row>
     <row r="698" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="18"/>
-      <c r="B698" s="21"/>
-      <c r="C698" s="21"/>
-      <c r="D698" s="21"/>
-      <c r="E698" s="21"/>
-      <c r="F698" s="21"/>
-      <c r="G698" s="22"/>
-      <c r="H698" s="22"/>
+      <c r="B698" s="19"/>
+      <c r="C698" s="19"/>
+      <c r="D698" s="19"/>
+      <c r="E698" s="19"/>
+      <c r="F698" s="19"/>
+      <c r="G698" s="20"/>
+      <c r="H698" s="20"/>
     </row>
     <row r="699" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="18"/>
@@ -8760,7 +8981,7 @@
       <c r="H699" s="22"/>
     </row>
     <row r="700" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="23"/>
+      <c r="A700" s="18"/>
       <c r="B700" s="21"/>
       <c r="C700" s="21"/>
       <c r="D700" s="21"/>
@@ -8790,7 +9011,7 @@
       <c r="H702" s="22"/>
     </row>
     <row r="703" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="18"/>
+      <c r="A703" s="23"/>
       <c r="B703" s="21"/>
       <c r="C703" s="21"/>
       <c r="D703" s="21"/>
@@ -8799,8 +9020,8 @@
       <c r="G703" s="22"/>
       <c r="H703" s="22"/>
     </row>
-    <row r="704" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A704" s="23"/>
+    <row r="704" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="18"/>
       <c r="B704" s="21"/>
       <c r="C704" s="21"/>
       <c r="D704" s="21"/>
@@ -8809,8 +9030,8 @@
       <c r="G704" s="22"/>
       <c r="H704" s="22"/>
     </row>
-    <row r="705" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A705" s="18"/>
+    <row r="705" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="23"/>
       <c r="B705" s="21"/>
       <c r="C705" s="21"/>
       <c r="D705" s="21"/>
@@ -8830,7 +9051,7 @@
       <c r="H706" s="22"/>
     </row>
     <row r="707" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="23"/>
+      <c r="A707" s="18"/>
       <c r="B707" s="21"/>
       <c r="C707" s="21"/>
       <c r="D707" s="21"/>
@@ -8841,143 +9062,153 @@
     </row>
     <row r="708" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="23"/>
-      <c r="B708" s="58"/>
-      <c r="C708" s="58"/>
-      <c r="D708" s="28"/>
-      <c r="E708" s="58"/>
-      <c r="F708" s="58"/>
+      <c r="B708" s="21"/>
+      <c r="C708" s="21"/>
+      <c r="D708" s="21"/>
+      <c r="E708" s="21"/>
+      <c r="F708" s="21"/>
       <c r="G708" s="22"/>
       <c r="H708" s="22"/>
     </row>
     <row r="709" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="26"/>
-      <c r="B709" s="26"/>
-      <c r="C709" s="26"/>
-      <c r="D709" s="26"/>
-      <c r="E709" s="26"/>
-      <c r="F709" s="26"/>
-      <c r="G709" s="26"/>
-      <c r="H709" s="26"/>
-    </row>
-    <row r="717" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A709" s="23"/>
+      <c r="B709" s="48"/>
+      <c r="C709" s="48"/>
+      <c r="D709" s="28"/>
+      <c r="E709" s="48"/>
+      <c r="F709" s="48"/>
+      <c r="G709" s="22"/>
+      <c r="H709" s="22"/>
+    </row>
+    <row r="710" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="26"/>
+      <c r="B710" s="26"/>
+      <c r="C710" s="26"/>
+      <c r="D710" s="26"/>
+      <c r="E710" s="26"/>
+      <c r="F710" s="26"/>
+      <c r="G710" s="26"/>
+      <c r="H710" s="26"/>
+    </row>
+    <row r="718" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="228">
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="D246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="C488:F488"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B709:C709"/>
+    <mergeCell ref="E709:F709"/>
+    <mergeCell ref="E696:F696"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B644:D644"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B131:F131"/>
     <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="B162:E162"/>
     <mergeCell ref="B179:F179"/>
-    <mergeCell ref="C297:F297"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C295:F295"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="C294:F294"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B384:F384"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:D6"/>
@@ -8987,113 +9218,113 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
     <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B708:C708"/>
-    <mergeCell ref="E708:F708"/>
-    <mergeCell ref="E695:F695"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B643:D643"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="C487:F487"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="D245:F245"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C296:F296"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="C295:F295"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B261:D261"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B68:F68"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -9103,18 +9334,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9289,18 +9520,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80FE525-8B83-4691-86E0-0CA5EFF1F83B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1294CE1-7D2C-4304-B992-670D67B17C6E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1294CE1-7D2C-4304-B992-670D67B17C6E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80FE525-8B83-4691-86E0-0CA5EFF1F83B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exampleSchedule.xlsx
+++ b/exampleSchedule.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <fileSharing readOnlyRecommended="1"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.hoopes\Documents\Local Backups\ScheduleTrak\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D6668C-DAF4-4123-BFA3-1BBE5D84AF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9D6A65-6345-4442-BF0D-F7DE948DC911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" tabRatio="614" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,10 +900,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,16 +944,13 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,6 +1010,9 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1000,6 +1025,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,39 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1535,14 +1530,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1624,13 +1619,13 @@
       <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
@@ -1638,15 +1633,15 @@
       <c r="A6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="56" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
@@ -1674,15 +1669,15 @@
       <c r="A8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
     </row>
@@ -1764,13 +1759,13 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
@@ -1778,15 +1773,15 @@
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="56" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="57"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
@@ -1794,15 +1789,15 @@
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
@@ -1810,15 +1805,15 @@
       <c r="A15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="72" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
     </row>
@@ -1900,11 +1895,11 @@
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="41" t="s">
         <v>35</v>
       </c>
@@ -1918,11 +1913,11 @@
       <c r="A20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="39" t="s">
         <v>35</v>
       </c>
@@ -1952,14 +1947,14 @@
       <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="75" t="s">
+      <c r="C22" s="74"/>
+      <c r="D22" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="76"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="46" t="s">
         <v>34</v>
       </c>
@@ -2047,10 +2042,10 @@
       <c r="B26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="71"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="41" t="s">
         <v>38</v>
       </c>
@@ -2067,10 +2062,10 @@
       <c r="B27" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="71"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="41" t="s">
         <v>38</v>
       </c>
@@ -2109,10 +2104,10 @@
       <c r="B29" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="76"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="41" t="s">
         <v>38</v>
       </c>
@@ -2200,13 +2195,13 @@
       <c r="A33" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -2214,13 +2209,13 @@
       <c r="A34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
@@ -2237,10 +2232,10 @@
       <c r="D35" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="51"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
@@ -2248,13 +2243,13 @@
       <c r="A36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
     </row>
@@ -2336,15 +2331,15 @@
       <c r="A40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="85" t="s">
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
     </row>
@@ -2352,15 +2347,15 @@
       <c r="A41" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="77" t="s">
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="71"/>
+      <c r="F41" s="80"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
     </row>
@@ -2368,15 +2363,15 @@
       <c r="A42" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="77" t="s">
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="71"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
     </row>
@@ -2384,19 +2379,19 @@
       <c r="A43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="89" t="s">
+      <c r="D43" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="89" t="s">
+      <c r="E43" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="90" t="s">
+      <c r="F43" s="51" t="s">
         <v>37</v>
       </c>
       <c r="G43" s="13"/>
@@ -2406,13 +2401,13 @@
       <c r="A44" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
     </row>
@@ -2452,41 +2447,41 @@
     </row>
     <row r="47" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
     </row>
     <row r="48" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
     </row>
     <row r="49" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
     </row>
     <row r="50" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
     </row>
@@ -2502,11 +2497,11 @@
     </row>
     <row r="52" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
     </row>
@@ -2532,11 +2527,11 @@
     </row>
     <row r="55" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
     </row>
@@ -2582,11 +2577,11 @@
     </row>
     <row r="60" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
     </row>
@@ -2612,11 +2607,11 @@
     </row>
     <row r="63" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
     </row>
@@ -2633,20 +2628,20 @@
     <row r="65" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="21"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
     </row>
     <row r="66" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
     </row>
@@ -2662,11 +2657,11 @@
     </row>
     <row r="68" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
     </row>
@@ -2712,11 +2707,11 @@
     </row>
     <row r="73" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
     </row>
@@ -2742,11 +2737,11 @@
     </row>
     <row r="76" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
     </row>
@@ -2762,21 +2757,21 @@
     </row>
     <row r="78" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
     </row>
     <row r="79" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
     </row>
@@ -2792,11 +2787,11 @@
     </row>
     <row r="81" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
     </row>
@@ -2842,11 +2837,11 @@
     </row>
     <row r="86" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
     </row>
@@ -2872,19 +2867,19 @@
     </row>
     <row r="89" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
     </row>
     <row r="90" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
       <c r="G90" s="22"/>
@@ -2902,11 +2897,11 @@
     </row>
     <row r="92" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
     </row>
@@ -2922,11 +2917,11 @@
     </row>
     <row r="94" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
     </row>
@@ -2972,11 +2967,11 @@
     </row>
     <row r="99" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
     </row>
@@ -3002,11 +2997,11 @@
     </row>
     <row r="102" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
     </row>
@@ -3052,11 +3047,11 @@
     </row>
     <row r="107" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
       <c r="G107" s="22"/>
       <c r="H107" s="22"/>
     </row>
@@ -3102,11 +3097,11 @@
     </row>
     <row r="112" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55"/>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
     </row>
@@ -3132,11 +3127,11 @@
     </row>
     <row r="115" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="55"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
     </row>
@@ -3182,11 +3177,11 @@
     </row>
     <row r="120" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
       <c r="G120" s="22"/>
       <c r="H120" s="22"/>
     </row>
@@ -3232,11 +3227,11 @@
     </row>
     <row r="125" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55"/>
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
     </row>
@@ -3252,21 +3247,21 @@
     </row>
     <row r="127" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
-      <c r="B127" s="47"/>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="47"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
     </row>
     <row r="128" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18"/>
-      <c r="B128" s="47"/>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55"/>
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
     </row>
@@ -3292,11 +3287,11 @@
     </row>
     <row r="131" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18"/>
-      <c r="B131" s="47"/>
-      <c r="C131" s="47"/>
-      <c r="D131" s="47"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
     </row>
@@ -3312,11 +3307,11 @@
     </row>
     <row r="133" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
-      <c r="B133" s="48"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56"/>
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
     </row>
@@ -3362,11 +3357,11 @@
     </row>
     <row r="138" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
-      <c r="B138" s="47"/>
-      <c r="C138" s="47"/>
-      <c r="D138" s="47"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="47"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55"/>
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
     </row>
@@ -3382,21 +3377,21 @@
     </row>
     <row r="140" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
-      <c r="B140" s="47"/>
-      <c r="C140" s="47"/>
-      <c r="D140" s="47"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="47"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55"/>
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
     </row>
     <row r="141" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="18"/>
-      <c r="B141" s="47"/>
-      <c r="C141" s="47"/>
-      <c r="D141" s="47"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="47"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55"/>
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
     </row>
@@ -3412,51 +3407,51 @@
     </row>
     <row r="143" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="18"/>
-      <c r="B143" s="47"/>
-      <c r="C143" s="47"/>
-      <c r="D143" s="47"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="47"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="55"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="55"/>
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
     </row>
     <row r="144" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
-      <c r="B144" s="47"/>
-      <c r="C144" s="47"/>
-      <c r="D144" s="47"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="55"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
     </row>
     <row r="145" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
-      <c r="B145" s="47"/>
-      <c r="C145" s="47"/>
-      <c r="D145" s="47"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="47"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="55"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
     </row>
     <row r="146" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="18"/>
-      <c r="B146" s="47"/>
-      <c r="C146" s="47"/>
-      <c r="D146" s="47"/>
-      <c r="E146" s="47"/>
-      <c r="F146" s="47"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="55"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55"/>
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
     </row>
     <row r="147" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18"/>
-      <c r="B147" s="47"/>
-      <c r="C147" s="47"/>
-      <c r="D147" s="47"/>
-      <c r="E147" s="47"/>
-      <c r="F147" s="47"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="55"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55"/>
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
     </row>
@@ -3472,11 +3467,11 @@
     </row>
     <row r="149" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
-      <c r="B149" s="48"/>
-      <c r="C149" s="48"/>
-      <c r="D149" s="48"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="48"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
     </row>
@@ -3522,10 +3517,10 @@
     </row>
     <row r="154" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
-      <c r="B154" s="47"/>
-      <c r="C154" s="47"/>
-      <c r="D154" s="47"/>
-      <c r="E154" s="47"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="55"/>
+      <c r="D154" s="55"/>
+      <c r="E154" s="55"/>
       <c r="F154" s="21"/>
       <c r="G154" s="22"/>
       <c r="H154" s="22"/>
@@ -3552,10 +3547,10 @@
     </row>
     <row r="157" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="18"/>
-      <c r="B157" s="47"/>
-      <c r="C157" s="47"/>
-      <c r="D157" s="47"/>
-      <c r="E157" s="47"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="55"/>
+      <c r="E157" s="55"/>
       <c r="F157" s="21"/>
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
@@ -3572,60 +3567,60 @@
     </row>
     <row r="159" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="18"/>
-      <c r="B159" s="47"/>
-      <c r="C159" s="47"/>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="55"/>
+      <c r="D159" s="55"/>
+      <c r="E159" s="55"/>
       <c r="F159" s="21"/>
       <c r="G159" s="22"/>
       <c r="H159" s="22"/>
     </row>
     <row r="160" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="27"/>
-      <c r="B160" s="47"/>
-      <c r="C160" s="47"/>
-      <c r="D160" s="47"/>
-      <c r="E160" s="47"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="55"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="55"/>
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="18"/>
-      <c r="B161" s="47"/>
-      <c r="C161" s="47"/>
-      <c r="D161" s="47"/>
-      <c r="E161" s="47"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="55"/>
+      <c r="D161" s="55"/>
+      <c r="E161" s="55"/>
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
       <c r="H161" s="21"/>
     </row>
     <row r="162" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="18"/>
-      <c r="B162" s="47"/>
-      <c r="C162" s="47"/>
-      <c r="D162" s="47"/>
-      <c r="E162" s="47"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="55"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="55"/>
       <c r="F162" s="21"/>
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
     </row>
     <row r="163" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="27"/>
-      <c r="B163" s="47"/>
-      <c r="C163" s="47"/>
-      <c r="D163" s="47"/>
-      <c r="E163" s="47"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="55"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="55"/>
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
       <c r="H163" s="21"/>
     </row>
     <row r="164" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
-      <c r="B164" s="47"/>
-      <c r="C164" s="47"/>
-      <c r="D164" s="47"/>
-      <c r="E164" s="47"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="55"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="55"/>
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
       <c r="H164" s="21"/>
@@ -3642,10 +3637,10 @@
     </row>
     <row r="166" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
-      <c r="B166" s="48"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="48"/>
+      <c r="B166" s="56"/>
+      <c r="C166" s="56"/>
+      <c r="D166" s="56"/>
+      <c r="E166" s="56"/>
       <c r="F166" s="28"/>
       <c r="G166" s="22"/>
       <c r="H166" s="22"/>
@@ -3692,21 +3687,21 @@
     </row>
     <row r="171" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
-      <c r="B171" s="47"/>
-      <c r="C171" s="47"/>
-      <c r="D171" s="47"/>
-      <c r="E171" s="47"/>
-      <c r="F171" s="47"/>
+      <c r="B171" s="55"/>
+      <c r="C171" s="55"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="55"/>
+      <c r="F171" s="55"/>
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
     </row>
     <row r="172" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
-      <c r="B172" s="47"/>
-      <c r="C172" s="47"/>
-      <c r="D172" s="47"/>
-      <c r="E172" s="47"/>
-      <c r="F172" s="47"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="55"/>
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
     </row>
@@ -3722,11 +3717,11 @@
     </row>
     <row r="174" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="18"/>
-      <c r="B174" s="47"/>
-      <c r="C174" s="47"/>
-      <c r="D174" s="47"/>
-      <c r="E174" s="47"/>
-      <c r="F174" s="47"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="55"/>
+      <c r="D174" s="55"/>
+      <c r="E174" s="55"/>
+      <c r="F174" s="55"/>
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
     </row>
@@ -3742,61 +3737,61 @@
     </row>
     <row r="176" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="18"/>
-      <c r="B176" s="47"/>
-      <c r="C176" s="47"/>
-      <c r="D176" s="47"/>
-      <c r="E176" s="47"/>
-      <c r="F176" s="47"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="55"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="55"/>
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
     </row>
     <row r="177" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
-      <c r="B177" s="47"/>
-      <c r="C177" s="47"/>
-      <c r="D177" s="47"/>
-      <c r="E177" s="47"/>
-      <c r="F177" s="47"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="55"/>
+      <c r="F177" s="55"/>
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
     </row>
     <row r="178" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
-      <c r="B178" s="47"/>
-      <c r="C178" s="47"/>
-      <c r="D178" s="47"/>
-      <c r="E178" s="47"/>
-      <c r="F178" s="47"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="55"/>
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
     </row>
     <row r="179" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
-      <c r="B179" s="47"/>
-      <c r="C179" s="47"/>
-      <c r="D179" s="47"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="47"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="55"/>
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
     </row>
     <row r="180" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
-      <c r="B180" s="47"/>
-      <c r="C180" s="47"/>
-      <c r="D180" s="47"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="47"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="55"/>
       <c r="G180" s="22"/>
       <c r="H180" s="22"/>
     </row>
     <row r="181" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
-      <c r="B181" s="47"/>
-      <c r="C181" s="47"/>
-      <c r="D181" s="47"/>
-      <c r="E181" s="47"/>
-      <c r="F181" s="47"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
     </row>
@@ -3812,11 +3807,11 @@
     </row>
     <row r="183" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
-      <c r="B183" s="48"/>
-      <c r="C183" s="48"/>
-      <c r="D183" s="48"/>
-      <c r="E183" s="48"/>
-      <c r="F183" s="48"/>
+      <c r="B183" s="56"/>
+      <c r="C183" s="56"/>
+      <c r="D183" s="56"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="56"/>
       <c r="G183" s="22"/>
       <c r="H183" s="22"/>
     </row>
@@ -3862,11 +3857,11 @@
     </row>
     <row r="188" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
-      <c r="B188" s="47"/>
-      <c r="C188" s="47"/>
-      <c r="D188" s="47"/>
-      <c r="E188" s="47"/>
-      <c r="F188" s="47"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="55"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="55"/>
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
     </row>
@@ -3882,21 +3877,21 @@
     </row>
     <row r="190" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
-      <c r="B190" s="47"/>
-      <c r="C190" s="47"/>
-      <c r="D190" s="47"/>
-      <c r="E190" s="47"/>
-      <c r="F190" s="47"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="55"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="55"/>
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
     </row>
     <row r="191" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="18"/>
-      <c r="B191" s="47"/>
-      <c r="C191" s="47"/>
-      <c r="D191" s="47"/>
-      <c r="E191" s="47"/>
-      <c r="F191" s="47"/>
+      <c r="B191" s="55"/>
+      <c r="C191" s="55"/>
+      <c r="D191" s="55"/>
+      <c r="E191" s="55"/>
+      <c r="F191" s="55"/>
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
     </row>
@@ -3912,61 +3907,61 @@
     </row>
     <row r="193" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
-      <c r="B193" s="47"/>
-      <c r="C193" s="47"/>
-      <c r="D193" s="47"/>
-      <c r="E193" s="47"/>
-      <c r="F193" s="47"/>
+      <c r="B193" s="55"/>
+      <c r="C193" s="55"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="55"/>
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
     </row>
     <row r="194" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
-      <c r="B194" s="47"/>
-      <c r="C194" s="47"/>
-      <c r="D194" s="47"/>
-      <c r="E194" s="47"/>
-      <c r="F194" s="47"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="55"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
     </row>
     <row r="195" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="18"/>
-      <c r="B195" s="47"/>
-      <c r="C195" s="47"/>
-      <c r="D195" s="47"/>
-      <c r="E195" s="47"/>
-      <c r="F195" s="47"/>
+      <c r="B195" s="55"/>
+      <c r="C195" s="55"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="55"/>
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
     </row>
     <row r="196" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="18"/>
-      <c r="B196" s="47"/>
-      <c r="C196" s="47"/>
-      <c r="D196" s="47"/>
-      <c r="E196" s="47"/>
-      <c r="F196" s="47"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="55"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="55"/>
       <c r="G196" s="22"/>
       <c r="H196" s="22"/>
     </row>
     <row r="197" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="18"/>
-      <c r="B197" s="47"/>
-      <c r="C197" s="47"/>
-      <c r="D197" s="47"/>
-      <c r="E197" s="47"/>
-      <c r="F197" s="47"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="55"/>
+      <c r="D197" s="55"/>
+      <c r="E197" s="55"/>
+      <c r="F197" s="55"/>
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
     </row>
     <row r="198" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="18"/>
-      <c r="B198" s="47"/>
-      <c r="C198" s="47"/>
-      <c r="D198" s="47"/>
-      <c r="E198" s="47"/>
-      <c r="F198" s="47"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="55"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
     </row>
@@ -3982,11 +3977,11 @@
     </row>
     <row r="200" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
-      <c r="B200" s="48"/>
-      <c r="C200" s="48"/>
-      <c r="D200" s="48"/>
-      <c r="E200" s="48"/>
-      <c r="F200" s="48"/>
+      <c r="B200" s="56"/>
+      <c r="C200" s="56"/>
+      <c r="D200" s="56"/>
+      <c r="E200" s="56"/>
+      <c r="F200" s="56"/>
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
     </row>
@@ -4032,11 +4027,11 @@
     </row>
     <row r="205" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
-      <c r="B205" s="47"/>
-      <c r="C205" s="47"/>
-      <c r="D205" s="47"/>
-      <c r="E205" s="47"/>
-      <c r="F205" s="47"/>
+      <c r="B205" s="55"/>
+      <c r="C205" s="55"/>
+      <c r="D205" s="55"/>
+      <c r="E205" s="55"/>
+      <c r="F205" s="55"/>
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
     </row>
@@ -4052,21 +4047,21 @@
     </row>
     <row r="207" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
-      <c r="B207" s="47"/>
-      <c r="C207" s="47"/>
-      <c r="D207" s="47"/>
-      <c r="E207" s="47"/>
-      <c r="F207" s="47"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="55"/>
+      <c r="D207" s="55"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="55"/>
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
     </row>
     <row r="208" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="18"/>
-      <c r="B208" s="47"/>
-      <c r="C208" s="47"/>
-      <c r="D208" s="47"/>
-      <c r="E208" s="47"/>
-      <c r="F208" s="47"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="55"/>
+      <c r="D208" s="55"/>
+      <c r="E208" s="55"/>
+      <c r="F208" s="55"/>
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
     </row>
@@ -4082,31 +4077,31 @@
     </row>
     <row r="210" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="18"/>
-      <c r="B210" s="47"/>
-      <c r="C210" s="47"/>
-      <c r="D210" s="47"/>
-      <c r="E210" s="47"/>
-      <c r="F210" s="47"/>
+      <c r="B210" s="55"/>
+      <c r="C210" s="55"/>
+      <c r="D210" s="55"/>
+      <c r="E210" s="55"/>
+      <c r="F210" s="55"/>
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
     </row>
     <row r="211" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="18"/>
-      <c r="B211" s="47"/>
-      <c r="C211" s="47"/>
-      <c r="D211" s="47"/>
-      <c r="E211" s="47"/>
-      <c r="F211" s="47"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="55"/>
+      <c r="D211" s="55"/>
+      <c r="E211" s="55"/>
+      <c r="F211" s="55"/>
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
     </row>
     <row r="212" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="18"/>
-      <c r="B212" s="47"/>
-      <c r="C212" s="47"/>
-      <c r="D212" s="47"/>
-      <c r="E212" s="47"/>
-      <c r="F212" s="47"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="55"/>
+      <c r="D212" s="55"/>
+      <c r="E212" s="55"/>
+      <c r="F212" s="55"/>
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
     </row>
@@ -4122,11 +4117,11 @@
     </row>
     <row r="214" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
-      <c r="B214" s="48"/>
-      <c r="C214" s="48"/>
-      <c r="D214" s="48"/>
-      <c r="E214" s="48"/>
-      <c r="F214" s="48"/>
+      <c r="B214" s="56"/>
+      <c r="C214" s="56"/>
+      <c r="D214" s="56"/>
+      <c r="E214" s="56"/>
+      <c r="F214" s="56"/>
       <c r="G214" s="22"/>
       <c r="H214" s="22"/>
     </row>
@@ -4172,11 +4167,11 @@
     </row>
     <row r="219" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
-      <c r="B219" s="47"/>
-      <c r="C219" s="47"/>
-      <c r="D219" s="47"/>
-      <c r="E219" s="47"/>
-      <c r="F219" s="47"/>
+      <c r="B219" s="55"/>
+      <c r="C219" s="55"/>
+      <c r="D219" s="55"/>
+      <c r="E219" s="55"/>
+      <c r="F219" s="55"/>
       <c r="G219" s="22"/>
       <c r="H219" s="22"/>
     </row>
@@ -4192,21 +4187,21 @@
     </row>
     <row r="221" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
-      <c r="B221" s="47"/>
-      <c r="C221" s="47"/>
-      <c r="D221" s="47"/>
-      <c r="E221" s="47"/>
-      <c r="F221" s="47"/>
+      <c r="B221" s="55"/>
+      <c r="C221" s="55"/>
+      <c r="D221" s="55"/>
+      <c r="E221" s="55"/>
+      <c r="F221" s="55"/>
       <c r="G221" s="22"/>
       <c r="H221" s="22"/>
     </row>
     <row r="222" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="18"/>
-      <c r="B222" s="47"/>
-      <c r="C222" s="47"/>
-      <c r="D222" s="47"/>
-      <c r="E222" s="47"/>
-      <c r="F222" s="47"/>
+      <c r="B222" s="55"/>
+      <c r="C222" s="55"/>
+      <c r="D222" s="55"/>
+      <c r="E222" s="55"/>
+      <c r="F222" s="55"/>
       <c r="G222" s="22"/>
       <c r="H222" s="22"/>
     </row>
@@ -4222,31 +4217,31 @@
     </row>
     <row r="224" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="18"/>
-      <c r="B224" s="47"/>
-      <c r="C224" s="47"/>
-      <c r="D224" s="47"/>
-      <c r="E224" s="47"/>
-      <c r="F224" s="47"/>
+      <c r="B224" s="55"/>
+      <c r="C224" s="55"/>
+      <c r="D224" s="55"/>
+      <c r="E224" s="55"/>
+      <c r="F224" s="55"/>
       <c r="G224" s="22"/>
       <c r="H224" s="22"/>
     </row>
     <row r="225" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="18"/>
-      <c r="B225" s="47"/>
-      <c r="C225" s="47"/>
-      <c r="D225" s="47"/>
-      <c r="E225" s="47"/>
-      <c r="F225" s="47"/>
+      <c r="B225" s="55"/>
+      <c r="C225" s="55"/>
+      <c r="D225" s="55"/>
+      <c r="E225" s="55"/>
+      <c r="F225" s="55"/>
       <c r="G225" s="22"/>
       <c r="H225" s="22"/>
     </row>
     <row r="226" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="18"/>
-      <c r="B226" s="47"/>
-      <c r="C226" s="47"/>
-      <c r="D226" s="47"/>
-      <c r="E226" s="47"/>
-      <c r="F226" s="47"/>
+      <c r="B226" s="55"/>
+      <c r="C226" s="55"/>
+      <c r="D226" s="55"/>
+      <c r="E226" s="55"/>
+      <c r="F226" s="55"/>
       <c r="G226" s="22"/>
       <c r="H226" s="22"/>
     </row>
@@ -4262,11 +4257,11 @@
     </row>
     <row r="228" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
-      <c r="B228" s="48"/>
-      <c r="C228" s="48"/>
-      <c r="D228" s="48"/>
-      <c r="E228" s="48"/>
-      <c r="F228" s="48"/>
+      <c r="B228" s="56"/>
+      <c r="C228" s="56"/>
+      <c r="D228" s="56"/>
+      <c r="E228" s="56"/>
+      <c r="F228" s="56"/>
       <c r="G228" s="22"/>
       <c r="H228" s="22"/>
     </row>
@@ -4304,9 +4299,9 @@
       <c r="A232" s="18"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
-      <c r="D232" s="47"/>
-      <c r="E232" s="47"/>
-      <c r="F232" s="47"/>
+      <c r="D232" s="55"/>
+      <c r="E232" s="55"/>
+      <c r="F232" s="55"/>
       <c r="G232" s="22"/>
       <c r="H232" s="22"/>
     </row>
@@ -4332,21 +4327,21 @@
     </row>
     <row r="235" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
-      <c r="B235" s="47"/>
-      <c r="C235" s="47"/>
-      <c r="D235" s="47"/>
-      <c r="E235" s="47"/>
-      <c r="F235" s="47"/>
+      <c r="B235" s="55"/>
+      <c r="C235" s="55"/>
+      <c r="D235" s="55"/>
+      <c r="E235" s="55"/>
+      <c r="F235" s="55"/>
       <c r="G235" s="22"/>
       <c r="H235" s="22"/>
     </row>
     <row r="236" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="18"/>
-      <c r="B236" s="47"/>
-      <c r="C236" s="47"/>
-      <c r="D236" s="47"/>
-      <c r="E236" s="47"/>
-      <c r="F236" s="47"/>
+      <c r="B236" s="55"/>
+      <c r="C236" s="55"/>
+      <c r="D236" s="55"/>
+      <c r="E236" s="55"/>
+      <c r="F236" s="55"/>
       <c r="G236" s="22"/>
       <c r="H236" s="22"/>
     </row>
@@ -4362,31 +4357,31 @@
     </row>
     <row r="238" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="18"/>
-      <c r="B238" s="47"/>
-      <c r="C238" s="47"/>
-      <c r="D238" s="47"/>
-      <c r="E238" s="47"/>
-      <c r="F238" s="47"/>
+      <c r="B238" s="55"/>
+      <c r="C238" s="55"/>
+      <c r="D238" s="55"/>
+      <c r="E238" s="55"/>
+      <c r="F238" s="55"/>
       <c r="G238" s="22"/>
       <c r="H238" s="22"/>
     </row>
     <row r="239" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="18"/>
-      <c r="B239" s="47"/>
-      <c r="C239" s="47"/>
-      <c r="D239" s="47"/>
-      <c r="E239" s="47"/>
-      <c r="F239" s="47"/>
+      <c r="B239" s="55"/>
+      <c r="C239" s="55"/>
+      <c r="D239" s="55"/>
+      <c r="E239" s="55"/>
+      <c r="F239" s="55"/>
       <c r="G239" s="22"/>
       <c r="H239" s="22"/>
     </row>
     <row r="240" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="18"/>
-      <c r="B240" s="47"/>
-      <c r="C240" s="47"/>
-      <c r="D240" s="47"/>
-      <c r="E240" s="47"/>
-      <c r="F240" s="47"/>
+      <c r="B240" s="55"/>
+      <c r="C240" s="55"/>
+      <c r="D240" s="55"/>
+      <c r="E240" s="55"/>
+      <c r="F240" s="55"/>
       <c r="G240" s="22"/>
       <c r="H240" s="22"/>
     </row>
@@ -4402,11 +4397,11 @@
     </row>
     <row r="242" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
-      <c r="B242" s="48"/>
-      <c r="C242" s="48"/>
-      <c r="D242" s="48"/>
-      <c r="E242" s="48"/>
-      <c r="F242" s="48"/>
+      <c r="B242" s="56"/>
+      <c r="C242" s="56"/>
+      <c r="D242" s="56"/>
+      <c r="E242" s="56"/>
+      <c r="F242" s="56"/>
       <c r="G242" s="22"/>
       <c r="H242" s="22"/>
     </row>
@@ -4444,19 +4439,19 @@
       <c r="A246" s="18"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
-      <c r="D246" s="47"/>
-      <c r="E246" s="47"/>
-      <c r="F246" s="47"/>
+      <c r="D246" s="55"/>
+      <c r="E246" s="55"/>
+      <c r="F246" s="55"/>
       <c r="G246" s="22"/>
       <c r="H246" s="22"/>
     </row>
     <row r="247" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
-      <c r="B247" s="47"/>
-      <c r="C247" s="47"/>
-      <c r="D247" s="47"/>
-      <c r="E247" s="47"/>
-      <c r="F247" s="47"/>
+      <c r="B247" s="55"/>
+      <c r="C247" s="55"/>
+      <c r="D247" s="55"/>
+      <c r="E247" s="55"/>
+      <c r="F247" s="55"/>
       <c r="G247" s="22"/>
       <c r="H247" s="22"/>
     </row>
@@ -4472,21 +4467,21 @@
     </row>
     <row r="249" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
-      <c r="B249" s="47"/>
-      <c r="C249" s="47"/>
-      <c r="D249" s="47"/>
-      <c r="E249" s="47"/>
-      <c r="F249" s="47"/>
+      <c r="B249" s="55"/>
+      <c r="C249" s="55"/>
+      <c r="D249" s="55"/>
+      <c r="E249" s="55"/>
+      <c r="F249" s="55"/>
       <c r="G249" s="22"/>
       <c r="H249" s="22"/>
     </row>
     <row r="250" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="18"/>
-      <c r="B250" s="47"/>
-      <c r="C250" s="47"/>
-      <c r="D250" s="47"/>
-      <c r="E250" s="47"/>
-      <c r="F250" s="47"/>
+      <c r="B250" s="55"/>
+      <c r="C250" s="55"/>
+      <c r="D250" s="55"/>
+      <c r="E250" s="55"/>
+      <c r="F250" s="55"/>
       <c r="G250" s="22"/>
       <c r="H250" s="22"/>
     </row>
@@ -4502,31 +4497,31 @@
     </row>
     <row r="252" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="18"/>
-      <c r="B252" s="47"/>
-      <c r="C252" s="47"/>
-      <c r="D252" s="47"/>
-      <c r="E252" s="47"/>
-      <c r="F252" s="47"/>
+      <c r="B252" s="55"/>
+      <c r="C252" s="55"/>
+      <c r="D252" s="55"/>
+      <c r="E252" s="55"/>
+      <c r="F252" s="55"/>
       <c r="G252" s="22"/>
       <c r="H252" s="22"/>
     </row>
     <row r="253" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="18"/>
-      <c r="B253" s="47"/>
-      <c r="C253" s="47"/>
-      <c r="D253" s="47"/>
-      <c r="E253" s="47"/>
-      <c r="F253" s="47"/>
+      <c r="B253" s="55"/>
+      <c r="C253" s="55"/>
+      <c r="D253" s="55"/>
+      <c r="E253" s="55"/>
+      <c r="F253" s="55"/>
       <c r="G253" s="22"/>
       <c r="H253" s="22"/>
     </row>
     <row r="254" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="18"/>
-      <c r="B254" s="47"/>
-      <c r="C254" s="47"/>
-      <c r="D254" s="47"/>
-      <c r="E254" s="47"/>
-      <c r="F254" s="47"/>
+      <c r="B254" s="55"/>
+      <c r="C254" s="55"/>
+      <c r="D254" s="55"/>
+      <c r="E254" s="55"/>
+      <c r="F254" s="55"/>
       <c r="G254" s="22"/>
       <c r="H254" s="22"/>
     </row>
@@ -4542,11 +4537,11 @@
     </row>
     <row r="256" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
-      <c r="B256" s="48"/>
-      <c r="C256" s="48"/>
-      <c r="D256" s="48"/>
-      <c r="E256" s="48"/>
-      <c r="F256" s="48"/>
+      <c r="B256" s="56"/>
+      <c r="C256" s="56"/>
+      <c r="D256" s="56"/>
+      <c r="E256" s="56"/>
+      <c r="F256" s="56"/>
       <c r="G256" s="22"/>
       <c r="H256" s="22"/>
     </row>
@@ -4592,41 +4587,41 @@
     </row>
     <row r="261" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
-      <c r="B261" s="54"/>
-      <c r="C261" s="54"/>
-      <c r="D261" s="54"/>
-      <c r="E261" s="54"/>
-      <c r="F261" s="54"/>
+      <c r="B261" s="57"/>
+      <c r="C261" s="57"/>
+      <c r="D261" s="57"/>
+      <c r="E261" s="57"/>
+      <c r="F261" s="57"/>
       <c r="G261" s="22"/>
       <c r="H261" s="22"/>
     </row>
     <row r="262" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
-      <c r="B262" s="47"/>
-      <c r="C262" s="47"/>
-      <c r="D262" s="47"/>
-      <c r="E262" s="47"/>
-      <c r="F262" s="47"/>
+      <c r="B262" s="55"/>
+      <c r="C262" s="55"/>
+      <c r="D262" s="55"/>
+      <c r="E262" s="55"/>
+      <c r="F262" s="55"/>
       <c r="G262" s="22"/>
       <c r="H262" s="22"/>
     </row>
     <row r="263" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
-      <c r="B263" s="47"/>
-      <c r="C263" s="47"/>
-      <c r="D263" s="47"/>
-      <c r="E263" s="47"/>
-      <c r="F263" s="47"/>
+      <c r="B263" s="55"/>
+      <c r="C263" s="55"/>
+      <c r="D263" s="55"/>
+      <c r="E263" s="55"/>
+      <c r="F263" s="55"/>
       <c r="G263" s="22"/>
       <c r="H263" s="22"/>
     </row>
     <row r="264" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="18"/>
-      <c r="B264" s="47"/>
-      <c r="C264" s="47"/>
-      <c r="D264" s="47"/>
-      <c r="E264" s="47"/>
-      <c r="F264" s="47"/>
+      <c r="B264" s="55"/>
+      <c r="C264" s="55"/>
+      <c r="D264" s="55"/>
+      <c r="E264" s="55"/>
+      <c r="F264" s="55"/>
       <c r="G264" s="22"/>
       <c r="H264" s="22"/>
     </row>
@@ -4642,31 +4637,31 @@
     </row>
     <row r="266" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="18"/>
-      <c r="B266" s="47"/>
-      <c r="C266" s="47"/>
-      <c r="D266" s="47"/>
-      <c r="E266" s="47"/>
-      <c r="F266" s="47"/>
+      <c r="B266" s="55"/>
+      <c r="C266" s="55"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="55"/>
       <c r="G266" s="22"/>
       <c r="H266" s="22"/>
     </row>
     <row r="267" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="18"/>
-      <c r="B267" s="47"/>
-      <c r="C267" s="47"/>
-      <c r="D267" s="47"/>
-      <c r="E267" s="47"/>
-      <c r="F267" s="47"/>
+      <c r="B267" s="55"/>
+      <c r="C267" s="55"/>
+      <c r="D267" s="55"/>
+      <c r="E267" s="55"/>
+      <c r="F267" s="55"/>
       <c r="G267" s="22"/>
       <c r="H267" s="22"/>
     </row>
     <row r="268" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="21"/>
-      <c r="B268" s="47"/>
-      <c r="C268" s="47"/>
-      <c r="D268" s="47"/>
-      <c r="E268" s="47"/>
-      <c r="F268" s="47"/>
+      <c r="B268" s="55"/>
+      <c r="C268" s="55"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="55"/>
       <c r="G268" s="22"/>
       <c r="H268" s="22"/>
     </row>
@@ -4682,11 +4677,11 @@
     </row>
     <row r="270" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
-      <c r="B270" s="48"/>
-      <c r="C270" s="48"/>
-      <c r="D270" s="48"/>
-      <c r="E270" s="48"/>
-      <c r="F270" s="48"/>
+      <c r="B270" s="56"/>
+      <c r="C270" s="56"/>
+      <c r="D270" s="56"/>
+      <c r="E270" s="56"/>
+      <c r="F270" s="56"/>
       <c r="G270" s="22"/>
       <c r="H270" s="22"/>
     </row>
@@ -4742,31 +4737,31 @@
     </row>
     <row r="276" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
-      <c r="B276" s="47"/>
-      <c r="C276" s="47"/>
-      <c r="D276" s="47"/>
-      <c r="E276" s="47"/>
-      <c r="F276" s="47"/>
+      <c r="B276" s="55"/>
+      <c r="C276" s="55"/>
+      <c r="D276" s="55"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="55"/>
       <c r="G276" s="22"/>
       <c r="H276" s="22"/>
     </row>
     <row r="277" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
-      <c r="B277" s="47"/>
-      <c r="C277" s="47"/>
-      <c r="D277" s="47"/>
-      <c r="E277" s="47"/>
-      <c r="F277" s="47"/>
+      <c r="B277" s="55"/>
+      <c r="C277" s="55"/>
+      <c r="D277" s="55"/>
+      <c r="E277" s="55"/>
+      <c r="F277" s="55"/>
       <c r="G277" s="22"/>
       <c r="H277" s="22"/>
     </row>
     <row r="278" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="18"/>
-      <c r="B278" s="47"/>
-      <c r="C278" s="47"/>
-      <c r="D278" s="47"/>
-      <c r="E278" s="47"/>
-      <c r="F278" s="47"/>
+      <c r="B278" s="55"/>
+      <c r="C278" s="55"/>
+      <c r="D278" s="55"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="55"/>
       <c r="G278" s="22"/>
       <c r="H278" s="22"/>
     </row>
@@ -4782,31 +4777,31 @@
     </row>
     <row r="280" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="18"/>
-      <c r="B280" s="47"/>
-      <c r="C280" s="47"/>
-      <c r="D280" s="47"/>
-      <c r="E280" s="47"/>
-      <c r="F280" s="47"/>
+      <c r="B280" s="55"/>
+      <c r="C280" s="55"/>
+      <c r="D280" s="55"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="55"/>
       <c r="G280" s="22"/>
       <c r="H280" s="22"/>
     </row>
     <row r="281" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="18"/>
-      <c r="B281" s="47"/>
-      <c r="C281" s="47"/>
-      <c r="D281" s="47"/>
-      <c r="E281" s="47"/>
-      <c r="F281" s="47"/>
+      <c r="B281" s="55"/>
+      <c r="C281" s="55"/>
+      <c r="D281" s="55"/>
+      <c r="E281" s="55"/>
+      <c r="F281" s="55"/>
       <c r="G281" s="22"/>
       <c r="H281" s="22"/>
     </row>
     <row r="282" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="21"/>
-      <c r="B282" s="47"/>
-      <c r="C282" s="47"/>
-      <c r="D282" s="47"/>
-      <c r="E282" s="47"/>
-      <c r="F282" s="47"/>
+      <c r="B282" s="55"/>
+      <c r="C282" s="55"/>
+      <c r="D282" s="55"/>
+      <c r="E282" s="55"/>
+      <c r="F282" s="55"/>
       <c r="G282" s="22"/>
       <c r="H282" s="22"/>
     </row>
@@ -4822,11 +4817,11 @@
     </row>
     <row r="284" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
-      <c r="B284" s="48"/>
-      <c r="C284" s="48"/>
-      <c r="D284" s="48"/>
-      <c r="E284" s="48"/>
-      <c r="F284" s="48"/>
+      <c r="B284" s="56"/>
+      <c r="C284" s="56"/>
+      <c r="D284" s="56"/>
+      <c r="E284" s="56"/>
+      <c r="F284" s="56"/>
       <c r="G284" s="22"/>
       <c r="H284" s="22"/>
     </row>
@@ -4883,30 +4878,30 @@
     <row r="290" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="21"/>
-      <c r="C290" s="47"/>
-      <c r="D290" s="47"/>
-      <c r="E290" s="47"/>
-      <c r="F290" s="47"/>
+      <c r="C290" s="55"/>
+      <c r="D290" s="55"/>
+      <c r="E290" s="55"/>
+      <c r="F290" s="55"/>
       <c r="G290" s="22"/>
       <c r="H290" s="22"/>
     </row>
     <row r="291" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="21"/>
-      <c r="C291" s="47"/>
-      <c r="D291" s="47"/>
-      <c r="E291" s="47"/>
-      <c r="F291" s="47"/>
+      <c r="C291" s="55"/>
+      <c r="D291" s="55"/>
+      <c r="E291" s="55"/>
+      <c r="F291" s="55"/>
       <c r="G291" s="22"/>
       <c r="H291" s="22"/>
     </row>
     <row r="292" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="18"/>
       <c r="B292" s="21"/>
-      <c r="C292" s="47"/>
-      <c r="D292" s="47"/>
-      <c r="E292" s="47"/>
-      <c r="F292" s="47"/>
+      <c r="C292" s="55"/>
+      <c r="D292" s="55"/>
+      <c r="E292" s="55"/>
+      <c r="F292" s="55"/>
       <c r="G292" s="22"/>
       <c r="H292" s="22"/>
     </row>
@@ -4923,30 +4918,30 @@
     <row r="294" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="18"/>
       <c r="B294" s="21"/>
-      <c r="C294" s="47"/>
-      <c r="D294" s="47"/>
-      <c r="E294" s="47"/>
-      <c r="F294" s="47"/>
+      <c r="C294" s="55"/>
+      <c r="D294" s="55"/>
+      <c r="E294" s="55"/>
+      <c r="F294" s="55"/>
       <c r="G294" s="22"/>
       <c r="H294" s="22"/>
     </row>
     <row r="295" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="18"/>
       <c r="B295" s="21"/>
-      <c r="C295" s="47"/>
-      <c r="D295" s="47"/>
-      <c r="E295" s="47"/>
-      <c r="F295" s="47"/>
+      <c r="C295" s="55"/>
+      <c r="D295" s="55"/>
+      <c r="E295" s="55"/>
+      <c r="F295" s="55"/>
       <c r="G295" s="22"/>
       <c r="H295" s="22"/>
     </row>
     <row r="296" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="21"/>
       <c r="B296" s="21"/>
-      <c r="C296" s="47"/>
-      <c r="D296" s="47"/>
-      <c r="E296" s="47"/>
-      <c r="F296" s="47"/>
+      <c r="C296" s="55"/>
+      <c r="D296" s="55"/>
+      <c r="E296" s="55"/>
+      <c r="F296" s="55"/>
       <c r="G296" s="22"/>
       <c r="H296" s="22"/>
     </row>
@@ -4963,10 +4958,10 @@
     <row r="298" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="1"/>
-      <c r="C298" s="48"/>
-      <c r="D298" s="48"/>
-      <c r="E298" s="48"/>
-      <c r="F298" s="48"/>
+      <c r="C298" s="56"/>
+      <c r="D298" s="56"/>
+      <c r="E298" s="56"/>
+      <c r="F298" s="56"/>
       <c r="G298" s="22"/>
       <c r="H298" s="22"/>
     </row>
@@ -5022,31 +5017,31 @@
     </row>
     <row r="304" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
-      <c r="B304" s="47"/>
-      <c r="C304" s="47"/>
-      <c r="D304" s="47"/>
-      <c r="E304" s="47"/>
-      <c r="F304" s="47"/>
+      <c r="B304" s="55"/>
+      <c r="C304" s="55"/>
+      <c r="D304" s="55"/>
+      <c r="E304" s="55"/>
+      <c r="F304" s="55"/>
       <c r="G304" s="22"/>
       <c r="H304" s="22"/>
     </row>
     <row r="305" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
-      <c r="B305" s="47"/>
-      <c r="C305" s="47"/>
-      <c r="D305" s="47"/>
-      <c r="E305" s="47"/>
-      <c r="F305" s="47"/>
+      <c r="B305" s="55"/>
+      <c r="C305" s="55"/>
+      <c r="D305" s="55"/>
+      <c r="E305" s="55"/>
+      <c r="F305" s="55"/>
       <c r="G305" s="22"/>
       <c r="H305" s="22"/>
     </row>
     <row r="306" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="18"/>
-      <c r="B306" s="47"/>
-      <c r="C306" s="47"/>
-      <c r="D306" s="47"/>
-      <c r="E306" s="47"/>
-      <c r="F306" s="47"/>
+      <c r="B306" s="55"/>
+      <c r="C306" s="55"/>
+      <c r="D306" s="55"/>
+      <c r="E306" s="55"/>
+      <c r="F306" s="55"/>
       <c r="G306" s="22"/>
       <c r="H306" s="22"/>
     </row>
@@ -5062,31 +5057,31 @@
     </row>
     <row r="308" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="18"/>
-      <c r="B308" s="47"/>
-      <c r="C308" s="47"/>
-      <c r="D308" s="47"/>
-      <c r="E308" s="47"/>
-      <c r="F308" s="47"/>
+      <c r="B308" s="55"/>
+      <c r="C308" s="55"/>
+      <c r="D308" s="55"/>
+      <c r="E308" s="55"/>
+      <c r="F308" s="55"/>
       <c r="G308" s="22"/>
       <c r="H308" s="22"/>
     </row>
     <row r="309" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="18"/>
-      <c r="B309" s="47"/>
-      <c r="C309" s="47"/>
-      <c r="D309" s="47"/>
-      <c r="E309" s="47"/>
-      <c r="F309" s="47"/>
+      <c r="B309" s="55"/>
+      <c r="C309" s="55"/>
+      <c r="D309" s="55"/>
+      <c r="E309" s="55"/>
+      <c r="F309" s="55"/>
       <c r="G309" s="22"/>
       <c r="H309" s="22"/>
     </row>
     <row r="310" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="21"/>
-      <c r="B310" s="47"/>
-      <c r="C310" s="47"/>
-      <c r="D310" s="47"/>
-      <c r="E310" s="47"/>
-      <c r="F310" s="47"/>
+      <c r="B310" s="55"/>
+      <c r="C310" s="55"/>
+      <c r="D310" s="55"/>
+      <c r="E310" s="55"/>
+      <c r="F310" s="55"/>
       <c r="G310" s="22"/>
       <c r="H310" s="22"/>
     </row>
@@ -5102,11 +5097,11 @@
     </row>
     <row r="312" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
-      <c r="B312" s="48"/>
-      <c r="C312" s="48"/>
-      <c r="D312" s="48"/>
-      <c r="E312" s="48"/>
-      <c r="F312" s="48"/>
+      <c r="B312" s="56"/>
+      <c r="C312" s="56"/>
+      <c r="D312" s="56"/>
+      <c r="E312" s="56"/>
+      <c r="F312" s="56"/>
       <c r="G312" s="22"/>
       <c r="H312" s="22"/>
     </row>
@@ -5162,31 +5157,31 @@
     </row>
     <row r="318" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
-      <c r="B318" s="47"/>
-      <c r="C318" s="47"/>
-      <c r="D318" s="47"/>
-      <c r="E318" s="47"/>
-      <c r="F318" s="47"/>
+      <c r="B318" s="55"/>
+      <c r="C318" s="55"/>
+      <c r="D318" s="55"/>
+      <c r="E318" s="55"/>
+      <c r="F318" s="55"/>
       <c r="G318" s="22"/>
       <c r="H318" s="22"/>
     </row>
     <row r="319" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
-      <c r="B319" s="47"/>
-      <c r="C319" s="47"/>
-      <c r="D319" s="47"/>
-      <c r="E319" s="47"/>
-      <c r="F319" s="47"/>
+      <c r="B319" s="55"/>
+      <c r="C319" s="55"/>
+      <c r="D319" s="55"/>
+      <c r="E319" s="55"/>
+      <c r="F319" s="55"/>
       <c r="G319" s="22"/>
       <c r="H319" s="22"/>
     </row>
     <row r="320" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="18"/>
-      <c r="B320" s="47"/>
-      <c r="C320" s="47"/>
-      <c r="D320" s="47"/>
-      <c r="E320" s="47"/>
-      <c r="F320" s="47"/>
+      <c r="B320" s="55"/>
+      <c r="C320" s="55"/>
+      <c r="D320" s="55"/>
+      <c r="E320" s="55"/>
+      <c r="F320" s="55"/>
       <c r="G320" s="22"/>
       <c r="H320" s="22"/>
     </row>
@@ -5202,31 +5197,31 @@
     </row>
     <row r="322" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="18"/>
-      <c r="B322" s="47"/>
-      <c r="C322" s="47"/>
-      <c r="D322" s="47"/>
-      <c r="E322" s="47"/>
-      <c r="F322" s="47"/>
+      <c r="B322" s="55"/>
+      <c r="C322" s="55"/>
+      <c r="D322" s="55"/>
+      <c r="E322" s="55"/>
+      <c r="F322" s="55"/>
       <c r="G322" s="22"/>
       <c r="H322" s="22"/>
     </row>
     <row r="323" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="18"/>
-      <c r="B323" s="47"/>
-      <c r="C323" s="47"/>
-      <c r="D323" s="47"/>
-      <c r="E323" s="47"/>
-      <c r="F323" s="47"/>
+      <c r="B323" s="55"/>
+      <c r="C323" s="55"/>
+      <c r="D323" s="55"/>
+      <c r="E323" s="55"/>
+      <c r="F323" s="55"/>
       <c r="G323" s="22"/>
       <c r="H323" s="22"/>
     </row>
     <row r="324" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="21"/>
-      <c r="B324" s="47"/>
-      <c r="C324" s="47"/>
-      <c r="D324" s="47"/>
-      <c r="E324" s="47"/>
-      <c r="F324" s="47"/>
+      <c r="B324" s="55"/>
+      <c r="C324" s="55"/>
+      <c r="D324" s="55"/>
+      <c r="E324" s="55"/>
+      <c r="F324" s="55"/>
       <c r="G324" s="22"/>
       <c r="H324" s="22"/>
     </row>
@@ -5242,11 +5237,11 @@
     </row>
     <row r="326" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
-      <c r="B326" s="48"/>
-      <c r="C326" s="48"/>
-      <c r="D326" s="48"/>
-      <c r="E326" s="48"/>
-      <c r="F326" s="48"/>
+      <c r="B326" s="56"/>
+      <c r="C326" s="56"/>
+      <c r="D326" s="56"/>
+      <c r="E326" s="56"/>
+      <c r="F326" s="56"/>
       <c r="G326" s="22"/>
       <c r="H326" s="22"/>
     </row>
@@ -5292,41 +5287,41 @@
     </row>
     <row r="331" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
-      <c r="B331" s="47"/>
-      <c r="C331" s="47"/>
-      <c r="D331" s="47"/>
-      <c r="E331" s="47"/>
-      <c r="F331" s="47"/>
+      <c r="B331" s="55"/>
+      <c r="C331" s="55"/>
+      <c r="D331" s="55"/>
+      <c r="E331" s="55"/>
+      <c r="F331" s="55"/>
       <c r="G331" s="22"/>
       <c r="H331" s="22"/>
     </row>
     <row r="332" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
-      <c r="B332" s="47"/>
-      <c r="C332" s="47"/>
-      <c r="D332" s="47"/>
-      <c r="E332" s="47"/>
-      <c r="F332" s="47"/>
+      <c r="B332" s="55"/>
+      <c r="C332" s="55"/>
+      <c r="D332" s="55"/>
+      <c r="E332" s="55"/>
+      <c r="F332" s="55"/>
       <c r="G332" s="22"/>
       <c r="H332" s="22"/>
     </row>
     <row r="333" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
-      <c r="B333" s="47"/>
-      <c r="C333" s="47"/>
-      <c r="D333" s="47"/>
-      <c r="E333" s="47"/>
-      <c r="F333" s="47"/>
+      <c r="B333" s="55"/>
+      <c r="C333" s="55"/>
+      <c r="D333" s="55"/>
+      <c r="E333" s="55"/>
+      <c r="F333" s="55"/>
       <c r="G333" s="22"/>
       <c r="H333" s="22"/>
     </row>
     <row r="334" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="18"/>
-      <c r="B334" s="47"/>
-      <c r="C334" s="47"/>
-      <c r="D334" s="47"/>
-      <c r="E334" s="47"/>
-      <c r="F334" s="47"/>
+      <c r="B334" s="55"/>
+      <c r="C334" s="55"/>
+      <c r="D334" s="55"/>
+      <c r="E334" s="55"/>
+      <c r="F334" s="55"/>
       <c r="G334" s="22"/>
       <c r="H334" s="22"/>
     </row>
@@ -5352,31 +5347,31 @@
     </row>
     <row r="337" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="18"/>
-      <c r="B337" s="47"/>
-      <c r="C337" s="47"/>
-      <c r="D337" s="47"/>
-      <c r="E337" s="47"/>
-      <c r="F337" s="47"/>
+      <c r="B337" s="55"/>
+      <c r="C337" s="55"/>
+      <c r="D337" s="55"/>
+      <c r="E337" s="55"/>
+      <c r="F337" s="55"/>
       <c r="G337" s="22"/>
       <c r="H337" s="22"/>
     </row>
     <row r="338" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="21"/>
-      <c r="B338" s="47"/>
-      <c r="C338" s="47"/>
-      <c r="D338" s="47"/>
-      <c r="E338" s="47"/>
-      <c r="F338" s="47"/>
+      <c r="B338" s="55"/>
+      <c r="C338" s="55"/>
+      <c r="D338" s="55"/>
+      <c r="E338" s="55"/>
+      <c r="F338" s="55"/>
       <c r="G338" s="22"/>
       <c r="H338" s="22"/>
     </row>
     <row r="339" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="21"/>
-      <c r="B339" s="47"/>
-      <c r="C339" s="47"/>
-      <c r="D339" s="47"/>
-      <c r="E339" s="47"/>
-      <c r="F339" s="47"/>
+      <c r="B339" s="55"/>
+      <c r="C339" s="55"/>
+      <c r="D339" s="55"/>
+      <c r="E339" s="55"/>
+      <c r="F339" s="55"/>
       <c r="G339" s="22"/>
       <c r="H339" s="22"/>
     </row>
@@ -5392,11 +5387,11 @@
     </row>
     <row r="341" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
-      <c r="B341" s="48"/>
-      <c r="C341" s="48"/>
-      <c r="D341" s="48"/>
-      <c r="E341" s="48"/>
-      <c r="F341" s="48"/>
+      <c r="B341" s="56"/>
+      <c r="C341" s="56"/>
+      <c r="D341" s="56"/>
+      <c r="E341" s="56"/>
+      <c r="F341" s="56"/>
       <c r="G341" s="22"/>
       <c r="H341" s="22"/>
     </row>
@@ -5442,41 +5437,41 @@
     </row>
     <row r="346" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
-      <c r="B346" s="47"/>
-      <c r="C346" s="47"/>
-      <c r="D346" s="47"/>
-      <c r="E346" s="47"/>
-      <c r="F346" s="47"/>
+      <c r="B346" s="55"/>
+      <c r="C346" s="55"/>
+      <c r="D346" s="55"/>
+      <c r="E346" s="55"/>
+      <c r="F346" s="55"/>
       <c r="G346" s="22"/>
       <c r="H346" s="22"/>
     </row>
     <row r="347" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
-      <c r="B347" s="47"/>
-      <c r="C347" s="47"/>
-      <c r="D347" s="47"/>
-      <c r="E347" s="47"/>
-      <c r="F347" s="47"/>
+      <c r="B347" s="55"/>
+      <c r="C347" s="55"/>
+      <c r="D347" s="55"/>
+      <c r="E347" s="55"/>
+      <c r="F347" s="55"/>
       <c r="G347" s="22"/>
       <c r="H347" s="22"/>
     </row>
     <row r="348" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
-      <c r="B348" s="47"/>
-      <c r="C348" s="47"/>
-      <c r="D348" s="47"/>
-      <c r="E348" s="47"/>
-      <c r="F348" s="47"/>
+      <c r="B348" s="55"/>
+      <c r="C348" s="55"/>
+      <c r="D348" s="55"/>
+      <c r="E348" s="55"/>
+      <c r="F348" s="55"/>
       <c r="G348" s="22"/>
       <c r="H348" s="22"/>
     </row>
     <row r="349" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="18"/>
-      <c r="B349" s="47"/>
-      <c r="C349" s="47"/>
-      <c r="D349" s="47"/>
-      <c r="E349" s="47"/>
-      <c r="F349" s="47"/>
+      <c r="B349" s="55"/>
+      <c r="C349" s="55"/>
+      <c r="D349" s="55"/>
+      <c r="E349" s="55"/>
+      <c r="F349" s="55"/>
       <c r="G349" s="22"/>
       <c r="H349" s="22"/>
     </row>
@@ -5492,41 +5487,41 @@
     </row>
     <row r="351" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="18"/>
-      <c r="B351" s="47"/>
-      <c r="C351" s="47"/>
-      <c r="D351" s="47"/>
-      <c r="E351" s="47"/>
-      <c r="F351" s="47"/>
+      <c r="B351" s="55"/>
+      <c r="C351" s="55"/>
+      <c r="D351" s="55"/>
+      <c r="E351" s="55"/>
+      <c r="F351" s="55"/>
       <c r="G351" s="22"/>
       <c r="H351" s="22"/>
     </row>
     <row r="352" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="18"/>
-      <c r="B352" s="47"/>
-      <c r="C352" s="47"/>
-      <c r="D352" s="47"/>
-      <c r="E352" s="47"/>
-      <c r="F352" s="47"/>
+      <c r="B352" s="55"/>
+      <c r="C352" s="55"/>
+      <c r="D352" s="55"/>
+      <c r="E352" s="55"/>
+      <c r="F352" s="55"/>
       <c r="G352" s="22"/>
       <c r="H352" s="22"/>
     </row>
     <row r="353" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="21"/>
-      <c r="B353" s="47"/>
-      <c r="C353" s="47"/>
-      <c r="D353" s="47"/>
-      <c r="E353" s="47"/>
-      <c r="F353" s="47"/>
+      <c r="B353" s="55"/>
+      <c r="C353" s="55"/>
+      <c r="D353" s="55"/>
+      <c r="E353" s="55"/>
+      <c r="F353" s="55"/>
       <c r="G353" s="22"/>
       <c r="H353" s="22"/>
     </row>
     <row r="354" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="21"/>
-      <c r="B354" s="47"/>
-      <c r="C354" s="47"/>
-      <c r="D354" s="47"/>
-      <c r="E354" s="47"/>
-      <c r="F354" s="47"/>
+      <c r="B354" s="55"/>
+      <c r="C354" s="55"/>
+      <c r="D354" s="55"/>
+      <c r="E354" s="55"/>
+      <c r="F354" s="55"/>
       <c r="G354" s="22"/>
       <c r="H354" s="22"/>
     </row>
@@ -5542,11 +5537,11 @@
     </row>
     <row r="356" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="23"/>
-      <c r="B356" s="48"/>
-      <c r="C356" s="48"/>
-      <c r="D356" s="48"/>
-      <c r="E356" s="48"/>
-      <c r="F356" s="48"/>
+      <c r="B356" s="56"/>
+      <c r="C356" s="56"/>
+      <c r="D356" s="56"/>
+      <c r="E356" s="56"/>
+      <c r="F356" s="56"/>
       <c r="G356" s="22"/>
       <c r="H356" s="22"/>
     </row>
@@ -5592,9 +5587,9 @@
     </row>
     <row r="361" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
-      <c r="B361" s="47"/>
-      <c r="C361" s="47"/>
-      <c r="D361" s="47"/>
+      <c r="B361" s="55"/>
+      <c r="C361" s="55"/>
+      <c r="D361" s="55"/>
       <c r="E361" s="21"/>
       <c r="F361" s="24"/>
       <c r="G361" s="22"/>
@@ -5602,9 +5597,9 @@
     </row>
     <row r="362" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
-      <c r="B362" s="47"/>
-      <c r="C362" s="47"/>
-      <c r="D362" s="47"/>
+      <c r="B362" s="55"/>
+      <c r="C362" s="55"/>
+      <c r="D362" s="55"/>
       <c r="E362" s="21"/>
       <c r="F362" s="24"/>
       <c r="G362" s="22"/>
@@ -5612,9 +5607,9 @@
     </row>
     <row r="363" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
-      <c r="B363" s="47"/>
-      <c r="C363" s="47"/>
-      <c r="D363" s="47"/>
+      <c r="B363" s="55"/>
+      <c r="C363" s="55"/>
+      <c r="D363" s="55"/>
       <c r="E363" s="21"/>
       <c r="F363" s="24"/>
       <c r="G363" s="22"/>
@@ -5622,9 +5617,9 @@
     </row>
     <row r="364" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="18"/>
-      <c r="B364" s="47"/>
-      <c r="C364" s="47"/>
-      <c r="D364" s="47"/>
+      <c r="B364" s="55"/>
+      <c r="C364" s="55"/>
+      <c r="D364" s="55"/>
       <c r="E364" s="21"/>
       <c r="F364" s="24"/>
       <c r="G364" s="22"/>
@@ -5642,9 +5637,9 @@
     </row>
     <row r="366" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="18"/>
-      <c r="B366" s="47"/>
-      <c r="C366" s="47"/>
-      <c r="D366" s="47"/>
+      <c r="B366" s="55"/>
+      <c r="C366" s="55"/>
+      <c r="D366" s="55"/>
       <c r="E366" s="21"/>
       <c r="F366" s="24"/>
       <c r="G366" s="22"/>
@@ -5652,9 +5647,9 @@
     </row>
     <row r="367" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="18"/>
-      <c r="B367" s="47"/>
-      <c r="C367" s="47"/>
-      <c r="D367" s="47"/>
+      <c r="B367" s="55"/>
+      <c r="C367" s="55"/>
+      <c r="D367" s="55"/>
       <c r="E367" s="21"/>
       <c r="F367" s="24"/>
       <c r="G367" s="22"/>
@@ -5662,9 +5657,9 @@
     </row>
     <row r="368" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="21"/>
-      <c r="B368" s="47"/>
-      <c r="C368" s="47"/>
-      <c r="D368" s="47"/>
+      <c r="B368" s="55"/>
+      <c r="C368" s="55"/>
+      <c r="D368" s="55"/>
       <c r="E368" s="21"/>
       <c r="F368" s="24"/>
       <c r="G368" s="22"/>
@@ -5672,9 +5667,9 @@
     </row>
     <row r="369" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="21"/>
-      <c r="B369" s="47"/>
-      <c r="C369" s="47"/>
-      <c r="D369" s="47"/>
+      <c r="B369" s="55"/>
+      <c r="C369" s="55"/>
+      <c r="D369" s="55"/>
       <c r="E369" s="21"/>
       <c r="F369" s="24"/>
       <c r="G369" s="22"/>
@@ -5692,9 +5687,9 @@
     </row>
     <row r="371" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
-      <c r="B371" s="48"/>
-      <c r="C371" s="48"/>
-      <c r="D371" s="48"/>
+      <c r="B371" s="56"/>
+      <c r="C371" s="56"/>
+      <c r="D371" s="56"/>
       <c r="E371" s="28"/>
       <c r="F371" s="25"/>
       <c r="G371" s="22"/>
@@ -5822,11 +5817,11 @@
     </row>
     <row r="384" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
-      <c r="B384" s="48"/>
-      <c r="C384" s="48"/>
-      <c r="D384" s="48"/>
-      <c r="E384" s="48"/>
-      <c r="F384" s="48"/>
+      <c r="B384" s="56"/>
+      <c r="C384" s="56"/>
+      <c r="D384" s="56"/>
+      <c r="E384" s="56"/>
+      <c r="F384" s="56"/>
       <c r="G384" s="22"/>
       <c r="H384" s="22"/>
     </row>
@@ -5952,11 +5947,11 @@
     </row>
     <row r="397" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
-      <c r="B397" s="48"/>
-      <c r="C397" s="48"/>
-      <c r="D397" s="48"/>
-      <c r="E397" s="48"/>
-      <c r="F397" s="48"/>
+      <c r="B397" s="56"/>
+      <c r="C397" s="56"/>
+      <c r="D397" s="56"/>
+      <c r="E397" s="56"/>
+      <c r="F397" s="56"/>
       <c r="G397" s="22"/>
       <c r="H397" s="22"/>
     </row>
@@ -6082,11 +6077,11 @@
     </row>
     <row r="410" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
-      <c r="B410" s="48"/>
-      <c r="C410" s="48"/>
-      <c r="D410" s="48"/>
-      <c r="E410" s="48"/>
-      <c r="F410" s="48"/>
+      <c r="B410" s="56"/>
+      <c r="C410" s="56"/>
+      <c r="D410" s="56"/>
+      <c r="E410" s="56"/>
+      <c r="F410" s="56"/>
       <c r="G410" s="22"/>
       <c r="H410" s="22"/>
     </row>
@@ -6212,11 +6207,11 @@
     </row>
     <row r="423" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
-      <c r="B423" s="48"/>
-      <c r="C423" s="48"/>
-      <c r="D423" s="48"/>
-      <c r="E423" s="48"/>
-      <c r="F423" s="48"/>
+      <c r="B423" s="56"/>
+      <c r="C423" s="56"/>
+      <c r="D423" s="56"/>
+      <c r="E423" s="56"/>
+      <c r="F423" s="56"/>
       <c r="G423" s="22"/>
       <c r="H423" s="22"/>
     </row>
@@ -6342,11 +6337,11 @@
     </row>
     <row r="436" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
-      <c r="B436" s="48"/>
-      <c r="C436" s="48"/>
-      <c r="D436" s="48"/>
-      <c r="E436" s="48"/>
-      <c r="F436" s="48"/>
+      <c r="B436" s="56"/>
+      <c r="C436" s="56"/>
+      <c r="D436" s="56"/>
+      <c r="E436" s="56"/>
+      <c r="F436" s="56"/>
       <c r="G436" s="22"/>
       <c r="H436" s="22"/>
     </row>
@@ -6472,11 +6467,11 @@
     </row>
     <row r="449" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="23"/>
-      <c r="B449" s="48"/>
-      <c r="C449" s="48"/>
-      <c r="D449" s="48"/>
-      <c r="E449" s="48"/>
-      <c r="F449" s="48"/>
+      <c r="B449" s="56"/>
+      <c r="C449" s="56"/>
+      <c r="D449" s="56"/>
+      <c r="E449" s="56"/>
+      <c r="F449" s="56"/>
       <c r="G449" s="22"/>
       <c r="H449" s="22"/>
     </row>
@@ -6602,11 +6597,11 @@
     </row>
     <row r="462" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
-      <c r="B462" s="48"/>
-      <c r="C462" s="48"/>
-      <c r="D462" s="48"/>
-      <c r="E462" s="48"/>
-      <c r="F462" s="48"/>
+      <c r="B462" s="56"/>
+      <c r="C462" s="56"/>
+      <c r="D462" s="56"/>
+      <c r="E462" s="56"/>
+      <c r="F462" s="56"/>
       <c r="G462" s="22"/>
       <c r="H462" s="22"/>
     </row>
@@ -6732,11 +6727,11 @@
     </row>
     <row r="475" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="23"/>
-      <c r="B475" s="48"/>
-      <c r="C475" s="48"/>
-      <c r="D475" s="48"/>
-      <c r="E475" s="48"/>
-      <c r="F475" s="48"/>
+      <c r="B475" s="56"/>
+      <c r="C475" s="56"/>
+      <c r="D475" s="56"/>
+      <c r="E475" s="56"/>
+      <c r="F475" s="56"/>
       <c r="G475" s="22"/>
       <c r="H475" s="22"/>
     </row>
@@ -6863,10 +6858,10 @@
     <row r="488" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="28"/>
-      <c r="C488" s="48"/>
-      <c r="D488" s="48"/>
-      <c r="E488" s="48"/>
-      <c r="F488" s="48"/>
+      <c r="C488" s="56"/>
+      <c r="D488" s="56"/>
+      <c r="E488" s="56"/>
+      <c r="F488" s="56"/>
       <c r="G488" s="22"/>
       <c r="H488" s="22"/>
     </row>
@@ -6992,11 +6987,11 @@
     </row>
     <row r="501" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="23"/>
-      <c r="B501" s="48"/>
-      <c r="C501" s="48"/>
-      <c r="D501" s="48"/>
-      <c r="E501" s="48"/>
-      <c r="F501" s="48"/>
+      <c r="B501" s="56"/>
+      <c r="C501" s="56"/>
+      <c r="D501" s="56"/>
+      <c r="E501" s="56"/>
+      <c r="F501" s="56"/>
       <c r="G501" s="22"/>
       <c r="H501" s="22"/>
     </row>
@@ -7122,11 +7117,11 @@
     </row>
     <row r="514" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="23"/>
-      <c r="B514" s="48"/>
-      <c r="C514" s="48"/>
-      <c r="D514" s="48"/>
-      <c r="E514" s="48"/>
-      <c r="F514" s="48"/>
+      <c r="B514" s="56"/>
+      <c r="C514" s="56"/>
+      <c r="D514" s="56"/>
+      <c r="E514" s="56"/>
+      <c r="F514" s="56"/>
       <c r="G514" s="22"/>
       <c r="H514" s="22"/>
     </row>
@@ -7252,11 +7247,11 @@
     </row>
     <row r="527" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="23"/>
-      <c r="B527" s="48"/>
-      <c r="C527" s="48"/>
-      <c r="D527" s="48"/>
-      <c r="E527" s="48"/>
-      <c r="F527" s="48"/>
+      <c r="B527" s="56"/>
+      <c r="C527" s="56"/>
+      <c r="D527" s="56"/>
+      <c r="E527" s="56"/>
+      <c r="F527" s="56"/>
       <c r="G527" s="22"/>
       <c r="H527" s="22"/>
     </row>
@@ -7382,11 +7377,11 @@
     </row>
     <row r="540" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="23"/>
-      <c r="B540" s="48"/>
-      <c r="C540" s="48"/>
-      <c r="D540" s="48"/>
-      <c r="E540" s="48"/>
-      <c r="F540" s="48"/>
+      <c r="B540" s="56"/>
+      <c r="C540" s="56"/>
+      <c r="D540" s="56"/>
+      <c r="E540" s="56"/>
+      <c r="F540" s="56"/>
       <c r="G540" s="22"/>
       <c r="H540" s="22"/>
     </row>
@@ -7512,11 +7507,11 @@
     </row>
     <row r="553" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="23"/>
-      <c r="B553" s="48"/>
-      <c r="C553" s="48"/>
-      <c r="D553" s="48"/>
-      <c r="E553" s="48"/>
-      <c r="F553" s="48"/>
+      <c r="B553" s="56"/>
+      <c r="C553" s="56"/>
+      <c r="D553" s="56"/>
+      <c r="E553" s="56"/>
+      <c r="F553" s="56"/>
       <c r="G553" s="22"/>
       <c r="H553" s="22"/>
     </row>
@@ -7642,11 +7637,11 @@
     </row>
     <row r="566" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="23"/>
-      <c r="B566" s="48"/>
-      <c r="C566" s="48"/>
-      <c r="D566" s="48"/>
-      <c r="E566" s="48"/>
-      <c r="F566" s="48"/>
+      <c r="B566" s="56"/>
+      <c r="C566" s="56"/>
+      <c r="D566" s="56"/>
+      <c r="E566" s="56"/>
+      <c r="F566" s="56"/>
       <c r="G566" s="22"/>
       <c r="H566" s="22"/>
     </row>
@@ -7772,11 +7767,11 @@
     </row>
     <row r="579" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="23"/>
-      <c r="B579" s="48"/>
-      <c r="C579" s="48"/>
-      <c r="D579" s="48"/>
-      <c r="E579" s="48"/>
-      <c r="F579" s="48"/>
+      <c r="B579" s="56"/>
+      <c r="C579" s="56"/>
+      <c r="D579" s="56"/>
+      <c r="E579" s="56"/>
+      <c r="F579" s="56"/>
       <c r="G579" s="22"/>
       <c r="H579" s="22"/>
     </row>
@@ -7902,11 +7897,11 @@
     </row>
     <row r="592" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="23"/>
-      <c r="B592" s="48"/>
-      <c r="C592" s="48"/>
-      <c r="D592" s="48"/>
-      <c r="E592" s="48"/>
-      <c r="F592" s="48"/>
+      <c r="B592" s="56"/>
+      <c r="C592" s="56"/>
+      <c r="D592" s="56"/>
+      <c r="E592" s="56"/>
+      <c r="F592" s="56"/>
       <c r="G592" s="22"/>
       <c r="H592" s="22"/>
     </row>
@@ -8032,11 +8027,11 @@
     </row>
     <row r="605" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="23"/>
-      <c r="B605" s="48"/>
-      <c r="C605" s="48"/>
-      <c r="D605" s="48"/>
-      <c r="E605" s="48"/>
-      <c r="F605" s="48"/>
+      <c r="B605" s="56"/>
+      <c r="C605" s="56"/>
+      <c r="D605" s="56"/>
+      <c r="E605" s="56"/>
+      <c r="F605" s="56"/>
       <c r="G605" s="22"/>
       <c r="H605" s="22"/>
     </row>
@@ -8162,11 +8157,11 @@
     </row>
     <row r="618" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="23"/>
-      <c r="B618" s="48"/>
-      <c r="C618" s="48"/>
-      <c r="D618" s="48"/>
-      <c r="E618" s="48"/>
-      <c r="F618" s="48"/>
+      <c r="B618" s="56"/>
+      <c r="C618" s="56"/>
+      <c r="D618" s="56"/>
+      <c r="E618" s="56"/>
+      <c r="F618" s="56"/>
       <c r="G618" s="22"/>
       <c r="H618" s="22"/>
     </row>
@@ -8292,11 +8287,11 @@
     </row>
     <row r="631" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="23"/>
-      <c r="B631" s="48"/>
-      <c r="C631" s="48"/>
-      <c r="D631" s="48"/>
-      <c r="E631" s="48"/>
-      <c r="F631" s="48"/>
+      <c r="B631" s="56"/>
+      <c r="C631" s="56"/>
+      <c r="D631" s="56"/>
+      <c r="E631" s="56"/>
+      <c r="F631" s="56"/>
       <c r="G631" s="22"/>
       <c r="H631" s="22"/>
     </row>
@@ -8422,9 +8417,9 @@
     </row>
     <row r="644" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="23"/>
-      <c r="B644" s="48"/>
-      <c r="C644" s="48"/>
-      <c r="D644" s="48"/>
+      <c r="B644" s="56"/>
+      <c r="C644" s="56"/>
+      <c r="D644" s="56"/>
       <c r="E644" s="28"/>
       <c r="F644" s="28"/>
       <c r="G644" s="22"/>
@@ -8552,11 +8547,11 @@
     </row>
     <row r="657" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="23"/>
-      <c r="B657" s="48"/>
-      <c r="C657" s="48"/>
-      <c r="D657" s="48"/>
-      <c r="E657" s="48"/>
-      <c r="F657" s="48"/>
+      <c r="B657" s="56"/>
+      <c r="C657" s="56"/>
+      <c r="D657" s="56"/>
+      <c r="E657" s="56"/>
+      <c r="F657" s="56"/>
       <c r="G657" s="22"/>
       <c r="H657" s="22"/>
     </row>
@@ -8682,11 +8677,11 @@
     </row>
     <row r="670" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="23"/>
-      <c r="B670" s="48"/>
-      <c r="C670" s="48"/>
-      <c r="D670" s="48"/>
-      <c r="E670" s="48"/>
-      <c r="F670" s="48"/>
+      <c r="B670" s="56"/>
+      <c r="C670" s="56"/>
+      <c r="D670" s="56"/>
+      <c r="E670" s="56"/>
+      <c r="F670" s="56"/>
       <c r="G670" s="22"/>
       <c r="H670" s="22"/>
     </row>
@@ -8812,11 +8807,11 @@
     </row>
     <row r="683" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="23"/>
-      <c r="B683" s="48"/>
-      <c r="C683" s="48"/>
-      <c r="D683" s="48"/>
-      <c r="E683" s="48"/>
-      <c r="F683" s="48"/>
+      <c r="B683" s="56"/>
+      <c r="C683" s="56"/>
+      <c r="D683" s="56"/>
+      <c r="E683" s="56"/>
+      <c r="F683" s="56"/>
       <c r="G683" s="22"/>
       <c r="H683" s="22"/>
     </row>
@@ -8945,8 +8940,8 @@
       <c r="B696" s="25"/>
       <c r="C696" s="28"/>
       <c r="D696" s="28"/>
-      <c r="E696" s="48"/>
-      <c r="F696" s="48"/>
+      <c r="E696" s="56"/>
+      <c r="F696" s="56"/>
       <c r="G696" s="22"/>
       <c r="H696" s="22"/>
     </row>
@@ -9072,11 +9067,11 @@
     </row>
     <row r="709" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="23"/>
-      <c r="B709" s="48"/>
-      <c r="C709" s="48"/>
+      <c r="B709" s="56"/>
+      <c r="C709" s="56"/>
       <c r="D709" s="28"/>
-      <c r="E709" s="48"/>
-      <c r="F709" s="48"/>
+      <c r="E709" s="56"/>
+      <c r="F709" s="56"/>
       <c r="G709" s="22"/>
       <c r="H709" s="22"/>
     </row>
@@ -9120,6 +9115,7 @@
     <mergeCell ref="B356:F356"/>
     <mergeCell ref="B334:F334"/>
     <mergeCell ref="B349:F349"/>
+    <mergeCell ref="C290:F290"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
@@ -9133,6 +9129,7 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B527:F527"/>
     <mergeCell ref="B540:F540"/>
@@ -9144,17 +9141,6 @@
     <mergeCell ref="B501:F501"/>
     <mergeCell ref="B514:F514"/>
     <mergeCell ref="C488:F488"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B709:C709"/>
-    <mergeCell ref="E709:F709"/>
-    <mergeCell ref="E696:F696"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B644:D644"/>
     <mergeCell ref="B262:F262"/>
     <mergeCell ref="B263:F263"/>
     <mergeCell ref="B268:F268"/>
@@ -9168,6 +9154,17 @@
     <mergeCell ref="B219:F219"/>
     <mergeCell ref="B159:E159"/>
     <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B709:C709"/>
+    <mergeCell ref="E709:F709"/>
+    <mergeCell ref="E696:F696"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B644:D644"/>
     <mergeCell ref="B179:F179"/>
     <mergeCell ref="B222:F222"/>
     <mergeCell ref="B228:F228"/>
@@ -9185,6 +9182,13 @@
     <mergeCell ref="B332:F332"/>
     <mergeCell ref="B333:F333"/>
     <mergeCell ref="B338:F338"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B304:F304"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D14:F14"/>
@@ -9238,14 +9242,10 @@
     <mergeCell ref="B171:F171"/>
     <mergeCell ref="B160:E160"/>
     <mergeCell ref="B161:E161"/>
-    <mergeCell ref="C298:F298"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="C65:F65"/>
     <mergeCell ref="C291:F291"/>
     <mergeCell ref="C296:F296"/>
     <mergeCell ref="C294:F294"/>
@@ -9284,10 +9284,6 @@
     <mergeCell ref="B172:F172"/>
     <mergeCell ref="B180:F180"/>
     <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="C65:F65"/>
     <mergeCell ref="B87:F87"/>
     <mergeCell ref="B74:F74"/>
     <mergeCell ref="B61:F61"/>
@@ -9310,7 +9306,6 @@
     <mergeCell ref="B102:F102"/>
     <mergeCell ref="B81:F81"/>
     <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="B73:F73"/>
     <mergeCell ref="B75:F75"/>
@@ -9331,226 +9326,4 @@
   <pageSetup scale="45" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C52AC05ABFE72848B064B29BAAE56978" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e46e943270ee26bd29fcd296d6dc0391">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d7f988bb-f583-49a7-b3d9-d97123f42079" xmlns:ns3="3edb9f2a-be93-48b2-8353-85a0a13fb21f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="500a4c8be8b02aa6735dedf3aecdc3bf" ns2:_="" ns3:_="">
-    <xsd:import namespace="d7f988bb-f583-49a7-b3d9-d97123f42079"/>
-    <xsd:import namespace="3edb9f2a-be93-48b2-8353-85a0a13fb21f"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d7f988bb-f583-49a7-b3d9-d97123f42079" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3edb9f2a-be93-48b2-8353-85a0a13fb21f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1294CE1-7D2C-4304-B992-670D67B17C6E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80FE525-8B83-4691-86E0-0CA5EFF1F83B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D1DCC7-5662-4D3A-BFAB-AD438884EE5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d7f988bb-f583-49a7-b3d9-d97123f42079"/>
-    <ds:schemaRef ds:uri="3edb9f2a-be93-48b2-8353-85a0a13fb21f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>